--- a/Entregavel_02/Sprint_03/PAP-PAR-PLANILHA_DE_AVALIACAO_GPR.xlsx
+++ b/Entregavel_02/Sprint_03/PAP-PAR-PLANILHA_DE_AVALIACAO_GPR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" tabRatio="298"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="7860" windowHeight="7875" tabRatio="298"/>
   </bookViews>
   <sheets>
     <sheet name="GPR" sheetId="1" r:id="rId1"/>
@@ -14,33 +14,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="83">
   <si>
     <t>(T,L,P,N,NA)</t>
-  </si>
-  <si>
-    <t>Processo de Garantia de Qualidade - Sessao 5 - Métricas</t>
-  </si>
-  <si>
-    <t>RAP 10. (A partir do nível F) A aderência dos processos executados às descrições de processo, padrões e procedimentos é avaliada objetivamente e são tratadas as não conformidades.                                                                           
-As evidências apresentadas para este resultado permitem assegurar que: (i) foi verificado se o processo foi executado seguindo  as descrições do processo, padrões e procedimentos aplicáveis? (ii) em caso de não conformidades, ações corretivas são estabelecidas e gerenciadas até a sua conclusão?</t>
   </si>
   <si>
     <t>RAP 10. (Para o nível G). O processo planejado para o projeto é executado.                                                                           
 As evidências apresentadas para este resultado permitem assegurar que o projeto foi conduzido a partir da execução do seu processo planejado, bem como se existem registros de execução das atividades do processo com base no seu planejamento?</t>
   </si>
   <si>
-    <t>Relatório de Acompanhamento do Projeto - Sessao 2 - Acompanhamento de Riscos e Problemas</t>
-  </si>
-  <si>
-    <t>Relatório de Acompanhamento do Projeto - Sessao 1 - Atividades</t>
-  </si>
-  <si>
     <t>Processo de Garantia de Qualidade - Sessao 6 - Macro Fluxo</t>
-  </si>
-  <si>
-    <t>RAP 9. (A partir do nível E). Métodos adequados para monitorar a eficácia e adequação do processo são determinados e os resultados do processo são revistos com a gerência de alto nível para fornecer visibilidade sobre a sua situação na organização.                                                                           
-As evidências apresentadas para este resultado permitem assegurar que  foram definidos e utilizados métodos que forneçam visibilidade do estado da execução do processo à gerência de alto nível?</t>
   </si>
   <si>
     <t>Processo de Garantia de Qualidade - Sessao 7 - Definicao de Atividades</t>
@@ -67,9 +50,6 @@
 As evidências apresentadas para este resultado permitem assegurar que foi fornecido treinamento  formal (cursos) ou informal (mentoring) para a execução do processo? (Considerar que, quando o indivíduo já possui o perfil e habilidades para executar o processo, o treinamento é dispensável.)</t>
   </si>
   <si>
-    <t>Processo de Garantia da Qualidade - Sessao 7 - Definicao de Atividades</t>
-  </si>
-  <si>
     <t>RAP 6. (A partir do nível E). Os papéis requeridos, responsabilidades e autoridade para execução do processo definido são atribuídos e comunicados.
 As evidências apresentadas para este resultado permitem assegurar que os papéis requeridos, as responsabilidades e a autoridade para executar o processo definido foram definidos, atribuídos e comunicados a todas as partes interessadas?</t>
   </si>
@@ -82,15 +62,6 @@
 As evidências apresentadas para este resultado permitem assegurar que foram identificados e disponibilizados os recursos necessários (ex: pessoal, financeiros,hardware/infra-estrutura, software/ferramentas) e as informações necessárias (ex: processos, padrões, modelos, guias) para executar o processo?</t>
   </si>
   <si>
-    <t>Relatório de Encerramento de Testes</t>
-  </si>
-  <si>
-    <t>Relatório Sumário de Testes</t>
-  </si>
-  <si>
-    <t>Relatório de Qualidade</t>
-  </si>
-  <si>
     <t>Relatório de Marco do Projeto</t>
   </si>
   <si>
@@ -115,9 +86,6 @@
     <t>AP 2.1 O processo é gerenciado</t>
   </si>
   <si>
-    <t>Plano de Projeto - Sessao 2 - Cronograma de Marcos do Projeto</t>
-  </si>
-  <si>
     <t>RAP 1. O processo atinge seus resultados definidos.
 As evidências apresentadas para este resultado permitem assegurar que o processo transforma produtos de trabalho de entrada identificáveis em produtos de trabalho de saída, também identificáveis, permitindo atingir o propósito do processo?</t>
   </si>
@@ -135,9 +103,6 @@
 As evidências apresentadas para este resultado permitem assegurar que: (i) na monitoração do projeto foram identificadas ações corretivas, tanto para corrigir desvios em relação ao planejado, quanto para prevenir a repetição dos problemas identificados? (ii) estas ações foram acompanhadas e investigadas quanto à efetividade, antes de serem consideradas concluídas? (iii) os problemas e as ações corretivas foram repassados para níveis hierárquicos superiores, quando necessário, para garantir sua conclusão?</t>
   </si>
   <si>
-    <t>Plano de Projeto - Sessao 6 - Riscos</t>
-  </si>
-  <si>
     <t xml:space="preserve">GPR 18. Registros de problemas identificados e o resultado da análise de questões pertinentes, incluindo dependências críticas, são estabelecidos e tratados com as partes interessadas.
 As evidências apresentadas para este resultado permitem assegurar que existem registros de identificação e análise dos problemas ocorridos no projeto e de que estes problemas foram  tratados com os interessados? </t>
   </si>
@@ -153,23 +118,14 @@
 As evidências apresentadas para este resultado permitem assegurar que o que foi planejado em relação ao envolvimento das partes interessadas foi monitorado e se existe evidência de que os compromissos assumidos foram cumpridos ou negociados?</t>
   </si>
   <si>
-    <t>Checklist de Qualidade - GRE</t>
-  </si>
-  <si>
     <t>GPR 15. Os riscos são monitorados em relação ao planejado.
 As evidências apresentadas para este resultado permitem assegurar que o projeto foi monitorado ao longo de seu ciclo de vida, comparando o planejado e o realizado em relação aos riscos?</t>
   </si>
   <si>
-    <t>Checklist de Qualidade - GCO</t>
-  </si>
-  <si>
     <t>GPR 14. Os recursos materiais e humanos bem como os dados relevantes do projeto são monitorados em relação ao planejado.
 As evidências apresentadas para este resultado permitem assegurar que o projeto foi monitorado ao longo de seu ciclo de vida, comparando o planejado e o realizado em relação ao escopo aos recursos materiais, humanos e em relação aos dados relevantes do projeto?</t>
   </si>
   <si>
-    <t xml:space="preserve">Checklist de Qualidade - GPR </t>
-  </si>
-  <si>
     <t>GPR 13. O escopo, as tarefas, as estimativas, o orçamento e o cronograma do projeto são monitorados em relação ao planejado.
 As evidências apresentadas para este resultado permitem assegurar que o projeto foi monitorado ao longo de seu ciclo de vida, comparando o planejado e o realizado em relação ao escopo, prazo, esforço, custos e cronograma?</t>
   </si>
@@ -185,9 +141,6 @@
 As evidências apresentadas para este resultado permitem assegurar que  a viabilidade do projeto foi avaliada de forma explícita após a elaboração do plano do projeto,  e considerando critérios como os objetivos do projeto, os recursos financeiros, técnicos, humanos, bem como das restrições impostas pelo cliente?</t>
   </si>
   <si>
-    <t>Plano de Projeto - Sessao 8 - Marcos e Pontos de Controle</t>
-  </si>
-  <si>
     <t>GPR 10. Um plano geral para a execução do projeto é estabelecido com a integração de planos específicos.
 As evidências apresentadas para este resultado permitem assegurar que as informações de planejamento do projeto foram documentadas, organizadas e relacionadas entre si, de forma a comporem o plano de projeto?</t>
   </si>
@@ -199,29 +152,14 @@
 As evidências apresentadas para este resultado permitem assegurar que  existe um plano para gerência de dados, que relacione todos os documentos gerados no projeto, sua distribuição, mídia para armazenamento, forma de proteção (segurança e sigilo) e recuperação dos dados?</t>
   </si>
   <si>
-    <t>Plano de Projeto - Sessao 7 - Item 7.b</t>
-  </si>
-  <si>
     <t>GPR 8. (Até o Nível F) Os recursos e o ambiente de trabalho necessários para executar o projeto são planejados.
 As evidências apresentadas para este resultado permitem assegurar que foram planejados os recursos e o ambiente de trabalho necessários? (obs: aqui trata-se de outros recursos que não recursos humanos).</t>
   </si>
   <si>
-    <t>Plano de Projeto - Sessao 7 - Itens 7.a.i e 7.a.ii</t>
-  </si>
-  <si>
     <t>GPR 7. Os recursos humanos para o projeto são planejados considerando o perfil e o conhecimento necessários para executá-lo.
 As evidências apresentadas para este resultado permitem assegurar que: (i) a equipe do projeto foi selecionada a partir das competências requeridas para realizar as atividades do projeto e considerando o perfil dos candidatos?; (ii) foi planejado treinamento, quando necessário?</t>
   </si>
   <si>
-    <t xml:space="preserve">Plano de Projeto - Sessao 10- </t>
-  </si>
-  <si>
-    <t>Plano de Projeto - Sessao 6 - Matriz de Probabilidade x Impacto</t>
-  </si>
-  <si>
-    <t>Plano de Projeto - Sessao 6 - Tabelas de  Probabilidade e Impacto</t>
-  </si>
-  <si>
     <t>GPR 6. Os riscos do projeto são identificados e o seu impacto, probabilidade de ocorrência e prioridade de tratamento são determinados e documentados.
 As evidências apresentadas para este resultado permitem assegurar que: (i) existe uma lista dos riscos identificados para o projeto? (ii) foi realizada uma análise para determinar a probabilidade, o impacto, o grau de importância (exposição) e a prioridade de cada risco?</t>
   </si>
@@ -299,13 +237,70 @@
   </si>
   <si>
     <t>Plano de Projeto - Sessao 2 (i)(ii)(iii)</t>
+  </si>
+  <si>
+    <t>Plano de Projeto - Sessao 5</t>
+  </si>
+  <si>
+    <t>Relatorio de Acompanhamento do Projeto</t>
+  </si>
+  <si>
+    <t>Relatorio de Acompanhamento do Projeto - Sessao 2</t>
+  </si>
+  <si>
+    <t>Plano de Projeto - Sessao 6</t>
+  </si>
+  <si>
+    <t>Plano de Gerencia de Configuração</t>
+  </si>
+  <si>
+    <t>Plano de Projeto - Sessao 1 - Item 1.3 EAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plano de Projeto - Sessao 2 </t>
+  </si>
+  <si>
+    <t>Plano de Projeto - Sessao 9 - itens 9.1 - item 9.2 - item 9.3</t>
+  </si>
+  <si>
+    <t>Plano de Projeto - Sessao 11</t>
+  </si>
+  <si>
+    <t>Relatorio do Marco do Projeto</t>
+  </si>
+  <si>
+    <t>Check List de Qualidade</t>
+  </si>
+  <si>
+    <t>Relatorio Check List Acompanhamento</t>
+  </si>
+  <si>
+    <t>Gerenciamento de Riscos</t>
+  </si>
+  <si>
+    <t>Relatorio de Monitoramento de Comprometimento</t>
+  </si>
+  <si>
+    <t>Plano de Projeto - Sessao 9 - item 9.1 - item 9.2 - item 9.3</t>
+  </si>
+  <si>
+    <t>Conforme resultados acima.</t>
+  </si>
+  <si>
+    <t>Checklist de Qualidade</t>
+  </si>
+  <si>
+    <t>Cronograma e Atividades detalhadas</t>
+  </si>
+  <si>
+    <t>Recursos de Projeto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="14">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -380,8 +375,54 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -412,52 +453,37 @@
         <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FFFFFF99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="8">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -549,121 +575,151 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -960,1515 +1016,1552 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1000"/>
+  <dimension ref="A1:B989"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A151" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D226" sqref="D226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="106.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="1" customWidth="1"/>
     <col min="3" max="16384" width="17.28515625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="27.75" customHeight="1">
-      <c r="A1" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="37"/>
+      <c r="A1" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="31"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="35"/>
+      <c r="A2" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="29"/>
     </row>
     <row r="3" spans="1:2" ht="51" customHeight="1">
-      <c r="A3" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>68</v>
+      <c r="A3" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="84" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="40"/>
+      <c r="A4" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="34"/>
     </row>
     <row r="5" spans="1:2" ht="24" customHeight="1">
-      <c r="A5" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="27"/>
+      <c r="A5" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="21"/>
     </row>
     <row r="6" spans="1:2" ht="12" customHeight="1">
-      <c r="A6" s="9" t="str">
+      <c r="A6" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto  ")</f>
         <v xml:space="preserve">Plano de Projeto  </v>
       </c>
-      <c r="B6" s="39" t="s">
-        <v>71</v>
+      <c r="B6" s="33" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="12" customHeight="1">
-      <c r="A7" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="30"/>
+      <c r="A7" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="24"/>
     </row>
     <row r="8" spans="1:2" ht="12" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="7"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:2" ht="12" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="7"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:2" ht="12" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="7"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="3"/>
     </row>
     <row r="11" spans="1:2" ht="12" customHeight="1">
-      <c r="A11" s="26"/>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="55.5" customHeight="1">
-      <c r="A12" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="41"/>
+      <c r="A12" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="35"/>
     </row>
     <row r="13" spans="1:2" ht="12" customHeight="1">
-      <c r="A13" s="9" t="str">
+      <c r="A13" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B13" s="39" t="s">
-        <v>71</v>
+      <c r="B13" s="33" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="12" customHeight="1">
-      <c r="A14" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="30"/>
+      <c r="A14" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="33"/>
     </row>
     <row r="15" spans="1:2" ht="12" customHeight="1">
-      <c r="A15" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>71</v>
-      </c>
+      <c r="A15" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="24"/>
     </row>
     <row r="16" spans="1:2" ht="12" customHeight="1">
-      <c r="A16" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="B16" s="7"/>
+      <c r="A16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="17" spans="1:2" ht="12" customHeight="1">
-      <c r="A17" s="8"/>
-      <c r="B17" s="7"/>
+      <c r="A17" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="3"/>
     </row>
     <row r="18" spans="1:2" ht="12" customHeight="1">
-      <c r="A18" s="26"/>
-      <c r="B18" s="12" t="s">
+      <c r="A18" s="4"/>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" ht="12" customHeight="1">
+      <c r="A19" s="20"/>
+      <c r="B19" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="36" customHeight="1">
-      <c r="A19" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="41"/>
-    </row>
-    <row r="20" spans="1:2" ht="12" customHeight="1">
-      <c r="A20" s="9" t="str">
+    <row r="20" spans="1:2" ht="36" customHeight="1">
+      <c r="A20" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="35"/>
+    </row>
+    <row r="21" spans="1:2" ht="12" customHeight="1">
+      <c r="A21" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B20" s="39" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="12" customHeight="1">
-      <c r="A21" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" s="7"/>
+      <c r="B21" s="33" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="22" spans="1:2" ht="12" customHeight="1">
-      <c r="A22" s="8"/>
-      <c r="B22" s="7"/>
+      <c r="A22" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="3"/>
     </row>
     <row r="23" spans="1:2" ht="12" customHeight="1">
-      <c r="A23" s="8"/>
-      <c r="B23" s="7"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="3"/>
     </row>
     <row r="24" spans="1:2" ht="12" customHeight="1">
-      <c r="A24" s="8"/>
-      <c r="B24" s="7"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="3"/>
     </row>
     <row r="25" spans="1:2" ht="12" customHeight="1">
-      <c r="A25" s="26"/>
-      <c r="B25" s="12" t="s">
+      <c r="A25" s="4"/>
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:2" ht="12" customHeight="1">
+      <c r="A26" s="20"/>
+      <c r="B26" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="65.25" customHeight="1">
-      <c r="A26" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="41"/>
-    </row>
-    <row r="27" spans="1:2" ht="12" customHeight="1">
-      <c r="A27" s="9" t="str">
+    <row r="27" spans="1:2" ht="65.25" customHeight="1">
+      <c r="A27" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="35"/>
+    </row>
+    <row r="28" spans="1:2" ht="12" customHeight="1">
+      <c r="A28" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B27" s="39" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="12" customHeight="1">
-      <c r="A28" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B28" s="7"/>
+      <c r="B28" s="33" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="29" spans="1:2" ht="12" customHeight="1">
-      <c r="A29" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" s="43" t="s">
-        <v>71</v>
-      </c>
+      <c r="A29" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="3"/>
     </row>
     <row r="30" spans="1:2" ht="12" customHeight="1">
-      <c r="A30" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" s="7"/>
+      <c r="A30" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="31" spans="1:2" ht="12" customHeight="1">
-      <c r="A31" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B31" s="7"/>
+      <c r="A31" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="3"/>
     </row>
     <row r="32" spans="1:2" ht="12" customHeight="1">
-      <c r="A32" s="26"/>
-      <c r="B32" s="12" t="s">
+      <c r="A32" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="1:2" ht="12" customHeight="1">
+      <c r="A33" s="20"/>
+      <c r="B33" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="67.5" customHeight="1">
-      <c r="A33" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" s="40"/>
-    </row>
-    <row r="34" spans="1:2" ht="12" customHeight="1">
-      <c r="A34" s="9" t="str">
+    <row r="34" spans="1:2" ht="67.5" customHeight="1">
+      <c r="A34" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="34"/>
+    </row>
+    <row r="35" spans="1:2" ht="12" customHeight="1">
+      <c r="A35" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B34" s="39" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="12" customHeight="1">
-      <c r="A35" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B35" s="7"/>
+      <c r="B35" s="33" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="36" spans="1:2" ht="12" customHeight="1">
-      <c r="A36" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36" s="43" t="s">
-        <v>71</v>
-      </c>
+      <c r="A36" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="3"/>
     </row>
     <row r="37" spans="1:2" ht="12" customHeight="1">
-      <c r="A37" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B37" s="7"/>
+      <c r="A37" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="38" spans="1:2" ht="12" customHeight="1">
-      <c r="A38" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B38" s="7"/>
+      <c r="A38" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="3"/>
     </row>
     <row r="39" spans="1:2" ht="12" customHeight="1">
-      <c r="A39" s="26"/>
-      <c r="B39" s="12" t="s">
+      <c r="A39" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="1:2" ht="12" customHeight="1">
+      <c r="A40" s="20"/>
+      <c r="B40" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="60" customHeight="1">
-      <c r="A40" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B40" s="44"/>
-    </row>
-    <row r="41" spans="1:2" ht="12" customHeight="1">
-      <c r="A41" s="9" t="str">
+    <row r="41" spans="1:2" ht="60" customHeight="1">
+      <c r="A41" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="38"/>
+    </row>
+    <row r="42" spans="1:2" ht="12" customHeight="1">
+      <c r="A42" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto ")</f>
         <v xml:space="preserve">Plano de Projeto </v>
       </c>
-      <c r="B41" s="39" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="12" customHeight="1">
-      <c r="A42" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="B42" s="7"/>
+      <c r="B42" s="33" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="43" spans="1:2" ht="12" customHeight="1">
-      <c r="A43" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B43" s="7"/>
+      <c r="A43" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="3"/>
     </row>
     <row r="44" spans="1:2" ht="12" customHeight="1">
-      <c r="A44" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B44" s="7"/>
+      <c r="A44" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="3"/>
     </row>
     <row r="45" spans="1:2" ht="12" customHeight="1">
-      <c r="A45" s="8"/>
-      <c r="B45" s="7"/>
+      <c r="A45" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" s="3"/>
     </row>
     <row r="46" spans="1:2" ht="12" customHeight="1">
-      <c r="A46" s="26"/>
-      <c r="B46" s="12" t="s">
+      <c r="A46" s="4"/>
+      <c r="B46" s="3"/>
+    </row>
+    <row r="47" spans="1:2" ht="12" customHeight="1">
+      <c r="A47" s="20"/>
+      <c r="B47" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="48" customHeight="1">
-      <c r="A47" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B47" s="24"/>
-    </row>
-    <row r="48" spans="1:2" ht="12" customHeight="1">
-      <c r="A48" s="9" t="str">
+    <row r="48" spans="1:2" ht="48" customHeight="1">
+      <c r="A48" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="42"/>
+    </row>
+    <row r="49" spans="1:2" ht="12" customHeight="1">
+      <c r="A49" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B48" s="39" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="12" customHeight="1">
-      <c r="A49" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B49" s="7"/>
+      <c r="B49" s="33" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="50" spans="1:2" ht="12" customHeight="1">
-      <c r="A50" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B50" s="7"/>
+      <c r="A50" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" s="3"/>
     </row>
     <row r="51" spans="1:2" ht="12" customHeight="1">
-      <c r="A51" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B51" s="7"/>
+      <c r="A51" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" s="39" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="52" spans="1:2" ht="12" customHeight="1">
-      <c r="A52" s="8"/>
-      <c r="B52" s="7"/>
+      <c r="A52" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52" s="3"/>
     </row>
     <row r="53" spans="1:2" ht="12" customHeight="1">
-      <c r="A53" s="26"/>
-      <c r="B53" s="12" t="s">
+      <c r="A53" s="4"/>
+      <c r="B53" s="3"/>
+    </row>
+    <row r="54" spans="1:2" ht="12" customHeight="1">
+      <c r="A54" s="20"/>
+      <c r="B54" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="36" customHeight="1">
-      <c r="A54" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54" s="24"/>
-    </row>
-    <row r="55" spans="1:2" ht="12" customHeight="1">
-      <c r="A55" s="9" t="str">
+    <row r="55" spans="1:2" ht="36" customHeight="1">
+      <c r="A55" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B55" s="44"/>
+    </row>
+    <row r="56" spans="1:2" ht="12" customHeight="1">
+      <c r="A56" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B55" s="39" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="12" customHeight="1">
-      <c r="A56" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B56" s="7"/>
+      <c r="B56" s="33" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="57" spans="1:2" ht="12" customHeight="1">
-      <c r="A57" s="8"/>
-      <c r="B57" s="7"/>
+      <c r="A57" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B57" s="3"/>
     </row>
     <row r="58" spans="1:2" ht="12" customHeight="1">
-      <c r="A58" s="8"/>
-      <c r="B58" s="7"/>
+      <c r="A58" s="4"/>
+      <c r="B58" s="3"/>
     </row>
     <row r="59" spans="1:2" ht="12" customHeight="1">
-      <c r="A59" s="8"/>
-      <c r="B59" s="7"/>
+      <c r="A59" s="4"/>
+      <c r="B59" s="3"/>
     </row>
     <row r="60" spans="1:2" ht="12" customHeight="1">
-      <c r="A60" s="26"/>
-      <c r="B60" s="12" t="s">
+      <c r="A60" s="4"/>
+      <c r="B60" s="3"/>
+    </row>
+    <row r="61" spans="1:2" ht="12" customHeight="1">
+      <c r="A61" s="20"/>
+      <c r="B61" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="36" customHeight="1">
-      <c r="A61" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B61" s="27"/>
-    </row>
-    <row r="62" spans="1:2" ht="12" customHeight="1">
-      <c r="A62" s="9" t="str">
+    <row r="62" spans="1:2" ht="36" customHeight="1">
+      <c r="A62" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B62" s="34"/>
+    </row>
+    <row r="63" spans="1:2" ht="12" customHeight="1">
+      <c r="A63" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B62" s="39" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="12" customHeight="1">
-      <c r="A63" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B63" s="7"/>
+      <c r="B63" s="33" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="64" spans="1:2" ht="12" customHeight="1">
-      <c r="A64" s="8"/>
-      <c r="B64" s="7"/>
+      <c r="A64" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" s="3"/>
     </row>
     <row r="65" spans="1:2" ht="12" customHeight="1">
-      <c r="A65" s="8"/>
-      <c r="B65" s="7"/>
+      <c r="A65" s="4"/>
+      <c r="B65" s="3"/>
     </row>
     <row r="66" spans="1:2" ht="12" customHeight="1">
-      <c r="A66" s="8"/>
-      <c r="B66" s="7"/>
+      <c r="A66" s="4"/>
+      <c r="B66" s="3"/>
     </row>
     <row r="67" spans="1:2" ht="12" customHeight="1">
-      <c r="A67" s="26"/>
-      <c r="B67" s="12" t="s">
+      <c r="A67" s="4"/>
+      <c r="B67" s="3"/>
+    </row>
+    <row r="68" spans="1:2" ht="12" customHeight="1">
+      <c r="A68" s="20"/>
+      <c r="B68" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="60" customHeight="1">
-      <c r="A68" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="B68" s="24"/>
-    </row>
-    <row r="69" spans="1:2" ht="12" customHeight="1">
-      <c r="A69" s="9" t="str">
+    <row r="69" spans="1:2" ht="60" customHeight="1">
+      <c r="A69" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B69" s="35"/>
+    </row>
+    <row r="70" spans="1:2" ht="12" customHeight="1">
+      <c r="A70" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B69" s="39" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="12" customHeight="1">
-      <c r="A70" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B70" s="7"/>
+      <c r="B70" s="33" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="71" spans="1:2" ht="12" customHeight="1">
-      <c r="A71" s="8"/>
-      <c r="B71" s="7"/>
+      <c r="A71" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B71" s="3"/>
     </row>
     <row r="72" spans="1:2" ht="12" customHeight="1">
-      <c r="A72" s="8"/>
-      <c r="B72" s="7"/>
+      <c r="A72" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="B72" s="39" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="73" spans="1:2" ht="12" customHeight="1">
-      <c r="A73" s="8"/>
-      <c r="B73" s="7"/>
+      <c r="A73" s="4"/>
+      <c r="B73" s="3"/>
     </row>
     <row r="74" spans="1:2" ht="12" customHeight="1">
-      <c r="A74" s="26"/>
-      <c r="B74" s="12" t="s">
+      <c r="A74" s="4"/>
+      <c r="B74" s="3"/>
+    </row>
+    <row r="75" spans="1:2" ht="12" customHeight="1">
+      <c r="A75" s="20"/>
+      <c r="B75" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="44.25" customHeight="1">
-      <c r="A75" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B75" s="24"/>
-    </row>
-    <row r="76" spans="1:2" ht="12" customHeight="1">
-      <c r="A76" s="9" t="str">
+    <row r="76" spans="1:2" ht="44.25" customHeight="1">
+      <c r="A76" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B76" s="35"/>
+    </row>
+    <row r="77" spans="1:2" ht="12" customHeight="1">
+      <c r="A77" s="46" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B76" s="39" t="s">
+      <c r="B77" s="33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="12" customHeight="1">
+      <c r="A78" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B78" s="33"/>
+    </row>
+    <row r="79" spans="1:2" ht="12" customHeight="1">
+      <c r="A79" s="41" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" ht="12" customHeight="1">
-      <c r="A77" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B77" s="7"/>
-    </row>
-    <row r="78" spans="1:2" ht="12" customHeight="1">
-      <c r="A78" s="8"/>
-      <c r="B78" s="7"/>
-    </row>
-    <row r="79" spans="1:2" ht="12" customHeight="1">
-      <c r="A79" s="8"/>
-      <c r="B79" s="7"/>
+      <c r="B79" s="3"/>
     </row>
     <row r="80" spans="1:2" ht="12" customHeight="1">
-      <c r="A80" s="8"/>
-      <c r="B80" s="7"/>
+      <c r="A80" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B80" s="3"/>
     </row>
     <row r="81" spans="1:2" ht="12" customHeight="1">
-      <c r="A81" s="26"/>
-      <c r="B81" s="12" t="s">
+      <c r="A81" s="4"/>
+      <c r="B81" s="3"/>
+    </row>
+    <row r="82" spans="1:2" ht="12" customHeight="1">
+      <c r="A82" s="4"/>
+      <c r="B82" s="3"/>
+    </row>
+    <row r="83" spans="1:2" ht="12" customHeight="1">
+      <c r="A83" s="20"/>
+      <c r="B83" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="60" customHeight="1">
-      <c r="A82" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="B82" s="27"/>
-    </row>
-    <row r="83" spans="1:2" ht="12" customHeight="1">
-      <c r="A83" s="9" t="str">
+    <row r="84" spans="1:2" ht="60" customHeight="1">
+      <c r="A84" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B84" s="34"/>
+    </row>
+    <row r="85" spans="1:2" ht="12" customHeight="1">
+      <c r="A85" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B83" s="39" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="12" customHeight="1">
-      <c r="A84" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B84" s="7"/>
-    </row>
-    <row r="85" spans="1:2" ht="12" customHeight="1">
-      <c r="A85" s="8"/>
-      <c r="B85" s="7"/>
+      <c r="B85" s="33" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="86" spans="1:2" ht="12" customHeight="1">
-      <c r="A86" s="8"/>
-      <c r="B86" s="7"/>
+      <c r="A86" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B86" s="3"/>
     </row>
     <row r="87" spans="1:2" ht="12" customHeight="1">
-      <c r="A87" s="8"/>
-      <c r="B87" s="7"/>
+      <c r="A87" s="4"/>
+      <c r="B87" s="3"/>
     </row>
     <row r="88" spans="1:2" ht="12" customHeight="1">
-      <c r="A88" s="26"/>
-      <c r="B88" s="12" t="s">
+      <c r="A88" s="4"/>
+      <c r="B88" s="3"/>
+    </row>
+    <row r="89" spans="1:2" ht="12" customHeight="1">
+      <c r="A89" s="4"/>
+      <c r="B89" s="3"/>
+    </row>
+    <row r="90" spans="1:2" ht="12" customHeight="1">
+      <c r="A90" s="20"/>
+      <c r="B90" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="36" customHeight="1">
-      <c r="A89" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B89" s="27"/>
-    </row>
-    <row r="90" spans="1:2" ht="12" customHeight="1">
-      <c r="A90" s="9" t="str">
+    <row r="91" spans="1:2" ht="36" customHeight="1">
+      <c r="A91" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B91" s="34"/>
+    </row>
+    <row r="92" spans="1:2" ht="12" customHeight="1">
+      <c r="A92" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B90" s="39" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="12" customHeight="1">
-      <c r="A91" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B91" s="7"/>
-    </row>
-    <row r="92" spans="1:2" ht="12" customHeight="1">
-      <c r="A92" s="8"/>
-      <c r="B92" s="7"/>
+      <c r="B92" s="33" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="93" spans="1:2" ht="12" customHeight="1">
-      <c r="A93" s="8"/>
-      <c r="B93" s="7"/>
+      <c r="A93" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="3"/>
     </row>
     <row r="94" spans="1:2" ht="12" customHeight="1">
-      <c r="A94" s="8"/>
-      <c r="B94" s="7"/>
+      <c r="A94" s="4"/>
+      <c r="B94" s="3"/>
     </row>
     <row r="95" spans="1:2" ht="12" customHeight="1">
-      <c r="A95" s="26"/>
-      <c r="B95" s="12" t="s">
+      <c r="A95" s="4"/>
+      <c r="B95" s="3"/>
+    </row>
+    <row r="96" spans="1:2" ht="12" customHeight="1">
+      <c r="A96" s="4"/>
+      <c r="B96" s="3"/>
+    </row>
+    <row r="97" spans="1:2" ht="12" customHeight="1">
+      <c r="A97" s="20"/>
+      <c r="B97" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="36" customHeight="1">
-      <c r="A96" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B96" s="27"/>
-    </row>
-    <row r="97" spans="1:2" ht="12" customHeight="1">
-      <c r="A97" s="9" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1u3rO-xtKjb_Hm-Q0UNSzygSt1QpUaxcxFSO525o_EFI","Checklist de Qualidade")</f>
-        <v>Checklist de Qualidade</v>
-      </c>
-      <c r="B97" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="12" customHeight="1">
-      <c r="A98" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B98" s="7"/>
+    <row r="98" spans="1:2" ht="36" customHeight="1">
+      <c r="A98" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B98" s="34"/>
     </row>
     <row r="99" spans="1:2" ht="12" customHeight="1">
-      <c r="A99" s="8"/>
-      <c r="B99" s="7"/>
+      <c r="A99" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B99" s="39" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="100" spans="1:2" ht="12" customHeight="1">
-      <c r="A100" s="8"/>
-      <c r="B100" s="7"/>
+      <c r="A100" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B100" s="39" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="101" spans="1:2" ht="12" customHeight="1">
-      <c r="A101" s="8"/>
-      <c r="B101" s="7"/>
+      <c r="A101" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B101" s="39" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="102" spans="1:2" ht="12" customHeight="1">
-      <c r="A102" s="26"/>
-      <c r="B102" s="12" t="s">
+      <c r="A102" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B102" s="39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="12" customHeight="1">
+      <c r="A103" s="4"/>
+      <c r="B103" s="3"/>
+    </row>
+    <row r="104" spans="1:2" ht="12" customHeight="1">
+      <c r="A104" s="20"/>
+      <c r="B104" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="36" customHeight="1">
-      <c r="A103" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B103" s="27"/>
-    </row>
-    <row r="104" spans="1:2" ht="12" customHeight="1">
-      <c r="A104" s="9" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1u3rO-xtKjb_Hm-Q0UNSzygSt1QpUaxcxFSO525o_EFI","Checklist de Qualidade")</f>
-        <v>Checklist de Qualidade</v>
-      </c>
-      <c r="B104" s="9" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1u3rO-xtKjb_Hm-Q0UNSzygSt1QpUaxcxFSO525o_EFI","X")</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="12" customHeight="1">
-      <c r="A105" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B105" s="30"/>
+    <row r="105" spans="1:2" ht="36" customHeight="1">
+      <c r="A105" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B105" s="34"/>
     </row>
     <row r="106" spans="1:2" ht="12" customHeight="1">
-      <c r="A106" s="8"/>
-      <c r="B106" s="7"/>
+      <c r="A106" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B106" s="39" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="107" spans="1:2" ht="12" customHeight="1">
-      <c r="A107" s="8"/>
-      <c r="B107" s="7"/>
+      <c r="A107" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B107" s="39" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="108" spans="1:2" ht="12" customHeight="1">
-      <c r="A108" s="8"/>
-      <c r="B108" s="7"/>
+      <c r="A108" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B108" s="39" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="109" spans="1:2" ht="12" customHeight="1">
-      <c r="A109" s="26"/>
-      <c r="B109" s="12" t="s">
+      <c r="A109" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B109" s="39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="12" customHeight="1">
+      <c r="A110" s="4"/>
+      <c r="B110" s="3"/>
+    </row>
+    <row r="111" spans="1:2" ht="12" customHeight="1">
+      <c r="A111" s="20"/>
+      <c r="B111" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="36" customHeight="1">
-      <c r="A110" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="B110" s="27"/>
-    </row>
-    <row r="111" spans="1:2" ht="12" customHeight="1">
-      <c r="A111" s="9" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1u3rO-xtKjb_Hm-Q0UNSzygSt1QpUaxcxFSO525o_EFI","Checklist de Qualidade")</f>
-        <v>Checklist de Qualidade</v>
-      </c>
-      <c r="B111" s="9" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1u3rO-xtKjb_Hm-Q0UNSzygSt1QpUaxcxFSO525o_EFI","X")</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="12" customHeight="1">
-      <c r="A112" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B112" s="30"/>
+    <row r="112" spans="1:2" ht="36" customHeight="1">
+      <c r="A112" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B112" s="34"/>
     </row>
     <row r="113" spans="1:2" ht="12" customHeight="1">
-      <c r="A113" s="9" t="str">
+      <c r="A113" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B113" s="39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="12" customHeight="1">
+      <c r="A114" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B114" s="39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="12" customHeight="1">
+      <c r="A115" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B115" s="39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="12" customHeight="1">
+      <c r="A116" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B116" s="39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="12" customHeight="1">
+      <c r="A117" s="4"/>
+      <c r="B117" s="3"/>
+    </row>
+    <row r="118" spans="1:2" ht="12" customHeight="1">
+      <c r="A118" s="20"/>
+      <c r="B118" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="39" customHeight="1">
+      <c r="A119" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B119" s="34"/>
+    </row>
+    <row r="120" spans="1:2" ht="12" customHeight="1">
+      <c r="A120" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B120" s="33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="12" customHeight="1">
+      <c r="A121" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B121" s="37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="12" customHeight="1">
+      <c r="A122" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B122" s="39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="12" customHeight="1">
+      <c r="A123" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B123" s="39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="12" customHeight="1">
+      <c r="A124" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B124" s="39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="12" customHeight="1">
+      <c r="A125" s="4"/>
+      <c r="B125" s="3"/>
+    </row>
+    <row r="126" spans="1:2" ht="12" customHeight="1">
+      <c r="A126" s="20"/>
+      <c r="B126" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="36" customHeight="1">
+      <c r="A127" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B127" s="47"/>
+    </row>
+    <row r="128" spans="1:2" ht="12" customHeight="1">
+      <c r="A128" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B113" s="9" t="b">
-        <f>A7=HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","X")</f>
+      <c r="B128" s="33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="12" customHeight="1">
+      <c r="A129" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B129" s="24"/>
+    </row>
+    <row r="130" spans="1:2" ht="12" customHeight="1">
+      <c r="A130" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B130" s="39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="12" customHeight="1">
+      <c r="A131" s="4"/>
+      <c r="B131" s="3"/>
+    </row>
+    <row r="132" spans="1:2" ht="12" customHeight="1">
+      <c r="A132" s="4"/>
+      <c r="B132" s="3"/>
+    </row>
+    <row r="133" spans="1:2" ht="12" customHeight="1">
+      <c r="A133" s="20"/>
+      <c r="B133" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="12" customHeight="1">
-      <c r="A114" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B114" s="7"/>
-    </row>
-    <row r="115" spans="1:2" ht="12" customHeight="1">
-      <c r="A115" s="8"/>
-      <c r="B115" s="7"/>
-    </row>
-    <row r="116" spans="1:2" ht="12" customHeight="1">
-      <c r="A116" s="26"/>
-      <c r="B116" s="12" t="s">
+    <row r="134" spans="1:2" ht="48" customHeight="1">
+      <c r="A134" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B134" s="47"/>
+    </row>
+    <row r="135" spans="1:2" ht="12" customHeight="1">
+      <c r="A135" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B135" s="39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="12" customHeight="1">
+      <c r="A136" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B136" s="48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="12" customHeight="1">
+      <c r="A137" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B137" s="39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="12" customHeight="1">
+      <c r="A138" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B138" s="39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="12" customHeight="1">
+      <c r="A139" s="4"/>
+      <c r="B139" s="3"/>
+    </row>
+    <row r="140" spans="1:2" ht="12" customHeight="1">
+      <c r="A140" s="20"/>
+      <c r="B140" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="39" customHeight="1">
-      <c r="A117" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="B117" s="27"/>
-    </row>
-    <row r="118" spans="1:2" ht="12" customHeight="1">
-      <c r="A118" s="9" t="str">
+    <row r="141" spans="1:2" ht="72" customHeight="1">
+      <c r="A141" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B141" s="47"/>
+    </row>
+    <row r="142" spans="1:2" ht="12" customHeight="1">
+      <c r="A142" s="5" t="str">
+        <f>HYPERLINK("https://drive.google.com/open?id=1YxEe7ln7G2YnhWW41DRU9BqNmW2SU39ESS2lCRx7ZmI","Relatório de Acompanhamento do Projeto")</f>
+        <v>Relatório de Acompanhamento do Projeto</v>
+      </c>
+      <c r="B142" s="39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="12" customHeight="1">
+      <c r="A143" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B143" s="39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="12" customHeight="1">
+      <c r="A144" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B144" s="39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="12" customHeight="1">
+      <c r="A145" s="4"/>
+      <c r="B145" s="3"/>
+    </row>
+    <row r="146" spans="1:2" ht="12" customHeight="1">
+      <c r="A146" s="4"/>
+      <c r="B146" s="3"/>
+    </row>
+    <row r="147" spans="1:2" ht="12" customHeight="1">
+      <c r="A147" s="20"/>
+      <c r="B147" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A148" s="19"/>
+      <c r="B148" s="18"/>
+    </row>
+    <row r="149" spans="1:2" ht="15" customHeight="1">
+      <c r="A149" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B149" s="16"/>
+    </row>
+    <row r="150" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A150" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B150" s="14"/>
+    </row>
+    <row r="151" spans="1:2" ht="12" customHeight="1">
+      <c r="A151" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B151" s="12"/>
+    </row>
+    <row r="152" spans="1:2" ht="36" customHeight="1">
+      <c r="A152" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B152" s="50"/>
+    </row>
+    <row r="153" spans="1:2" ht="12" customHeight="1">
+      <c r="A153" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B153" s="5"/>
+    </row>
+    <row r="154" spans="1:2" ht="12" customHeight="1">
+      <c r="A154" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B154" s="39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="12" customHeight="1">
+      <c r="A155" s="5" t="str">
+        <f>HYPERLINK("https://drive.google.com/open?id=1YxEe7ln7G2YnhWW41DRU9BqNmW2SU39ESS2lCRx7ZmI","Relatório de Acompanhamento do Projeto")</f>
+        <v>Relatório de Acompanhamento do Projeto</v>
+      </c>
+      <c r="B155" s="39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="12" customHeight="1">
+      <c r="A156" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B156" s="33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="12" customHeight="1">
+      <c r="A157" s="4"/>
+      <c r="B157" s="3"/>
+    </row>
+    <row r="158" spans="1:2" ht="12" customHeight="1">
+      <c r="A158" s="4"/>
+      <c r="B158" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="15" customHeight="1">
+      <c r="A159" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B159" s="10"/>
+    </row>
+    <row r="160" spans="1:2" ht="60" customHeight="1">
+      <c r="A160" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B160" s="9"/>
+    </row>
+    <row r="161" spans="1:2" ht="12" customHeight="1">
+      <c r="A161" s="5" t="str">
+        <f>HYPERLINK("https://drive.google.com/open?id=187cU6CvwlkOR9E_KDNRS8S7Yk0Hi4lS9I5KT3xnXwlE","Processo de Gerencia de Projetos")</f>
+        <v>Processo de Gerencia de Projetos</v>
+      </c>
+      <c r="B161" s="5" t="str">
+        <f>HYPERLINK("https://drive.google.com/open?id=187cU6CvwlkOR9E_KDNRS8S7Yk0Hi4lS9I5KT3xnXwlE","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="12" customHeight="1">
+      <c r="A162" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B162" s="3"/>
+    </row>
+    <row r="163" spans="1:2" ht="12" customHeight="1">
+      <c r="A163" s="4"/>
+      <c r="B163" s="3"/>
+    </row>
+    <row r="164" spans="1:2" ht="12" customHeight="1">
+      <c r="A164" s="4"/>
+      <c r="B164" s="3"/>
+    </row>
+    <row r="165" spans="1:2" ht="12" customHeight="1">
+      <c r="A165" s="4"/>
+      <c r="B165" s="3"/>
+    </row>
+    <row r="166" spans="1:2" ht="12" customHeight="1">
+      <c r="A166" s="4"/>
+      <c r="B166" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="24.75" customHeight="1">
+      <c r="A167" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B167" s="49"/>
+    </row>
+    <row r="168" spans="1:2" ht="12" customHeight="1">
+      <c r="A168" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B118" s="9" t="str">
+      <c r="B168" s="33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="12" customHeight="1">
+      <c r="A169" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B169" s="33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="12" customHeight="1">
+      <c r="A170" s="4"/>
+      <c r="B170" s="3"/>
+    </row>
+    <row r="171" spans="1:2" ht="12" customHeight="1">
+      <c r="A171" s="4"/>
+      <c r="B171" s="3"/>
+    </row>
+    <row r="172" spans="1:2" ht="12" customHeight="1">
+      <c r="A172" s="4"/>
+      <c r="B172" s="3"/>
+    </row>
+    <row r="173" spans="1:2" ht="12" customHeight="1">
+      <c r="A173" s="4"/>
+      <c r="B173" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="36.75" customHeight="1">
+      <c r="A174" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B174" s="51"/>
+    </row>
+    <row r="175" spans="1:2" ht="12" customHeight="1">
+      <c r="A175" s="5" t="str">
+        <f>HYPERLINK("https://drive.google.com/open?id=1YxEe7ln7G2YnhWW41DRU9BqNmW2SU39ESS2lCRx7ZmI","Relatório de Acompanhamento do Projeto")</f>
+        <v>Relatório de Acompanhamento do Projeto</v>
+      </c>
+      <c r="B175" s="39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="12" customHeight="1">
+      <c r="A176" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B176" s="39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="12" customHeight="1">
+      <c r="A177" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B177" s="39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="12" customHeight="1">
+      <c r="A178" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="B178" s="33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="12" customHeight="1">
+      <c r="A179" s="5" t="str">
+        <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
+        <v>Plano de Projeto</v>
+      </c>
+      <c r="B179" s="33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="12" customHeight="1">
+      <c r="A180" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="B180" s="3"/>
+    </row>
+    <row r="181" spans="1:2" ht="12" customHeight="1">
+      <c r="A181" s="4"/>
+      <c r="B181" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="48.75" customHeight="1">
+      <c r="A182" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B182" s="51"/>
+    </row>
+    <row r="183" spans="1:2" ht="12" customHeight="1">
+      <c r="A183" s="5" t="str">
+        <f>HYPERLINK("https://drive.google.com/open?id=1YxEe7ln7G2YnhWW41DRU9BqNmW2SU39ESS2lCRx7ZmI","Relatório de Acompanhamento do Projeto")</f>
+        <v>Relatório de Acompanhamento do Projeto</v>
+      </c>
+      <c r="B183" s="5" t="str">
+        <f>HYPERLINK("https://drive.google.com/open?id=1YxEe7ln7G2YnhWW41DRU9BqNmW2SU39ESS2lCRx7ZmI","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="12" customHeight="1">
+      <c r="A184" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B184" s="39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="12" customHeight="1">
+      <c r="A185" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="B185" s="33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="12" customHeight="1">
+      <c r="A186" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B186" s="37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="12" customHeight="1">
+      <c r="A187" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B187" s="39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="12" customHeight="1">
+      <c r="A188" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B188" s="39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="12" customHeight="1">
+      <c r="A189" s="40"/>
+      <c r="B189" s="39"/>
+    </row>
+    <row r="190" spans="1:2" ht="12" customHeight="1">
+      <c r="A190" s="4"/>
+      <c r="B190" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="48.75" customHeight="1">
+      <c r="A191" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B191" s="51"/>
+    </row>
+    <row r="192" spans="1:2" ht="12" customHeight="1">
+      <c r="A192" s="5" t="str">
+        <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
+        <v>Plano de Projeto</v>
+      </c>
+      <c r="B192" s="33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="12" customHeight="1">
+      <c r="A193" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="B193" s="39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="12" customHeight="1">
+      <c r="A194" s="4"/>
+      <c r="B194" s="3"/>
+    </row>
+    <row r="195" spans="1:2" ht="12" customHeight="1">
+      <c r="A195" s="4"/>
+      <c r="B195" s="3"/>
+    </row>
+    <row r="196" spans="1:2" ht="12" customHeight="1">
+      <c r="A196" s="4"/>
+      <c r="B196" s="3"/>
+    </row>
+    <row r="197" spans="1:2" ht="12" customHeight="1">
+      <c r="A197" s="4"/>
+      <c r="B197" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="36.75" customHeight="1">
+      <c r="A198" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B198" s="52"/>
+    </row>
+    <row r="199" spans="1:2" ht="12" customHeight="1">
+      <c r="A199" s="45"/>
+      <c r="B199" s="33"/>
+    </row>
+    <row r="200" spans="1:2" ht="12" customHeight="1">
+      <c r="A200" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="B200" s="39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="12" customHeight="1">
+      <c r="A201" s="4"/>
+      <c r="B201" s="3"/>
+    </row>
+    <row r="202" spans="1:2" ht="12" customHeight="1">
+      <c r="A202" s="4"/>
+      <c r="B202" s="3"/>
+    </row>
+    <row r="203" spans="1:2" ht="12" customHeight="1">
+      <c r="A203" s="4"/>
+      <c r="B203" s="3"/>
+    </row>
+    <row r="204" spans="1:2" ht="12" customHeight="1">
+      <c r="A204" s="4"/>
+      <c r="B204" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="48.75" customHeight="1">
+      <c r="A205" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B205" s="6"/>
+    </row>
+    <row r="206" spans="1:2" ht="12" customHeight="1">
+      <c r="A206" s="5" t="str">
+        <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
+        <v>Plano de Projeto</v>
+      </c>
+      <c r="B206" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","X")</f>
         <v>X</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="12" customHeight="1">
-      <c r="A119" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B119" s="30"/>
-    </row>
-    <row r="120" spans="1:2" ht="12" customHeight="1">
-      <c r="A120" s="8"/>
-      <c r="B120" s="7"/>
-    </row>
-    <row r="121" spans="1:2" ht="12" customHeight="1">
-      <c r="A121" s="8"/>
-      <c r="B121" s="7"/>
-    </row>
-    <row r="122" spans="1:2" ht="12" customHeight="1">
-      <c r="A122" s="8"/>
-      <c r="B122" s="7"/>
-    </row>
-    <row r="123" spans="1:2" ht="12" customHeight="1">
-      <c r="A123" s="26"/>
-      <c r="B123" s="12" t="s">
+    <row r="207" spans="1:2" ht="12" customHeight="1">
+      <c r="A207" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="B207" s="39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="12" customHeight="1">
+      <c r="A208" s="4"/>
+      <c r="B208" s="3"/>
+    </row>
+    <row r="209" spans="1:2" ht="12" customHeight="1">
+      <c r="A209" s="4"/>
+      <c r="B209" s="3"/>
+    </row>
+    <row r="210" spans="1:2" ht="12" customHeight="1">
+      <c r="A210" s="4"/>
+      <c r="B210" s="3"/>
+    </row>
+    <row r="211" spans="1:2" ht="12" customHeight="1">
+      <c r="A211" s="4"/>
+      <c r="B211" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="36" customHeight="1">
-      <c r="A124" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="B124" s="27"/>
-    </row>
-    <row r="125" spans="1:2" ht="12" customHeight="1">
-      <c r="A125" s="9" t="str">
+    <row r="212" spans="1:2" ht="48.75" customHeight="1">
+      <c r="A212" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B212" s="54"/>
+    </row>
+    <row r="213" spans="1:2" ht="12" customHeight="1">
+      <c r="A213" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="B213" s="39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="12" customHeight="1">
+      <c r="A214" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B214" s="53"/>
+    </row>
+    <row r="215" spans="1:2" ht="12" customHeight="1">
+      <c r="A215" s="4"/>
+      <c r="B215" s="3"/>
+    </row>
+    <row r="216" spans="1:2" ht="12" customHeight="1">
+      <c r="A216" s="4"/>
+      <c r="B216" s="3"/>
+    </row>
+    <row r="217" spans="1:2" ht="12" customHeight="1">
+      <c r="A217" s="4"/>
+      <c r="B217" s="3"/>
+    </row>
+    <row r="218" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A218" s="4"/>
+      <c r="B218" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="69.75" customHeight="1">
+      <c r="A219" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B219" s="55"/>
+    </row>
+    <row r="220" spans="1:2" ht="12" customHeight="1">
+      <c r="A220" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B125" s="9" t="str">
+      <c r="B220" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","X")</f>
         <v>X</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="12" customHeight="1">
-      <c r="A126" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B126" s="30"/>
-    </row>
-    <row r="127" spans="1:2" ht="12" customHeight="1">
-      <c r="A127" s="8"/>
-      <c r="B127" s="7"/>
-    </row>
-    <row r="128" spans="1:2" ht="12" customHeight="1">
-      <c r="A128" s="8"/>
-      <c r="B128" s="7"/>
-    </row>
-    <row r="129" spans="1:2" ht="12" customHeight="1">
-      <c r="A129" s="8"/>
-      <c r="B129" s="7"/>
-    </row>
-    <row r="130" spans="1:2" ht="12" customHeight="1">
-      <c r="A130" s="26"/>
-      <c r="B130" s="12" t="s">
+    <row r="221" spans="1:2" ht="12" customHeight="1">
+      <c r="A221" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B221" s="3"/>
+    </row>
+    <row r="222" spans="1:2" ht="12" customHeight="1">
+      <c r="A222" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B222" s="3"/>
+    </row>
+    <row r="223" spans="1:2" ht="12" customHeight="1">
+      <c r="A223" s="5" t="str">
+        <f>HYPERLINK("http://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","Processo de Garantia de Qualidade")</f>
+        <v>Processo de Garantia de Qualidade</v>
+      </c>
+      <c r="B223" s="5" t="str">
+        <f>HYPERLINK("https://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="12" customHeight="1">
+      <c r="A224" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B224" s="3"/>
+    </row>
+    <row r="225" spans="1:2" ht="12" customHeight="1">
+      <c r="A225" s="4"/>
+      <c r="B225" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="48" customHeight="1">
-      <c r="A131" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B131" s="27"/>
-    </row>
-    <row r="132" spans="1:2" ht="12" customHeight="1">
-      <c r="A132" s="9" t="str">
+    <row r="226" spans="1:2" ht="48.75" customHeight="1">
+      <c r="A226" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B226" s="6"/>
+    </row>
+    <row r="227" spans="1:2" ht="12" customHeight="1">
+      <c r="A227" s="5" t="str">
+        <f>HYPERLINK("https://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","Processo de Garantia de Qualidade")</f>
+        <v>Processo de Garantia de Qualidade</v>
+      </c>
+      <c r="B227" s="5" t="str">
+        <f>HYPERLINK("https://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="12" customHeight="1">
+      <c r="A228" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B228" s="3"/>
+    </row>
+    <row r="229" spans="1:2" ht="12" customHeight="1">
+      <c r="A229" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B229" s="3"/>
+    </row>
+    <row r="230" spans="1:2" ht="12" customHeight="1">
+      <c r="A230" s="4"/>
+      <c r="B230" s="3"/>
+    </row>
+    <row r="231" spans="1:2" ht="12" customHeight="1">
+      <c r="A231" s="4"/>
+      <c r="B231" s="3"/>
+    </row>
+    <row r="232" spans="1:2" ht="12" customHeight="1">
+      <c r="A232" s="4"/>
+      <c r="B232" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" ht="36.75" customHeight="1">
+      <c r="A233" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B233" s="56"/>
+    </row>
+    <row r="234" spans="1:2" ht="12" customHeight="1">
+      <c r="A234" s="5" t="str">
+        <f>HYPERLINK("https://drive.google.com/open?id=1YxEe7ln7G2YnhWW41DRU9BqNmW2SU39ESS2lCRx7ZmI","Relatório de Acompanhamento do Projeto")</f>
+        <v>Relatório de Acompanhamento do Projeto</v>
+      </c>
+      <c r="B234" s="5" t="str">
+        <f>HYPERLINK("https://drive.google.com/open?id=1YxEe7ln7G2YnhWW41DRU9BqNmW2SU39ESS2lCRx7ZmI","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="12" customHeight="1">
+      <c r="A235" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B132" s="9" t="str">
+      <c r="B235" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","X")</f>
         <v>X</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="12" customHeight="1">
-      <c r="A133" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B133" s="7"/>
-    </row>
-    <row r="134" spans="1:2" ht="12" customHeight="1">
-      <c r="A134" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B134" s="7"/>
-    </row>
-    <row r="135" spans="1:2" ht="12" customHeight="1">
-      <c r="A135" s="8"/>
-      <c r="B135" s="7"/>
-    </row>
-    <row r="136" spans="1:2" ht="12" customHeight="1">
-      <c r="A136" s="8"/>
-      <c r="B136" s="7"/>
-    </row>
-    <row r="137" spans="1:2" ht="12" customHeight="1">
-      <c r="A137" s="26"/>
-      <c r="B137" s="12" t="s">
+    <row r="236" spans="1:2" ht="12" customHeight="1">
+      <c r="A236" s="4"/>
+      <c r="B236" s="3"/>
+    </row>
+    <row r="237" spans="1:2" ht="12" customHeight="1">
+      <c r="A237" s="4"/>
+      <c r="B237" s="3"/>
+    </row>
+    <row r="238" spans="1:2" ht="12" customHeight="1">
+      <c r="A238" s="4"/>
+      <c r="B238" s="3"/>
+    </row>
+    <row r="239" spans="1:2" ht="12" customHeight="1">
+      <c r="A239" s="4"/>
+      <c r="B239" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="72" customHeight="1">
-      <c r="A138" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B138" s="27"/>
-    </row>
-    <row r="139" spans="1:2" ht="12" customHeight="1">
-      <c r="A139" s="9" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1YxEe7ln7G2YnhWW41DRU9BqNmW2SU39ESS2lCRx7ZmI","Relatório de Acompanhamento do Projeto")</f>
-        <v>Relatório de Acompanhamento do Projeto</v>
-      </c>
-      <c r="B139" s="9" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1YxEe7ln7G2YnhWW41DRU9BqNmW2SU39ESS2lCRx7ZmI","X")</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" ht="12" customHeight="1">
-      <c r="A140" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B140" s="7"/>
-    </row>
-    <row r="141" spans="1:2" ht="12" customHeight="1">
-      <c r="A141" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B141" s="7"/>
-    </row>
-    <row r="142" spans="1:2" ht="12" customHeight="1">
-      <c r="A142" s="8"/>
-      <c r="B142" s="7"/>
-    </row>
-    <row r="143" spans="1:2" ht="12" customHeight="1">
-      <c r="A143" s="8"/>
-      <c r="B143" s="7"/>
-    </row>
-    <row r="144" spans="1:2" ht="12" customHeight="1">
-      <c r="A144" s="26"/>
-      <c r="B144" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A145" s="25"/>
-      <c r="B145" s="24"/>
-    </row>
-    <row r="146" spans="1:2" ht="15" customHeight="1">
-      <c r="A146" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B146" s="22"/>
-    </row>
-    <row r="147" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A147" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B147" s="20"/>
-    </row>
-    <row r="148" spans="1:2" ht="12" customHeight="1">
-      <c r="A148" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B148" s="18"/>
-    </row>
-    <row r="149" spans="1:2" ht="36" customHeight="1">
-      <c r="A149" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B149" s="18"/>
-    </row>
-    <row r="150" spans="1:2" ht="12" customHeight="1">
-      <c r="A150" s="9" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
-        <v>Plano de Projeto</v>
-      </c>
-      <c r="B150" s="9" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","X")</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" ht="12" customHeight="1">
-      <c r="A151" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B151" s="7"/>
-    </row>
-    <row r="152" spans="1:2" ht="12" customHeight="1">
-      <c r="A152" s="17"/>
-      <c r="B152" s="7"/>
-    </row>
-    <row r="153" spans="1:2" ht="12" customHeight="1">
-      <c r="A153" s="8"/>
-      <c r="B153" s="7"/>
-    </row>
-    <row r="154" spans="1:2" ht="12" customHeight="1">
-      <c r="A154" s="8"/>
-      <c r="B154" s="7"/>
-    </row>
-    <row r="155" spans="1:2" ht="12" customHeight="1">
-      <c r="A155" s="8"/>
-      <c r="B155" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" ht="15" customHeight="1">
-      <c r="A156" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B156" s="15"/>
-    </row>
-    <row r="157" spans="1:2" ht="60" customHeight="1">
-      <c r="A157" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B157" s="14"/>
-    </row>
-    <row r="158" spans="1:2" ht="12" customHeight="1">
-      <c r="A158" s="9" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=187cU6CvwlkOR9E_KDNRS8S7Yk0Hi4lS9I5KT3xnXwlE","Processo de Gerencia de Projetos")</f>
-        <v>Processo de Gerencia de Projetos</v>
-      </c>
-      <c r="B158" s="9" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=187cU6CvwlkOR9E_KDNRS8S7Yk0Hi4lS9I5KT3xnXwlE","X")</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" ht="12" customHeight="1">
-      <c r="A159" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B159" s="7"/>
-    </row>
-    <row r="160" spans="1:2" ht="12" customHeight="1">
-      <c r="A160" s="8"/>
-      <c r="B160" s="7"/>
-    </row>
-    <row r="161" spans="1:2" ht="12" customHeight="1">
-      <c r="A161" s="8"/>
-      <c r="B161" s="7"/>
-    </row>
-    <row r="162" spans="1:2" ht="12" customHeight="1">
-      <c r="A162" s="8"/>
-      <c r="B162" s="7"/>
-    </row>
-    <row r="163" spans="1:2" ht="12" customHeight="1">
-      <c r="A163" s="8"/>
-      <c r="B163" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" ht="24.75" customHeight="1">
-      <c r="A164" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B164" s="13"/>
-    </row>
-    <row r="165" spans="1:2" ht="12" customHeight="1">
-      <c r="A165" s="9" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
-        <v>Plano de Projeto</v>
-      </c>
-      <c r="B165" s="9" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","X")</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" ht="12" customHeight="1">
-      <c r="A166" s="8"/>
-      <c r="B166" s="7"/>
-    </row>
-    <row r="167" spans="1:2" ht="12" customHeight="1">
-      <c r="A167" s="8"/>
-      <c r="B167" s="7"/>
-    </row>
-    <row r="168" spans="1:2" ht="12" customHeight="1">
-      <c r="A168" s="8"/>
-      <c r="B168" s="7"/>
-    </row>
-    <row r="169" spans="1:2" ht="12" customHeight="1">
-      <c r="A169" s="8"/>
-      <c r="B169" s="7"/>
-    </row>
-    <row r="170" spans="1:2" ht="12" customHeight="1">
-      <c r="A170" s="8"/>
-      <c r="B170" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" ht="36.75" customHeight="1">
-      <c r="A171" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B171" s="10"/>
-    </row>
-    <row r="172" spans="1:2" ht="12" customHeight="1">
-      <c r="A172" s="9" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1YxEe7ln7G2YnhWW41DRU9BqNmW2SU39ESS2lCRx7ZmI","Relatório de Acompanhamento do Projeto")</f>
-        <v>Relatório de Acompanhamento do Projeto</v>
-      </c>
-      <c r="B172" s="9" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1YxEe7ln7G2YnhWW41DRU9BqNmW2SU39ESS2lCRx7ZmI","X")</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" ht="12" customHeight="1">
-      <c r="A173" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B173" s="7"/>
-    </row>
-    <row r="174" spans="1:2" ht="12" customHeight="1">
-      <c r="A174" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B174" s="7"/>
-    </row>
-    <row r="175" spans="1:2" ht="12" customHeight="1">
-      <c r="A175" s="9" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1aowZhWOqDG8Q1yqqq73Jdruv1T-jYHyomLoAAM9F9lc","Checklist de Acompanhamento dos Requisitos")</f>
-        <v>Checklist de Acompanhamento dos Requisitos</v>
-      </c>
-      <c r="B175" s="9" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1aowZhWOqDG8Q1yqqq73Jdruv1T-jYHyomLoAAM9F9lc","X")</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" ht="12" customHeight="1">
-      <c r="A176" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B176" s="7"/>
-    </row>
-    <row r="177" spans="1:2" ht="12" customHeight="1">
-      <c r="A177" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B177" s="7"/>
-    </row>
-    <row r="178" spans="1:2" ht="12" customHeight="1">
-      <c r="A178" s="8"/>
-      <c r="B178" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" ht="48.75" customHeight="1">
-      <c r="A179" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B179" s="10"/>
-    </row>
-    <row r="180" spans="1:2" ht="12" customHeight="1">
-      <c r="A180" s="9" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1YxEe7ln7G2YnhWW41DRU9BqNmW2SU39ESS2lCRx7ZmI","Relatório de Acompanhamento do Projeto")</f>
-        <v>Relatório de Acompanhamento do Projeto</v>
-      </c>
-      <c r="B180" s="9" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1YxEe7ln7G2YnhWW41DRU9BqNmW2SU39ESS2lCRx7ZmI","X")</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" ht="12" customHeight="1">
-      <c r="A181" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B181" s="7"/>
-    </row>
-    <row r="182" spans="1:2" ht="12" customHeight="1">
-      <c r="A182" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B182" s="7"/>
-    </row>
-    <row r="183" spans="1:2" ht="12" customHeight="1">
-      <c r="A183" s="9" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1aowZhWOqDG8Q1yqqq73Jdruv1T-jYHyomLoAAM9F9lc","Checklist de Acompanhamento dos Requisitos")</f>
-        <v>Checklist de Acompanhamento dos Requisitos</v>
-      </c>
-      <c r="B183" s="9" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1aowZhWOqDG8Q1yqqq73Jdruv1T-jYHyomLoAAM9F9lc","X")</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" ht="12" customHeight="1">
-      <c r="A184" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B184" s="7"/>
-    </row>
-    <row r="185" spans="1:2" ht="12" customHeight="1">
-      <c r="A185" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B185" s="7"/>
-    </row>
-    <row r="186" spans="1:2" ht="12" customHeight="1">
-      <c r="A186" s="8"/>
-      <c r="B186" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" ht="48.75" customHeight="1">
-      <c r="A187" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B187" s="10"/>
-    </row>
-    <row r="188" spans="1:2" ht="12" customHeight="1">
-      <c r="A188" s="9" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
-        <v>Plano de Projeto</v>
-      </c>
-      <c r="B188" s="9" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","X")</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" ht="12" customHeight="1">
-      <c r="A189" s="8"/>
-      <c r="B189" s="7"/>
-    </row>
-    <row r="190" spans="1:2" ht="12" customHeight="1">
-      <c r="A190" s="8"/>
-      <c r="B190" s="7"/>
-    </row>
-    <row r="191" spans="1:2" ht="12" customHeight="1">
-      <c r="A191" s="8"/>
-      <c r="B191" s="7"/>
-    </row>
-    <row r="192" spans="1:2" ht="12" customHeight="1">
-      <c r="A192" s="8"/>
-      <c r="B192" s="7"/>
-    </row>
-    <row r="193" spans="1:2" ht="12" customHeight="1">
-      <c r="A193" s="8"/>
-      <c r="B193" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" ht="36.75" customHeight="1">
-      <c r="A194" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B194" s="10"/>
-    </row>
-    <row r="195" spans="1:2" ht="12" customHeight="1">
-      <c r="A195" s="9" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
-        <v>Plano de Projeto</v>
-      </c>
-      <c r="B195" s="9" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","X")</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" ht="12" customHeight="1">
-      <c r="A196" s="8"/>
-      <c r="B196" s="7"/>
-    </row>
-    <row r="197" spans="1:2" ht="12" customHeight="1">
-      <c r="A197" s="8"/>
-      <c r="B197" s="7"/>
-    </row>
-    <row r="198" spans="1:2" ht="12" customHeight="1">
-      <c r="A198" s="8"/>
-      <c r="B198" s="7"/>
-    </row>
-    <row r="199" spans="1:2" ht="12" customHeight="1">
-      <c r="A199" s="8"/>
-      <c r="B199" s="7"/>
-    </row>
-    <row r="200" spans="1:2" ht="12" customHeight="1">
-      <c r="A200" s="8"/>
-      <c r="B200" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" ht="48.75" customHeight="1">
-      <c r="A201" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B201" s="10"/>
-    </row>
-    <row r="202" spans="1:2" ht="12" customHeight="1">
-      <c r="A202" s="9" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
-        <v>Plano de Projeto</v>
-      </c>
-      <c r="B202" s="9" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","X")</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" ht="12" customHeight="1">
-      <c r="A203" s="9" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","Processo de Garantia da Qualidade")</f>
-        <v>Processo de Garantia da Qualidade</v>
-      </c>
-      <c r="B203" s="9" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","X")</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" ht="12" customHeight="1">
-      <c r="A204" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B204" s="7"/>
-    </row>
-    <row r="205" spans="1:2" ht="12" customHeight="1">
-      <c r="A205" s="8"/>
-      <c r="B205" s="7"/>
-    </row>
-    <row r="206" spans="1:2" ht="12" customHeight="1">
-      <c r="A206" s="8"/>
-      <c r="B206" s="7"/>
-    </row>
-    <row r="207" spans="1:2" ht="12" customHeight="1">
-      <c r="A207" s="8"/>
-      <c r="B207" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" ht="48.75" customHeight="1">
-      <c r="A208" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B208" s="10"/>
-    </row>
-    <row r="209" spans="1:2" ht="12" customHeight="1">
-      <c r="A209" s="9" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
-        <v>Plano de Projeto</v>
-      </c>
-      <c r="B209" s="9" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","X")</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" ht="12" customHeight="1">
-      <c r="A210" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B210" s="7"/>
-    </row>
-    <row r="211" spans="1:2" ht="12" customHeight="1">
-      <c r="A211" s="8"/>
-      <c r="B211" s="7"/>
-    </row>
-    <row r="212" spans="1:2" ht="12" customHeight="1">
-      <c r="A212" s="8"/>
-      <c r="B212" s="7"/>
-    </row>
-    <row r="213" spans="1:2" ht="12" customHeight="1">
-      <c r="A213" s="8"/>
-      <c r="B213" s="7"/>
-    </row>
-    <row r="214" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A214" s="8"/>
-      <c r="B214" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" ht="69.75" customHeight="1">
-      <c r="A215" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B215" s="10"/>
-    </row>
-    <row r="216" spans="1:2" ht="12" customHeight="1">
-      <c r="A216" s="9" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
-        <v>Plano de Projeto</v>
-      </c>
-      <c r="B216" s="9" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","X")</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" ht="12" customHeight="1">
-      <c r="A217" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B217" s="7"/>
-    </row>
-    <row r="218" spans="1:2" ht="12" customHeight="1">
-      <c r="A218" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B218" s="7"/>
-    </row>
-    <row r="219" spans="1:2" ht="12" customHeight="1">
-      <c r="A219" s="9" t="str">
-        <f>HYPERLINK("http://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","Processo de Garantia de Qualidade")</f>
-        <v>Processo de Garantia de Qualidade</v>
-      </c>
-      <c r="B219" s="9" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","X")</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" ht="12" customHeight="1">
-      <c r="A220" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B220" s="7"/>
-    </row>
-    <row r="221" spans="1:2" ht="12" customHeight="1">
-      <c r="A221" s="8"/>
-      <c r="B221" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" ht="48.75" customHeight="1">
-      <c r="A222" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B222" s="10"/>
-    </row>
-    <row r="223" spans="1:2" ht="12" customHeight="1">
-      <c r="A223" s="9" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","Processo de Garantia de Qualidade")</f>
-        <v>Processo de Garantia de Qualidade</v>
-      </c>
-      <c r="B223" s="9" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","X")</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" ht="12" customHeight="1">
-      <c r="A224" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B224" s="7"/>
-    </row>
-    <row r="225" spans="1:2" ht="12" customHeight="1">
-      <c r="A225" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B225" s="7"/>
-    </row>
-    <row r="226" spans="1:2" ht="12" customHeight="1">
-      <c r="A226" s="8"/>
-      <c r="B226" s="7"/>
-    </row>
-    <row r="227" spans="1:2" ht="12" customHeight="1">
-      <c r="A227" s="8"/>
-      <c r="B227" s="7"/>
-    </row>
-    <row r="228" spans="1:2" ht="12" customHeight="1">
-      <c r="A228" s="8"/>
-      <c r="B228" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" ht="48.75" customHeight="1">
-      <c r="A229" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B229" s="10"/>
-    </row>
-    <row r="230" spans="1:2" ht="12" customHeight="1">
-      <c r="A230" s="9" t="str">
-        <f>HYPERLINK("http://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","Processo de Garantia de Qualidade")</f>
-        <v>Processo de Garantia de Qualidade</v>
-      </c>
-      <c r="B230" s="9" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","X")</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" ht="12" customHeight="1">
-      <c r="A231" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B231" s="7"/>
-    </row>
-    <row r="232" spans="1:2" ht="12" customHeight="1">
-      <c r="A232" s="9" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1YxEe7ln7G2YnhWW41DRU9BqNmW2SU39ESS2lCRx7ZmI","Relatório de Acompanhamento do Projeto")</f>
-        <v>Relatório de Acompanhamento do Projeto</v>
-      </c>
-      <c r="B232" s="9" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1YxEe7ln7G2YnhWW41DRU9BqNmW2SU39ESS2lCRx7ZmI","X")</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" ht="12" customHeight="1">
-      <c r="A233" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B233" s="7"/>
-    </row>
-    <row r="234" spans="1:2" ht="12" customHeight="1">
-      <c r="A234" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B234" s="7"/>
-    </row>
-    <row r="235" spans="1:2" ht="12" customHeight="1">
-      <c r="A235" s="8"/>
-      <c r="B235" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" ht="36.75" customHeight="1">
-      <c r="A236" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B236" s="10"/>
-    </row>
-    <row r="237" spans="1:2" ht="12" customHeight="1">
-      <c r="A237" s="9" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1YxEe7ln7G2YnhWW41DRU9BqNmW2SU39ESS2lCRx7ZmI","Relatório de Acompanhamento do Projeto")</f>
-        <v>Relatório de Acompanhamento do Projeto</v>
-      </c>
-      <c r="B237" s="9" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1YxEe7ln7G2YnhWW41DRU9BqNmW2SU39ESS2lCRx7ZmI","X")</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" ht="12" customHeight="1">
-      <c r="A238" s="8"/>
-      <c r="B238" s="7"/>
-    </row>
-    <row r="239" spans="1:2" ht="12" customHeight="1">
-      <c r="A239" s="8"/>
-      <c r="B239" s="7"/>
-    </row>
-    <row r="240" spans="1:2" ht="12" customHeight="1">
-      <c r="A240" s="8"/>
-      <c r="B240" s="7"/>
-    </row>
-    <row r="241" spans="1:2" ht="12" customHeight="1">
-      <c r="A241" s="8"/>
-      <c r="B241" s="7"/>
-    </row>
-    <row r="242" spans="1:2" ht="12" customHeight="1">
-      <c r="A242" s="8"/>
-      <c r="B242" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" ht="60.75" customHeight="1">
-      <c r="A243" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B243" s="10"/>
-    </row>
-    <row r="244" spans="1:2" ht="12" customHeight="1">
-      <c r="A244" s="9" t="str">
-        <f>HYPERLINK("http://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","Processo de Garantia de Qualidade")</f>
-        <v>Processo de Garantia de Qualidade</v>
-      </c>
-      <c r="B244" s="9" t="str">
-        <f>HYPERLINK("http://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","X")</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" ht="12" customHeight="1">
-      <c r="A245" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B245" s="7"/>
-    </row>
-    <row r="246" spans="1:2" ht="12" customHeight="1">
-      <c r="A246" s="8" t="str">
-        <f>HYPERLINK("http://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","Planilha de Checklist do Artefato")</f>
-        <v>Planilha de Checklist do Artefato</v>
-      </c>
-      <c r="B246" s="7"/>
-    </row>
-    <row r="247" spans="1:2" ht="12" customHeight="1">
-      <c r="A247" s="8"/>
-      <c r="B247" s="7"/>
-    </row>
-    <row r="248" spans="1:2" ht="12" customHeight="1">
-      <c r="A248" s="6"/>
-      <c r="B248" s="5"/>
-    </row>
-    <row r="249" spans="1:2" ht="12" customHeight="1">
-      <c r="A249" s="4"/>
-      <c r="B249" s="3" t="s">
-        <v>0</v>
-      </c>
+    <row r="240" spans="1:2" ht="12.75">
+      <c r="A240" s="2"/>
+      <c r="B240" s="2"/>
+    </row>
+    <row r="241" spans="1:2" ht="12.75">
+      <c r="A241" s="2"/>
+      <c r="B241" s="2"/>
+    </row>
+    <row r="242" spans="1:2" ht="12.75">
+      <c r="A242" s="2"/>
+      <c r="B242" s="2"/>
+    </row>
+    <row r="243" spans="1:2" ht="12.75">
+      <c r="A243" s="2"/>
+      <c r="B243" s="2"/>
+    </row>
+    <row r="244" spans="1:2" ht="12.75">
+      <c r="A244" s="2"/>
+      <c r="B244" s="2"/>
+    </row>
+    <row r="245" spans="1:2" ht="12.75">
+      <c r="A245" s="2"/>
+      <c r="B245" s="2"/>
+    </row>
+    <row r="246" spans="1:2" ht="12.75">
+      <c r="A246" s="2"/>
+      <c r="B246" s="2"/>
+    </row>
+    <row r="247" spans="1:2" ht="12.75">
+      <c r="A247" s="2"/>
+      <c r="B247" s="2"/>
+    </row>
+    <row r="248" spans="1:2" ht="12.75">
+      <c r="A248" s="2"/>
+      <c r="B248" s="2"/>
+    </row>
+    <row r="249" spans="1:2" ht="12.75">
+      <c r="A249" s="2"/>
+      <c r="B249" s="2"/>
     </row>
     <row r="250" spans="1:2" ht="12.75">
       <c r="A250" s="2"/>
@@ -5430,70 +5523,74 @@
       <c r="A989" s="2"/>
       <c r="B989" s="2"/>
     </row>
-    <row r="990" spans="1:2" ht="12.75">
-      <c r="A990" s="2"/>
-      <c r="B990" s="2"/>
-    </row>
-    <row r="991" spans="1:2" ht="12.75">
-      <c r="A991" s="2"/>
-      <c r="B991" s="2"/>
-    </row>
-    <row r="992" spans="1:2" ht="12.75">
-      <c r="A992" s="2"/>
-      <c r="B992" s="2"/>
-    </row>
-    <row r="993" spans="1:2" ht="12.75">
-      <c r="A993" s="2"/>
-      <c r="B993" s="2"/>
-    </row>
-    <row r="994" spans="1:2" ht="12.75">
-      <c r="A994" s="2"/>
-      <c r="B994" s="2"/>
-    </row>
-    <row r="995" spans="1:2" ht="12.75">
-      <c r="A995" s="2"/>
-      <c r="B995" s="2"/>
-    </row>
-    <row r="996" spans="1:2" ht="12.75">
-      <c r="A996" s="2"/>
-      <c r="B996" s="2"/>
-    </row>
-    <row r="997" spans="1:2" ht="12.75">
-      <c r="A997" s="2"/>
-      <c r="B997" s="2"/>
-    </row>
-    <row r="998" spans="1:2" ht="12.75">
-      <c r="A998" s="2"/>
-      <c r="B998" s="2"/>
-    </row>
-    <row r="999" spans="1:2" ht="12.75">
-      <c r="A999" s="2"/>
-      <c r="B999" s="2"/>
-    </row>
-    <row r="1000" spans="1:2" ht="12.75">
-      <c r="A1000" s="2"/>
-      <c r="B1000" s="2"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1"/>
-    <hyperlink ref="B13" r:id="rId2"/>
-    <hyperlink ref="B20" r:id="rId3"/>
-    <hyperlink ref="B27" r:id="rId4"/>
-    <hyperlink ref="B41" r:id="rId5"/>
-    <hyperlink ref="B48" r:id="rId6"/>
-    <hyperlink ref="B55" r:id="rId7"/>
-    <hyperlink ref="B62" r:id="rId8"/>
-    <hyperlink ref="B69" r:id="rId9"/>
-    <hyperlink ref="B76" r:id="rId10"/>
-    <hyperlink ref="B83" r:id="rId11"/>
-    <hyperlink ref="B90" r:id="rId12"/>
-    <hyperlink ref="B15" r:id="rId13"/>
-    <hyperlink ref="B29" r:id="rId14"/>
-    <hyperlink ref="B34" r:id="rId15"/>
-    <hyperlink ref="B36" r:id="rId16"/>
+    <hyperlink ref="B21" r:id="rId2"/>
+    <hyperlink ref="B37" r:id="rId3"/>
+    <hyperlink ref="B13" r:id="rId4"/>
+    <hyperlink ref="B16" r:id="rId5"/>
+    <hyperlink ref="B28" r:id="rId6"/>
+    <hyperlink ref="B30" r:id="rId7"/>
+    <hyperlink ref="B35" r:id="rId8"/>
+    <hyperlink ref="B42" r:id="rId9"/>
+    <hyperlink ref="B49" r:id="rId10"/>
+    <hyperlink ref="B56" r:id="rId11"/>
+    <hyperlink ref="B63" r:id="rId12"/>
+    <hyperlink ref="B70" r:id="rId13"/>
+    <hyperlink ref="B77" r:id="rId14"/>
+    <hyperlink ref="B85" r:id="rId15"/>
+    <hyperlink ref="B92" r:id="rId16"/>
+    <hyperlink ref="B51" r:id="rId17"/>
+    <hyperlink ref="B72" r:id="rId18"/>
+    <hyperlink ref="B99" r:id="rId19"/>
+    <hyperlink ref="B100" r:id="rId20"/>
+    <hyperlink ref="B101" r:id="rId21"/>
+    <hyperlink ref="B102" r:id="rId22"/>
+    <hyperlink ref="B106" r:id="rId23"/>
+    <hyperlink ref="B107" r:id="rId24"/>
+    <hyperlink ref="B108" r:id="rId25"/>
+    <hyperlink ref="B109" r:id="rId26"/>
+    <hyperlink ref="B113" r:id="rId27"/>
+    <hyperlink ref="B114" r:id="rId28"/>
+    <hyperlink ref="B115" r:id="rId29"/>
+    <hyperlink ref="B116" r:id="rId30"/>
+    <hyperlink ref="B122" r:id="rId31"/>
+    <hyperlink ref="B123" r:id="rId32"/>
+    <hyperlink ref="B124" r:id="rId33"/>
+    <hyperlink ref="B120" r:id="rId34"/>
+    <hyperlink ref="B128" r:id="rId35"/>
+    <hyperlink ref="B121" r:id="rId36"/>
+    <hyperlink ref="B135" r:id="rId37"/>
+    <hyperlink ref="B136" r:id="rId38"/>
+    <hyperlink ref="B130" r:id="rId39"/>
+    <hyperlink ref="B137" r:id="rId40"/>
+    <hyperlink ref="B138" r:id="rId41"/>
+    <hyperlink ref="B142" r:id="rId42"/>
+    <hyperlink ref="B143" r:id="rId43"/>
+    <hyperlink ref="B144" r:id="rId44"/>
+    <hyperlink ref="B154" r:id="rId45"/>
+    <hyperlink ref="B155" r:id="rId46"/>
+    <hyperlink ref="B156" r:id="rId47"/>
+    <hyperlink ref="B169" r:id="rId48"/>
+    <hyperlink ref="B175" r:id="rId49"/>
+    <hyperlink ref="B176" r:id="rId50"/>
+    <hyperlink ref="B177" r:id="rId51"/>
+    <hyperlink ref="B178" r:id="rId52"/>
+    <hyperlink ref="B168" r:id="rId53"/>
+    <hyperlink ref="B179" r:id="rId54"/>
+    <hyperlink ref="B186" r:id="rId55"/>
+    <hyperlink ref="B185" r:id="rId56"/>
+    <hyperlink ref="B184" r:id="rId57"/>
+    <hyperlink ref="B187" r:id="rId58"/>
+    <hyperlink ref="B188" r:id="rId59"/>
+    <hyperlink ref="B192" r:id="rId60"/>
+    <hyperlink ref="B193" r:id="rId61"/>
+    <hyperlink ref="B200" r:id="rId62"/>
+    <hyperlink ref="B207" r:id="rId63"/>
+    <hyperlink ref="B213" r:id="rId64"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId65"/>
 </worksheet>
 </file>
--- a/Entregavel_02/Sprint_03/PAP-PAR-PLANILHA_DE_AVALIACAO_GPR.xlsx
+++ b/Entregavel_02/Sprint_03/PAP-PAR-PLANILHA_DE_AVALIACAO_GPR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="86">
   <si>
     <t>(T,L,P,N,NA)</t>
   </si>
@@ -76,9 +76,6 @@
 As evidências apresentadas para este resultado permitem assegurar que existe um plano para a execução do processo?                                                   </t>
   </si>
   <si>
-    <t>Processo de Gerencia de Projetos - Sessao 4 - Políticas</t>
-  </si>
-  <si>
     <t>RAP 2. Existe uma política organizacional estabelecida e mantida para o processo.
 As evidências apresentadas para este resultado permitem assegurar: (i) que foi definida uma política organizacional estabelecendo as expectativas da organização para a execução do processo e que esta política é conhecida e de fácil acesso aos interessados? (ii) que a política organizacional foi atualizada, quando necessário? (iii) que a política organizacional tem respaldo da alta administração (por exemplo, por meio de aprovação da alta administração)?</t>
   </si>
@@ -294,6 +291,18 @@
   </si>
   <si>
     <t>Recursos de Projeto</t>
+  </si>
+  <si>
+    <t>Plano de Gerencia de Projetos</t>
+  </si>
+  <si>
+    <t>Plano de Gerencia de Projetos - Sessao 5 (i)</t>
+  </si>
+  <si>
+    <t>Plano de Gerencia de Projetos - Sessao 6 (ii)</t>
+  </si>
+  <si>
+    <t>Plano de Gerencia de Projetos - Sessao 9 (iii)</t>
   </si>
 </sst>
 </file>
@@ -595,9 +604,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -720,6 +726,9 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1018,8 +1027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B989"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A151" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D226" sqref="D226"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A173" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D167" sqref="D167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -1030,51 +1039,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="27.75" customHeight="1">
-      <c r="A1" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="31"/>
+      <c r="A1" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="30"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="29"/>
+      <c r="A2" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="28"/>
     </row>
     <row r="3" spans="1:2" ht="51" customHeight="1">
-      <c r="A3" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>48</v>
+      <c r="A3" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="84" customHeight="1">
-      <c r="A4" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="34"/>
+      <c r="A4" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="33"/>
     </row>
     <row r="5" spans="1:2" ht="24" customHeight="1">
-      <c r="A5" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="21"/>
+      <c r="A5" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="20"/>
     </row>
     <row r="6" spans="1:2" ht="12" customHeight="1">
       <c r="A6" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto  ")</f>
         <v xml:space="preserve">Plano de Projeto  </v>
       </c>
-      <c r="B6" s="33" t="s">
-        <v>51</v>
+      <c r="B6" s="32" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="12" customHeight="1">
-      <c r="A7" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="24"/>
+      <c r="A7" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="23"/>
     </row>
     <row r="8" spans="1:2" ht="12" customHeight="1">
       <c r="A8" s="4"/>
@@ -1089,49 +1098,49 @@
       <c r="B10" s="3"/>
     </row>
     <row r="11" spans="1:2" ht="12" customHeight="1">
-      <c r="A11" s="20"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="55.5" customHeight="1">
-      <c r="A12" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="35"/>
+      <c r="A12" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="34"/>
     </row>
     <row r="13" spans="1:2" ht="12" customHeight="1">
       <c r="A13" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B13" s="33" t="s">
-        <v>51</v>
+      <c r="B13" s="32" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="12" customHeight="1">
-      <c r="A14" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" s="33"/>
+      <c r="A14" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="32"/>
     </row>
     <row r="15" spans="1:2" ht="12" customHeight="1">
-      <c r="A15" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="24"/>
+      <c r="A15" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="23"/>
     </row>
     <row r="16" spans="1:2" ht="12" customHeight="1">
       <c r="A16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="12" customHeight="1">
+      <c r="A17" s="35" t="s">
         <v>57</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="12" customHeight="1">
-      <c r="A17" s="36" t="s">
-        <v>58</v>
       </c>
       <c r="B17" s="3"/>
     </row>
@@ -1140,29 +1149,29 @@
       <c r="B18" s="3"/>
     </row>
     <row r="19" spans="1:2" ht="12" customHeight="1">
-      <c r="A19" s="20"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="36" customHeight="1">
-      <c r="A20" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="35"/>
+      <c r="A20" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="34"/>
     </row>
     <row r="21" spans="1:2" ht="12" customHeight="1">
       <c r="A21" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B21" s="33" t="s">
-        <v>51</v>
+      <c r="B21" s="32" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="12" customHeight="1">
-      <c r="A22" s="36" t="s">
-        <v>54</v>
+      <c r="A22" s="35" t="s">
+        <v>53</v>
       </c>
       <c r="B22" s="3"/>
     </row>
@@ -1179,135 +1188,135 @@
       <c r="B25" s="3"/>
     </row>
     <row r="26" spans="1:2" ht="12" customHeight="1">
-      <c r="A26" s="20"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="65.25" customHeight="1">
-      <c r="A27" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="35"/>
+      <c r="A27" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="34"/>
     </row>
     <row r="28" spans="1:2" ht="12" customHeight="1">
       <c r="A28" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B28" s="33" t="s">
-        <v>51</v>
+      <c r="B28" s="32" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="12" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B29" s="3"/>
     </row>
     <row r="30" spans="1:2" ht="12" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="37" t="s">
-        <v>51</v>
+        <v>55</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="12" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B31" s="3"/>
     </row>
     <row r="32" spans="1:2" ht="12" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B32" s="3"/>
     </row>
     <row r="33" spans="1:2" ht="12" customHeight="1">
-      <c r="A33" s="20"/>
+      <c r="A33" s="19"/>
       <c r="B33" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="67.5" customHeight="1">
-      <c r="A34" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="34"/>
+      <c r="A34" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="33"/>
     </row>
     <row r="35" spans="1:2" ht="12" customHeight="1">
       <c r="A35" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B35" s="33" t="s">
-        <v>51</v>
+      <c r="B35" s="32" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="12" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B36" s="3"/>
     </row>
     <row r="37" spans="1:2" ht="12" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" s="37" t="s">
         <v>51</v>
+      </c>
+      <c r="B37" s="36" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="12" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B38" s="3"/>
     </row>
     <row r="39" spans="1:2" ht="12" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B39" s="3"/>
     </row>
     <row r="40" spans="1:2" ht="12" customHeight="1">
-      <c r="A40" s="20"/>
+      <c r="A40" s="19"/>
       <c r="B40" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="60" customHeight="1">
-      <c r="A41" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="38"/>
+      <c r="A41" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="37"/>
     </row>
     <row r="42" spans="1:2" ht="12" customHeight="1">
       <c r="A42" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto ")</f>
         <v xml:space="preserve">Plano de Projeto </v>
       </c>
-      <c r="B42" s="33" t="s">
-        <v>51</v>
+      <c r="B42" s="32" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="12" customHeight="1">
-      <c r="A43" s="36" t="s">
-        <v>63</v>
+      <c r="A43" s="35" t="s">
+        <v>62</v>
       </c>
       <c r="B43" s="3"/>
     </row>
     <row r="44" spans="1:2" ht="12" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B44" s="3"/>
     </row>
     <row r="45" spans="1:2" ht="12" customHeight="1">
       <c r="A45" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B45" s="3"/>
     </row>
@@ -1316,43 +1325,43 @@
       <c r="B46" s="3"/>
     </row>
     <row r="47" spans="1:2" ht="12" customHeight="1">
-      <c r="A47" s="20"/>
+      <c r="A47" s="19"/>
       <c r="B47" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="48" customHeight="1">
-      <c r="A48" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B48" s="42"/>
+      <c r="A48" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" s="41"/>
     </row>
     <row r="49" spans="1:2" ht="12" customHeight="1">
       <c r="A49" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B49" s="33" t="s">
-        <v>51</v>
+      <c r="B49" s="32" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="12" customHeight="1">
       <c r="A50" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" s="3"/>
+    </row>
+    <row r="51" spans="1:2" ht="12" customHeight="1">
+      <c r="A51" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="B50" s="3"/>
-    </row>
-    <row r="51" spans="1:2" ht="12" customHeight="1">
-      <c r="A51" s="40" t="s">
+      <c r="B51" s="38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="12" customHeight="1">
+      <c r="A52" s="40" t="s">
         <v>65</v>
-      </c>
-      <c r="B51" s="39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="12" customHeight="1">
-      <c r="A52" s="41" t="s">
-        <v>66</v>
       </c>
       <c r="B52" s="3"/>
     </row>
@@ -1361,29 +1370,29 @@
       <c r="B53" s="3"/>
     </row>
     <row r="54" spans="1:2" ht="12" customHeight="1">
-      <c r="A54" s="20"/>
+      <c r="A54" s="19"/>
       <c r="B54" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="36" customHeight="1">
-      <c r="A55" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B55" s="44"/>
+      <c r="A55" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B55" s="43"/>
     </row>
     <row r="56" spans="1:2" ht="12" customHeight="1">
       <c r="A56" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B56" s="33" t="s">
-        <v>51</v>
+      <c r="B56" s="32" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="12" customHeight="1">
-      <c r="A57" s="43" t="s">
-        <v>67</v>
+      <c r="A57" s="42" t="s">
+        <v>66</v>
       </c>
       <c r="B57" s="3"/>
     </row>
@@ -1400,29 +1409,29 @@
       <c r="B60" s="3"/>
     </row>
     <row r="61" spans="1:2" ht="12" customHeight="1">
-      <c r="A61" s="20"/>
+      <c r="A61" s="19"/>
       <c r="B61" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="36" customHeight="1">
-      <c r="A62" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B62" s="34"/>
+      <c r="A62" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B62" s="33"/>
     </row>
     <row r="63" spans="1:2" ht="12" customHeight="1">
       <c r="A63" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B63" s="33" t="s">
-        <v>51</v>
+      <c r="B63" s="32" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="12" customHeight="1">
-      <c r="A64" s="40" t="s">
-        <v>67</v>
+      <c r="A64" s="39" t="s">
+        <v>66</v>
       </c>
       <c r="B64" s="3"/>
     </row>
@@ -1439,38 +1448,38 @@
       <c r="B67" s="3"/>
     </row>
     <row r="68" spans="1:2" ht="12" customHeight="1">
-      <c r="A68" s="20"/>
+      <c r="A68" s="19"/>
       <c r="B68" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="60" customHeight="1">
-      <c r="A69" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B69" s="35"/>
+      <c r="A69" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B69" s="34"/>
     </row>
     <row r="70" spans="1:2" ht="12" customHeight="1">
       <c r="A70" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B70" s="33" t="s">
-        <v>51</v>
+      <c r="B70" s="32" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="12" customHeight="1">
       <c r="A71" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B71" s="3"/>
     </row>
     <row r="72" spans="1:2" ht="12" customHeight="1">
-      <c r="A72" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="B72" s="39" t="s">
-        <v>51</v>
+      <c r="A72" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="B72" s="38" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="12" customHeight="1">
@@ -1482,41 +1491,41 @@
       <c r="B74" s="3"/>
     </row>
     <row r="75" spans="1:2" ht="12" customHeight="1">
-      <c r="A75" s="20"/>
+      <c r="A75" s="19"/>
       <c r="B75" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="44.25" customHeight="1">
-      <c r="A76" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B76" s="35"/>
+      <c r="A76" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B76" s="34"/>
     </row>
     <row r="77" spans="1:2" ht="12" customHeight="1">
-      <c r="A77" s="46" t="str">
+      <c r="A77" s="45" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B77" s="33" t="s">
-        <v>51</v>
+      <c r="B77" s="32" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="12" customHeight="1">
-      <c r="A78" s="45" t="s">
+      <c r="A78" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="B78" s="32"/>
+    </row>
+    <row r="79" spans="1:2" ht="12" customHeight="1">
+      <c r="A79" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="B78" s="33"/>
-    </row>
-    <row r="79" spans="1:2" ht="12" customHeight="1">
-      <c r="A79" s="41" t="s">
+      <c r="B79" s="3"/>
+    </row>
+    <row r="80" spans="1:2" ht="12" customHeight="1">
+      <c r="A80" s="39" t="s">
         <v>71</v>
-      </c>
-      <c r="B79" s="3"/>
-    </row>
-    <row r="80" spans="1:2" ht="12" customHeight="1">
-      <c r="A80" s="40" t="s">
-        <v>72</v>
       </c>
       <c r="B80" s="3"/>
     </row>
@@ -1529,29 +1538,29 @@
       <c r="B82" s="3"/>
     </row>
     <row r="83" spans="1:2" ht="12" customHeight="1">
-      <c r="A83" s="20"/>
+      <c r="A83" s="19"/>
       <c r="B83" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="60" customHeight="1">
-      <c r="A84" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B84" s="34"/>
+      <c r="A84" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B84" s="33"/>
     </row>
     <row r="85" spans="1:2" ht="12" customHeight="1">
       <c r="A85" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B85" s="33" t="s">
-        <v>51</v>
+      <c r="B85" s="32" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="12" customHeight="1">
       <c r="A86" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B86" s="3"/>
     </row>
@@ -1568,28 +1577,28 @@
       <c r="B89" s="3"/>
     </row>
     <row r="90" spans="1:2" ht="12" customHeight="1">
-      <c r="A90" s="20"/>
+      <c r="A90" s="19"/>
       <c r="B90" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="36" customHeight="1">
-      <c r="A91" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B91" s="34"/>
+      <c r="A91" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B91" s="33"/>
     </row>
     <row r="92" spans="1:2" ht="12" customHeight="1">
       <c r="A92" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B92" s="33" t="s">
-        <v>51</v>
+      <c r="B92" s="32" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="12" customHeight="1">
-      <c r="A93" s="23" t="s">
+      <c r="A93" s="22" t="s">
         <v>5</v>
       </c>
       <c r="B93" s="3"/>
@@ -1607,47 +1616,47 @@
       <c r="B96" s="3"/>
     </row>
     <row r="97" spans="1:2" ht="12" customHeight="1">
-      <c r="A97" s="20"/>
+      <c r="A97" s="19"/>
       <c r="B97" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="36" customHeight="1">
-      <c r="A98" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B98" s="34"/>
+      <c r="A98" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B98" s="33"/>
     </row>
     <row r="99" spans="1:2" ht="12" customHeight="1">
-      <c r="A99" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="B99" s="39" t="s">
-        <v>51</v>
+      <c r="A99" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B99" s="38" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="12" customHeight="1">
-      <c r="A100" s="40" t="s">
+      <c r="A100" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B100" s="38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="12" customHeight="1">
+      <c r="A101" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="B100" s="39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="12" customHeight="1">
-      <c r="A101" s="40" t="s">
+      <c r="B101" s="38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="12" customHeight="1">
+      <c r="A102" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B101" s="39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="12" customHeight="1">
-      <c r="A102" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="B102" s="39" t="s">
-        <v>51</v>
+      <c r="B102" s="38" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="12" customHeight="1">
@@ -1655,47 +1664,47 @@
       <c r="B103" s="3"/>
     </row>
     <row r="104" spans="1:2" ht="12" customHeight="1">
-      <c r="A104" s="20"/>
+      <c r="A104" s="19"/>
       <c r="B104" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="36" customHeight="1">
-      <c r="A105" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B105" s="34"/>
+      <c r="A105" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B105" s="33"/>
     </row>
     <row r="106" spans="1:2" ht="12" customHeight="1">
-      <c r="A106" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="B106" s="39" t="s">
-        <v>51</v>
+      <c r="A106" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B106" s="38" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="12" customHeight="1">
-      <c r="A107" s="40" t="s">
+      <c r="A107" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B107" s="38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="12" customHeight="1">
+      <c r="A108" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="B107" s="39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="12" customHeight="1">
-      <c r="A108" s="40" t="s">
+      <c r="B108" s="38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="12" customHeight="1">
+      <c r="A109" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B108" s="39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="12" customHeight="1">
-      <c r="A109" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="B109" s="39" t="s">
-        <v>51</v>
+      <c r="B109" s="38" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="12" customHeight="1">
@@ -1703,47 +1712,47 @@
       <c r="B110" s="3"/>
     </row>
     <row r="111" spans="1:2" ht="12" customHeight="1">
-      <c r="A111" s="20"/>
+      <c r="A111" s="19"/>
       <c r="B111" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="36" customHeight="1">
-      <c r="A112" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B112" s="34"/>
+      <c r="A112" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B112" s="33"/>
     </row>
     <row r="113" spans="1:2" ht="12" customHeight="1">
-      <c r="A113" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="B113" s="39" t="s">
-        <v>51</v>
+      <c r="A113" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B113" s="38" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="12" customHeight="1">
-      <c r="A114" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="B114" s="39" t="s">
-        <v>51</v>
+      <c r="A114" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B114" s="38" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="12" customHeight="1">
-      <c r="A115" s="40" t="s">
+      <c r="A115" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B115" s="38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="12" customHeight="1">
+      <c r="A116" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B115" s="39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="12" customHeight="1">
-      <c r="A116" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="B116" s="39" t="s">
-        <v>51</v>
+      <c r="B116" s="38" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="12" customHeight="1">
@@ -1751,55 +1760,55 @@
       <c r="B117" s="3"/>
     </row>
     <row r="118" spans="1:2" ht="12" customHeight="1">
-      <c r="A118" s="20"/>
+      <c r="A118" s="19"/>
       <c r="B118" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="39" customHeight="1">
-      <c r="A119" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B119" s="34"/>
+      <c r="A119" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B119" s="33"/>
     </row>
     <row r="120" spans="1:2" ht="12" customHeight="1">
-      <c r="A120" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="B120" s="33" t="s">
-        <v>51</v>
+      <c r="A120" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B120" s="32" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="12" customHeight="1">
-      <c r="A121" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="B121" s="37" t="s">
-        <v>51</v>
+      <c r="A121" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="B121" s="36" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="12" customHeight="1">
       <c r="A122" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B122" s="39" t="s">
-        <v>51</v>
+        <v>26</v>
+      </c>
+      <c r="B122" s="38" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="12" customHeight="1">
-      <c r="A123" s="40" t="s">
+      <c r="A123" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B123" s="38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="12" customHeight="1">
+      <c r="A124" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B123" s="39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="12" customHeight="1">
-      <c r="A124" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="B124" s="39" t="s">
-        <v>51</v>
+      <c r="B124" s="38" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="12" customHeight="1">
@@ -1807,38 +1816,38 @@
       <c r="B125" s="3"/>
     </row>
     <row r="126" spans="1:2" ht="12" customHeight="1">
-      <c r="A126" s="20"/>
+      <c r="A126" s="19"/>
       <c r="B126" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="36" customHeight="1">
-      <c r="A127" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B127" s="47"/>
+      <c r="A127" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B127" s="46"/>
     </row>
     <row r="128" spans="1:2" ht="12" customHeight="1">
       <c r="A128" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B128" s="33" t="s">
-        <v>51</v>
+      <c r="B128" s="32" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="12" customHeight="1">
       <c r="A129" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B129" s="24"/>
+        <v>77</v>
+      </c>
+      <c r="B129" s="23"/>
     </row>
     <row r="130" spans="1:2" ht="12" customHeight="1">
-      <c r="A130" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="B130" s="39" t="s">
-        <v>51</v>
+      <c r="A130" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B130" s="38" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="12" customHeight="1">
@@ -1850,47 +1859,47 @@
       <c r="B132" s="3"/>
     </row>
     <row r="133" spans="1:2" ht="12" customHeight="1">
-      <c r="A133" s="20"/>
+      <c r="A133" s="19"/>
       <c r="B133" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="48" customHeight="1">
-      <c r="A134" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B134" s="47"/>
+      <c r="A134" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B134" s="46"/>
     </row>
     <row r="135" spans="1:2" ht="12" customHeight="1">
       <c r="A135" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B135" s="39" t="s">
-        <v>51</v>
+        <v>26</v>
+      </c>
+      <c r="B135" s="38" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="12" customHeight="1">
-      <c r="A136" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="B136" s="48" t="s">
-        <v>51</v>
+      <c r="A136" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B136" s="47" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="12" customHeight="1">
-      <c r="A137" s="40" t="s">
+      <c r="A137" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B137" s="38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="12" customHeight="1">
+      <c r="A138" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B137" s="39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" ht="12" customHeight="1">
-      <c r="A138" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="B138" s="39" t="s">
-        <v>51</v>
+      <c r="B138" s="38" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="12" customHeight="1">
@@ -1898,40 +1907,40 @@
       <c r="B139" s="3"/>
     </row>
     <row r="140" spans="1:2" ht="12" customHeight="1">
-      <c r="A140" s="20"/>
+      <c r="A140" s="19"/>
       <c r="B140" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="72" customHeight="1">
-      <c r="A141" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B141" s="47"/>
+      <c r="A141" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B141" s="46"/>
     </row>
     <row r="142" spans="1:2" ht="12" customHeight="1">
       <c r="A142" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1YxEe7ln7G2YnhWW41DRU9BqNmW2SU39ESS2lCRx7ZmI","Relatório de Acompanhamento do Projeto")</f>
         <v>Relatório de Acompanhamento do Projeto</v>
       </c>
-      <c r="B142" s="39" t="s">
-        <v>51</v>
+      <c r="B142" s="38" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="12" customHeight="1">
-      <c r="A143" s="40" t="s">
+      <c r="A143" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B143" s="38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="12" customHeight="1">
+      <c r="A144" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B143" s="39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" ht="12" customHeight="1">
-      <c r="A144" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="B144" s="39" t="s">
-        <v>51</v>
+      <c r="B144" s="38" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="12" customHeight="1">
@@ -1943,51 +1952,51 @@
       <c r="B146" s="3"/>
     </row>
     <row r="147" spans="1:2" ht="12" customHeight="1">
-      <c r="A147" s="20"/>
+      <c r="A147" s="19"/>
       <c r="B147" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A148" s="19"/>
-      <c r="B148" s="18"/>
+      <c r="A148" s="18"/>
+      <c r="B148" s="17"/>
     </row>
     <row r="149" spans="1:2" ht="15" customHeight="1">
-      <c r="A149" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B149" s="16"/>
+      <c r="A149" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B149" s="15"/>
     </row>
     <row r="150" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A150" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B150" s="14"/>
+      <c r="A150" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B150" s="13"/>
     </row>
     <row r="151" spans="1:2" ht="12" customHeight="1">
-      <c r="A151" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B151" s="12"/>
+      <c r="A151" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B151" s="11"/>
     </row>
     <row r="152" spans="1:2" ht="36" customHeight="1">
-      <c r="A152" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B152" s="50"/>
+      <c r="A152" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B152" s="49"/>
     </row>
     <row r="153" spans="1:2" ht="12" customHeight="1">
       <c r="A153" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B153" s="5"/>
     </row>
     <row r="154" spans="1:2" ht="12" customHeight="1">
-      <c r="A154" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="B154" s="39" t="s">
-        <v>51</v>
+      <c r="A154" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B154" s="38" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="12" customHeight="1">
@@ -1995,16 +2004,16 @@
         <f>HYPERLINK("https://drive.google.com/open?id=1YxEe7ln7G2YnhWW41DRU9BqNmW2SU39ESS2lCRx7ZmI","Relatório de Acompanhamento do Projeto")</f>
         <v>Relatório de Acompanhamento do Projeto</v>
       </c>
-      <c r="B155" s="39" t="s">
-        <v>51</v>
+      <c r="B155" s="38" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="12" customHeight="1">
-      <c r="A156" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="B156" s="33" t="s">
-        <v>51</v>
+      <c r="A156" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B156" s="32" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="12" customHeight="1">
@@ -2018,21 +2027,20 @@
       </c>
     </row>
     <row r="159" spans="1:2" ht="15" customHeight="1">
-      <c r="A159" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B159" s="10"/>
+      <c r="A159" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B159" s="9"/>
     </row>
     <row r="160" spans="1:2" ht="60" customHeight="1">
       <c r="A160" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B160" s="9"/>
+        <v>17</v>
+      </c>
+      <c r="B160" s="56"/>
     </row>
     <row r="161" spans="1:2" ht="12" customHeight="1">
-      <c r="A161" s="5" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=187cU6CvwlkOR9E_KDNRS8S7Yk0Hi4lS9I5KT3xnXwlE","Processo de Gerencia de Projetos")</f>
-        <v>Processo de Gerencia de Projetos</v>
+      <c r="A161" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="B161" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=187cU6CvwlkOR9E_KDNRS8S7Yk0Hi4lS9I5KT3xnXwlE","X")</f>
@@ -2040,17 +2048,21 @@
       </c>
     </row>
     <row r="162" spans="1:2" ht="12" customHeight="1">
-      <c r="A162" s="4" t="s">
-        <v>17</v>
+      <c r="A162" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="B162" s="3"/>
     </row>
     <row r="163" spans="1:2" ht="12" customHeight="1">
-      <c r="A163" s="4"/>
+      <c r="A163" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="B163" s="3"/>
     </row>
     <row r="164" spans="1:2" ht="12" customHeight="1">
-      <c r="A164" s="4"/>
+      <c r="A164" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="B164" s="3"/>
     </row>
     <row r="165" spans="1:2" ht="12" customHeight="1">
@@ -2067,23 +2079,23 @@
       <c r="A167" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B167" s="49"/>
+      <c r="B167" s="48"/>
     </row>
     <row r="168" spans="1:2" ht="12" customHeight="1">
       <c r="A168" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B168" s="33" t="s">
-        <v>51</v>
+      <c r="B168" s="32" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="12" customHeight="1">
-      <c r="A169" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="B169" s="33" t="s">
-        <v>51</v>
+      <c r="A169" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B169" s="32" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="12" customHeight="1">
@@ -2108,39 +2120,39 @@
       <c r="A174" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B174" s="51"/>
+      <c r="B174" s="50"/>
     </row>
     <row r="175" spans="1:2" ht="12" customHeight="1">
       <c r="A175" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1YxEe7ln7G2YnhWW41DRU9BqNmW2SU39ESS2lCRx7ZmI","Relatório de Acompanhamento do Projeto")</f>
         <v>Relatório de Acompanhamento do Projeto</v>
       </c>
-      <c r="B175" s="39" t="s">
-        <v>51</v>
+      <c r="B175" s="38" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="12" customHeight="1">
       <c r="A176" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B176" s="39" t="s">
-        <v>51</v>
+      <c r="B176" s="38" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="12" customHeight="1">
-      <c r="A177" s="40" t="s">
+      <c r="A177" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B177" s="38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="12" customHeight="1">
+      <c r="A178" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="B177" s="39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" ht="12" customHeight="1">
-      <c r="A178" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="B178" s="33" t="s">
-        <v>51</v>
+      <c r="B178" s="32" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="12" customHeight="1">
@@ -2148,13 +2160,13 @@
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B179" s="33" t="s">
-        <v>51</v>
+      <c r="B179" s="32" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="12" customHeight="1">
-      <c r="A180" s="45" t="s">
-        <v>78</v>
+      <c r="A180" s="44" t="s">
+        <v>77</v>
       </c>
       <c r="B180" s="3"/>
     </row>
@@ -2168,7 +2180,7 @@
       <c r="A182" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B182" s="51"/>
+      <c r="B182" s="50"/>
     </row>
     <row r="183" spans="1:2" ht="12" customHeight="1">
       <c r="A183" s="5" t="str">
@@ -2184,45 +2196,45 @@
       <c r="A184" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B184" s="39" t="s">
-        <v>51</v>
+      <c r="B184" s="38" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="12" customHeight="1">
-      <c r="A185" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="B185" s="33" t="s">
-        <v>51</v>
+      <c r="A185" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="B185" s="32" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="12" customHeight="1">
-      <c r="A186" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="B186" s="37" t="s">
-        <v>51</v>
+      <c r="A186" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="B186" s="36" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="12" customHeight="1">
-      <c r="A187" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="B187" s="39" t="s">
-        <v>51</v>
+      <c r="A187" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B187" s="38" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="12" customHeight="1">
-      <c r="A188" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="B188" s="39" t="s">
-        <v>51</v>
+      <c r="A188" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="B188" s="38" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="12" customHeight="1">
-      <c r="A189" s="40"/>
-      <c r="B189" s="39"/>
+      <c r="A189" s="39"/>
+      <c r="B189" s="38"/>
     </row>
     <row r="190" spans="1:2" ht="12" customHeight="1">
       <c r="A190" s="4"/>
@@ -2234,23 +2246,23 @@
       <c r="A191" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B191" s="51"/>
+      <c r="B191" s="50"/>
     </row>
     <row r="192" spans="1:2" ht="12" customHeight="1">
       <c r="A192" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B192" s="33" t="s">
-        <v>51</v>
+      <c r="B192" s="32" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="12" customHeight="1">
-      <c r="A193" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="B193" s="39" t="s">
-        <v>51</v>
+      <c r="A193" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B193" s="38" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="12" customHeight="1">
@@ -2275,18 +2287,18 @@
       <c r="A198" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B198" s="52"/>
+      <c r="B198" s="51"/>
     </row>
     <row r="199" spans="1:2" ht="12" customHeight="1">
-      <c r="A199" s="45"/>
-      <c r="B199" s="33"/>
+      <c r="A199" s="44"/>
+      <c r="B199" s="32"/>
     </row>
     <row r="200" spans="1:2" ht="12" customHeight="1">
-      <c r="A200" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="B200" s="39" t="s">
-        <v>51</v>
+      <c r="A200" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B200" s="38" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="12" customHeight="1">
@@ -2324,11 +2336,11 @@
       </c>
     </row>
     <row r="207" spans="1:2" ht="12" customHeight="1">
-      <c r="A207" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="B207" s="39" t="s">
-        <v>51</v>
+      <c r="A207" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B207" s="38" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="12" customHeight="1">
@@ -2353,21 +2365,21 @@
       <c r="A212" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B212" s="54"/>
+      <c r="B212" s="53"/>
     </row>
     <row r="213" spans="1:2" ht="12" customHeight="1">
-      <c r="A213" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="B213" s="39" t="s">
-        <v>51</v>
+      <c r="A213" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B213" s="38" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="12" customHeight="1">
       <c r="A214" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B214" s="53"/>
+      <c r="B214" s="52"/>
     </row>
     <row r="215" spans="1:2" ht="12" customHeight="1">
       <c r="A215" s="4"/>
@@ -2391,7 +2403,7 @@
       <c r="A219" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B219" s="55"/>
+      <c r="B219" s="54"/>
     </row>
     <row r="220" spans="1:2" ht="12" customHeight="1">
       <c r="A220" s="5" t="str">
@@ -2483,7 +2495,7 @@
       <c r="A233" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B233" s="56"/>
+      <c r="B233" s="55"/>
     </row>
     <row r="234" spans="1:2" ht="12" customHeight="1">
       <c r="A234" s="5" t="str">

--- a/Entregavel_02/Sprint_03/PAP-PAR-PLANILHA_DE_AVALIACAO_GPR.xlsx
+++ b/Entregavel_02/Sprint_03/PAP-PAR-PLANILHA_DE_AVALIACAO_GPR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="88">
   <si>
     <t>(T,L,P,N,NA)</t>
   </si>
@@ -23,22 +23,10 @@
 As evidências apresentadas para este resultado permitem assegurar que o projeto foi conduzido a partir da execução do seu processo planejado, bem como se existem registros de execução das atividades do processo com base no seu planejamento?</t>
   </si>
   <si>
-    <t>Processo de Garantia de Qualidade - Sessao 6 - Macro Fluxo</t>
-  </si>
-  <si>
-    <t>Processo de Garantia de Qualidade - Sessao 7 - Definicao de Atividades</t>
-  </si>
-  <si>
     <t>RAP 9. (Até o nível F). Os resultados do processo são revistos com a gerência de alto nível para fornecer visibilidade sobre a sua situação na organização.                                                                           
 As evidências apresentadas para este resultado permitem assegurar que os resultados do processo foram revistos com a gerência de alto nível?</t>
   </si>
   <si>
-    <t>Plano de Projeto - Sessao 11 - Aprovação</t>
-  </si>
-  <si>
-    <t>Plano de Projeto - Sessao 9 - Marcos e Pontos de Controle</t>
-  </si>
-  <si>
     <t>RAP 8. A comunicação entre as partes interessadas no processo é planejada e executada de forma a garantir o seu envolvimento.
 As evidências apresentadas para este resultado permitem assegurar que: (i) foi planejada a comunicação entre as partes interessadas no processo?; (ii) este planejamento foi monitorado?; (iii) existe evidência de que a comunicação ocorre de forma a garantir o envolvimento das partes interessadas?</t>
   </si>
@@ -293,28 +281,41 @@
     <t>Recursos de Projeto</t>
   </si>
   <si>
-    <t>Plano de Gerencia de Projetos</t>
-  </si>
-  <si>
-    <t>Plano de Gerencia de Projetos - Sessao 5 (i)</t>
-  </si>
-  <si>
-    <t>Plano de Gerencia de Projetos - Sessao 6 (ii)</t>
-  </si>
-  <si>
-    <t>Plano de Gerencia de Projetos - Sessao 9 (iii)</t>
+    <t>Plano de Gerencia de Processo e Projeto</t>
+  </si>
+  <si>
+    <t>Plano de Gerencia de Processo e Projeto - Sessao 5 (i)</t>
+  </si>
+  <si>
+    <t>Plano de Gerencia de Processo e Projeto - Sessao 9 (iii)</t>
+  </si>
+  <si>
+    <t>Plano de Gerencia de Processo e Projeto - Sessao 6 (ii)</t>
+  </si>
+  <si>
+    <t>Plano de Gerencia de Processo e Projeto - Sessao 7</t>
+  </si>
+  <si>
+    <t>Plano de Gerencia de Processo e Projeto - Sessao 8</t>
+  </si>
+  <si>
+    <t>Plano de Projeto</t>
+  </si>
+  <si>
+    <t>Curriculos</t>
+  </si>
+  <si>
+    <t>Plano de Projeto - Sessao 12</t>
+  </si>
+  <si>
+    <t>Plano de Projeto - Sessao 12 - Aprovação</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="21">
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -431,7 +432,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -464,25 +465,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFCCFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor rgb="FFFFFF99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF99"/>
       </patternFill>
     </fill>
@@ -579,156 +562,149 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1025,10 +1001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B989"/>
+  <dimension ref="A1:B991"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A173" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D167" sqref="D167"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -1039,34 +1015,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="27.75" customHeight="1">
-      <c r="A1" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="30"/>
+      <c r="A1" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="29"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="28"/>
+      <c r="A2" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="27"/>
     </row>
     <row r="3" spans="1:2" ht="51" customHeight="1">
-      <c r="A3" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>47</v>
+      <c r="A3" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="84" customHeight="1">
       <c r="A4" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="33"/>
+        <v>42</v>
+      </c>
+      <c r="B4" s="32"/>
     </row>
     <row r="5" spans="1:2" ht="24" customHeight="1">
       <c r="A5" s="21" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B5" s="20"/>
     </row>
@@ -1075,15 +1051,15 @@
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto  ")</f>
         <v xml:space="preserve">Plano de Projeto  </v>
       </c>
-      <c r="B6" s="32" t="s">
-        <v>50</v>
+      <c r="B6" s="31" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="12" customHeight="1">
-      <c r="A7" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="23"/>
+      <c r="A7" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="22"/>
     </row>
     <row r="8" spans="1:2" ht="12" customHeight="1">
       <c r="A8" s="4"/>
@@ -1105,42 +1081,42 @@
     </row>
     <row r="12" spans="1:2" ht="55.5" customHeight="1">
       <c r="A12" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="34"/>
+        <v>40</v>
+      </c>
+      <c r="B12" s="33"/>
     </row>
     <row r="13" spans="1:2" ht="12" customHeight="1">
       <c r="A13" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="12" customHeight="1">
+      <c r="A14" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="31"/>
+    </row>
+    <row r="15" spans="1:2" ht="12" customHeight="1">
+      <c r="A15" s="34" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="12" customHeight="1">
-      <c r="A14" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="32"/>
-    </row>
-    <row r="15" spans="1:2" ht="12" customHeight="1">
-      <c r="A15" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="23"/>
+      <c r="B15" s="22"/>
     </row>
     <row r="16" spans="1:2" ht="12" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="12" customHeight="1">
-      <c r="A17" s="35" t="s">
-        <v>57</v>
+      <c r="A17" s="34" t="s">
+        <v>53</v>
       </c>
       <c r="B17" s="3"/>
     </row>
@@ -1156,22 +1132,22 @@
     </row>
     <row r="20" spans="1:2" ht="36" customHeight="1">
       <c r="A20" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="34"/>
+        <v>39</v>
+      </c>
+      <c r="B20" s="33"/>
     </row>
     <row r="21" spans="1:2" ht="12" customHeight="1">
       <c r="A21" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B21" s="32" t="s">
-        <v>50</v>
+      <c r="B21" s="31" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="12" customHeight="1">
-      <c r="A22" s="35" t="s">
-        <v>53</v>
+      <c r="A22" s="34" t="s">
+        <v>49</v>
       </c>
       <c r="B22" s="3"/>
     </row>
@@ -1195,42 +1171,42 @@
     </row>
     <row r="27" spans="1:2" ht="65.25" customHeight="1">
       <c r="A27" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="34"/>
+        <v>38</v>
+      </c>
+      <c r="B27" s="33"/>
     </row>
     <row r="28" spans="1:2" ht="12" customHeight="1">
       <c r="A28" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B28" s="32" t="s">
-        <v>50</v>
+      <c r="B28" s="31" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="12" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B29" s="3"/>
     </row>
     <row r="30" spans="1:2" ht="12" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" s="36" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="B30" s="35" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="12" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B31" s="3"/>
     </row>
     <row r="32" spans="1:2" ht="12" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B32" s="3"/>
     </row>
@@ -1242,42 +1218,42 @@
     </row>
     <row r="34" spans="1:2" ht="67.5" customHeight="1">
       <c r="A34" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="33"/>
+        <v>37</v>
+      </c>
+      <c r="B34" s="32"/>
     </row>
     <row r="35" spans="1:2" ht="12" customHeight="1">
       <c r="A35" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B35" s="32" t="s">
-        <v>50</v>
+      <c r="B35" s="31" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="12" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B36" s="3"/>
     </row>
     <row r="37" spans="1:2" ht="12" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" s="36" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="B37" s="35" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="12" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B38" s="3"/>
     </row>
     <row r="39" spans="1:2" ht="12" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B39" s="3"/>
     </row>
@@ -1289,34 +1265,34 @@
     </row>
     <row r="41" spans="1:2" ht="60" customHeight="1">
       <c r="A41" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="37"/>
+        <v>36</v>
+      </c>
+      <c r="B41" s="36"/>
     </row>
     <row r="42" spans="1:2" ht="12" customHeight="1">
       <c r="A42" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto ")</f>
         <v xml:space="preserve">Plano de Projeto </v>
       </c>
-      <c r="B42" s="32" t="s">
-        <v>50</v>
+      <c r="B42" s="31" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="12" customHeight="1">
-      <c r="A43" s="35" t="s">
-        <v>62</v>
+      <c r="A43" s="34" t="s">
+        <v>58</v>
       </c>
       <c r="B43" s="3"/>
     </row>
     <row r="44" spans="1:2" ht="12" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B44" s="3"/>
     </row>
     <row r="45" spans="1:2" ht="12" customHeight="1">
       <c r="A45" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B45" s="3"/>
     </row>
@@ -1332,36 +1308,36 @@
     </row>
     <row r="48" spans="1:2" ht="48" customHeight="1">
       <c r="A48" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B48" s="41"/>
+        <v>35</v>
+      </c>
+      <c r="B48" s="40"/>
     </row>
     <row r="49" spans="1:2" ht="12" customHeight="1">
       <c r="A49" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B49" s="32" t="s">
-        <v>50</v>
+      <c r="B49" s="31" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="12" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B50" s="3"/>
     </row>
     <row r="51" spans="1:2" ht="12" customHeight="1">
-      <c r="A51" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="B51" s="38" t="s">
-        <v>50</v>
+      <c r="A51" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" s="37" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="12" customHeight="1">
-      <c r="A52" s="40" t="s">
-        <v>65</v>
+      <c r="A52" s="39" t="s">
+        <v>61</v>
       </c>
       <c r="B52" s="3"/>
     </row>
@@ -1377,28 +1353,32 @@
     </row>
     <row r="55" spans="1:2" ht="36" customHeight="1">
       <c r="A55" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B55" s="43"/>
+        <v>34</v>
+      </c>
+      <c r="B55" s="33"/>
     </row>
     <row r="56" spans="1:2" ht="12" customHeight="1">
       <c r="A56" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B56" s="32" t="s">
-        <v>50</v>
+      <c r="B56" s="31" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="12" customHeight="1">
-      <c r="A57" s="42" t="s">
-        <v>66</v>
+      <c r="A57" s="41" t="s">
+        <v>62</v>
       </c>
       <c r="B57" s="3"/>
     </row>
     <row r="58" spans="1:2" ht="12" customHeight="1">
-      <c r="A58" s="4"/>
-      <c r="B58" s="3"/>
+      <c r="A58" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B58" s="45" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="59" spans="1:2" ht="12" customHeight="1">
       <c r="A59" s="4"/>
@@ -1416,22 +1396,22 @@
     </row>
     <row r="62" spans="1:2" ht="36" customHeight="1">
       <c r="A62" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B62" s="33"/>
+        <v>33</v>
+      </c>
+      <c r="B62" s="32"/>
     </row>
     <row r="63" spans="1:2" ht="12" customHeight="1">
       <c r="A63" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B63" s="32" t="s">
-        <v>50</v>
+      <c r="B63" s="31" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="12" customHeight="1">
-      <c r="A64" s="39" t="s">
-        <v>66</v>
+      <c r="A64" s="38" t="s">
+        <v>62</v>
       </c>
       <c r="B64" s="3"/>
     </row>
@@ -1455,31 +1435,31 @@
     </row>
     <row r="69" spans="1:2" ht="60" customHeight="1">
       <c r="A69" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B69" s="34"/>
+        <v>32</v>
+      </c>
+      <c r="B69" s="33"/>
     </row>
     <row r="70" spans="1:2" ht="12" customHeight="1">
       <c r="A70" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B70" s="32" t="s">
-        <v>50</v>
+      <c r="B70" s="31" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="12" customHeight="1">
       <c r="A71" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B71" s="3"/>
     </row>
     <row r="72" spans="1:2" ht="12" customHeight="1">
-      <c r="A72" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="B72" s="38" t="s">
-        <v>50</v>
+      <c r="A72" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B72" s="37" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="12" customHeight="1">
@@ -1498,34 +1478,34 @@
     </row>
     <row r="76" spans="1:2" ht="44.25" customHeight="1">
       <c r="A76" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B76" s="34"/>
+        <v>30</v>
+      </c>
+      <c r="B76" s="33"/>
     </row>
     <row r="77" spans="1:2" ht="12" customHeight="1">
-      <c r="A77" s="45" t="str">
+      <c r="A77" s="43" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B77" s="32" t="s">
-        <v>50</v>
+      <c r="B77" s="31" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="12" customHeight="1">
-      <c r="A78" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="B78" s="32"/>
+      <c r="A78" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="B78" s="31"/>
     </row>
     <row r="79" spans="1:2" ht="12" customHeight="1">
-      <c r="A79" s="40" t="s">
-        <v>70</v>
+      <c r="A79" s="39" t="s">
+        <v>66</v>
       </c>
       <c r="B79" s="3"/>
     </row>
     <row r="80" spans="1:2" ht="12" customHeight="1">
-      <c r="A80" s="39" t="s">
-        <v>71</v>
+      <c r="A80" s="38" t="s">
+        <v>86</v>
       </c>
       <c r="B80" s="3"/>
     </row>
@@ -1545,22 +1525,22 @@
     </row>
     <row r="84" spans="1:2" ht="60" customHeight="1">
       <c r="A84" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B84" s="33"/>
+        <v>29</v>
+      </c>
+      <c r="B84" s="32"/>
     </row>
     <row r="85" spans="1:2" ht="12" customHeight="1">
       <c r="A85" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B85" s="32" t="s">
-        <v>50</v>
+      <c r="B85" s="31" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="12" customHeight="1">
       <c r="A86" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B86" s="3"/>
     </row>
@@ -1584,22 +1564,22 @@
     </row>
     <row r="91" spans="1:2" ht="36" customHeight="1">
       <c r="A91" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B91" s="33"/>
+        <v>27</v>
+      </c>
+      <c r="B91" s="32"/>
     </row>
     <row r="92" spans="1:2" ht="12" customHeight="1">
       <c r="A92" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B92" s="32" t="s">
-        <v>50</v>
+      <c r="B92" s="31" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="12" customHeight="1">
-      <c r="A93" s="22" t="s">
-        <v>5</v>
+      <c r="A93" s="34" t="s">
+        <v>87</v>
       </c>
       <c r="B93" s="3"/>
     </row>
@@ -1622,41 +1602,41 @@
       </c>
     </row>
     <row r="98" spans="1:2" ht="36" customHeight="1">
-      <c r="A98" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B98" s="33"/>
+      <c r="A98" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B98" s="32"/>
     </row>
     <row r="99" spans="1:2" ht="12" customHeight="1">
-      <c r="A99" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="B99" s="38" t="s">
-        <v>50</v>
+      <c r="A99" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="B99" s="37" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="12" customHeight="1">
-      <c r="A100" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="B100" s="38" t="s">
-        <v>50</v>
+      <c r="A100" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B100" s="37" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="12" customHeight="1">
-      <c r="A101" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="B101" s="38" t="s">
-        <v>50</v>
+      <c r="A101" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B101" s="37" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="12" customHeight="1">
-      <c r="A102" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="B102" s="38" t="s">
-        <v>50</v>
+      <c r="A102" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B102" s="37" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="12" customHeight="1">
@@ -1670,41 +1650,41 @@
       </c>
     </row>
     <row r="105" spans="1:2" ht="36" customHeight="1">
-      <c r="A105" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B105" s="33"/>
+      <c r="A105" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B105" s="32"/>
     </row>
     <row r="106" spans="1:2" ht="12" customHeight="1">
-      <c r="A106" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="B106" s="38" t="s">
-        <v>50</v>
+      <c r="A106" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="B106" s="37" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="12" customHeight="1">
-      <c r="A107" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="B107" s="38" t="s">
-        <v>50</v>
+      <c r="A107" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B107" s="37" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="12" customHeight="1">
-      <c r="A108" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="B108" s="38" t="s">
-        <v>50</v>
+      <c r="A108" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B108" s="37" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="12" customHeight="1">
-      <c r="A109" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="B109" s="38" t="s">
-        <v>50</v>
+      <c r="A109" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B109" s="37" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="12" customHeight="1">
@@ -1718,41 +1698,41 @@
       </c>
     </row>
     <row r="112" spans="1:2" ht="36" customHeight="1">
-      <c r="A112" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B112" s="33"/>
+      <c r="A112" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B112" s="32"/>
     </row>
     <row r="113" spans="1:2" ht="12" customHeight="1">
-      <c r="A113" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="B113" s="38" t="s">
-        <v>50</v>
+      <c r="A113" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="B113" s="37" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="12" customHeight="1">
-      <c r="A114" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="B114" s="38" t="s">
-        <v>50</v>
+      <c r="A114" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B114" s="37" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="12" customHeight="1">
-      <c r="A115" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="B115" s="38" t="s">
-        <v>50</v>
+      <c r="A115" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B115" s="37" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="12" customHeight="1">
-      <c r="A116" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="B116" s="38" t="s">
-        <v>50</v>
+      <c r="A116" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B116" s="37" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="12" customHeight="1">
@@ -1766,49 +1746,49 @@
       </c>
     </row>
     <row r="119" spans="1:2" ht="39" customHeight="1">
-      <c r="A119" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B119" s="33"/>
+      <c r="A119" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B119" s="32"/>
     </row>
     <row r="120" spans="1:2" ht="12" customHeight="1">
-      <c r="A120" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="B120" s="32" t="s">
-        <v>50</v>
+      <c r="A120" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B120" s="31" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="12" customHeight="1">
-      <c r="A121" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="B121" s="36" t="s">
-        <v>50</v>
+      <c r="A121" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="B121" s="35" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="12" customHeight="1">
       <c r="A122" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B122" s="38" t="s">
-        <v>50</v>
+        <v>22</v>
+      </c>
+      <c r="B122" s="37" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="12" customHeight="1">
-      <c r="A123" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="B123" s="38" t="s">
-        <v>50</v>
+      <c r="A123" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B123" s="37" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="12" customHeight="1">
-      <c r="A124" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="B124" s="38" t="s">
-        <v>50</v>
+      <c r="A124" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B124" s="37" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="12" customHeight="1">
@@ -1822,32 +1802,32 @@
       </c>
     </row>
     <row r="127" spans="1:2" ht="36" customHeight="1">
-      <c r="A127" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B127" s="46"/>
+      <c r="A127" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B127" s="44"/>
     </row>
     <row r="128" spans="1:2" ht="12" customHeight="1">
       <c r="A128" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B128" s="32" t="s">
-        <v>50</v>
+      <c r="B128" s="31" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="12" customHeight="1">
       <c r="A129" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B129" s="23"/>
+        <v>73</v>
+      </c>
+      <c r="B129" s="22"/>
     </row>
     <row r="130" spans="1:2" ht="12" customHeight="1">
-      <c r="A130" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="B130" s="38" t="s">
-        <v>50</v>
+      <c r="A130" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B130" s="37" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="12" customHeight="1">
@@ -1866,40 +1846,40 @@
     </row>
     <row r="134" spans="1:2" ht="48" customHeight="1">
       <c r="A134" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B134" s="46"/>
+        <v>20</v>
+      </c>
+      <c r="B134" s="44"/>
     </row>
     <row r="135" spans="1:2" ht="12" customHeight="1">
       <c r="A135" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B135" s="38" t="s">
-        <v>50</v>
+        <v>22</v>
+      </c>
+      <c r="B135" s="37" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="12" customHeight="1">
-      <c r="A136" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="B136" s="47" t="s">
-        <v>50</v>
+      <c r="A136" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B136" s="45" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="12" customHeight="1">
-      <c r="A137" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="B137" s="38" t="s">
-        <v>50</v>
+      <c r="A137" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B137" s="37" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="12" customHeight="1">
-      <c r="A138" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="B138" s="38" t="s">
-        <v>50</v>
+      <c r="A138" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B138" s="37" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="12" customHeight="1">
@@ -1914,33 +1894,33 @@
     </row>
     <row r="141" spans="1:2" ht="72" customHeight="1">
       <c r="A141" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B141" s="46"/>
+        <v>19</v>
+      </c>
+      <c r="B141" s="44"/>
     </row>
     <row r="142" spans="1:2" ht="12" customHeight="1">
       <c r="A142" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1YxEe7ln7G2YnhWW41DRU9BqNmW2SU39ESS2lCRx7ZmI","Relatório de Acompanhamento do Projeto")</f>
         <v>Relatório de Acompanhamento do Projeto</v>
       </c>
-      <c r="B142" s="38" t="s">
-        <v>50</v>
+      <c r="B142" s="37" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="12" customHeight="1">
-      <c r="A143" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="B143" s="38" t="s">
-        <v>50</v>
+      <c r="A143" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B143" s="37" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="12" customHeight="1">
-      <c r="A144" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="B144" s="38" t="s">
-        <v>50</v>
+      <c r="A144" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B144" s="37" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="12" customHeight="1">
@@ -1963,40 +1943,40 @@
     </row>
     <row r="149" spans="1:2" ht="15" customHeight="1">
       <c r="A149" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B149" s="15"/>
     </row>
     <row r="150" spans="1:2" ht="15.75" customHeight="1">
       <c r="A150" s="14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B150" s="13"/>
     </row>
     <row r="151" spans="1:2" ht="12" customHeight="1">
       <c r="A151" s="12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B151" s="11"/>
     </row>
     <row r="152" spans="1:2" ht="36" customHeight="1">
       <c r="A152" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B152" s="49"/>
+        <v>15</v>
+      </c>
+      <c r="B152" s="47"/>
     </row>
     <row r="153" spans="1:2" ht="12" customHeight="1">
       <c r="A153" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B153" s="5"/>
     </row>
     <row r="154" spans="1:2" ht="12" customHeight="1">
-      <c r="A154" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="B154" s="38" t="s">
-        <v>50</v>
+      <c r="A154" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B154" s="37" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="12" customHeight="1">
@@ -2004,16 +1984,16 @@
         <f>HYPERLINK("https://drive.google.com/open?id=1YxEe7ln7G2YnhWW41DRU9BqNmW2SU39ESS2lCRx7ZmI","Relatório de Acompanhamento do Projeto")</f>
         <v>Relatório de Acompanhamento do Projeto</v>
       </c>
-      <c r="B155" s="38" t="s">
-        <v>50</v>
+      <c r="B155" s="37" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="12" customHeight="1">
-      <c r="A156" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="B156" s="32" t="s">
-        <v>50</v>
+      <c r="A156" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B156" s="31" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="12" customHeight="1">
@@ -2028,40 +2008,39 @@
     </row>
     <row r="159" spans="1:2" ht="15" customHeight="1">
       <c r="A159" s="10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B159" s="9"/>
     </row>
     <row r="160" spans="1:2" ht="60" customHeight="1">
       <c r="A160" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B160" s="56"/>
+        <v>13</v>
+      </c>
+      <c r="B160" s="51"/>
     </row>
     <row r="161" spans="1:2" ht="12" customHeight="1">
-      <c r="A161" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B161" s="5" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=187cU6CvwlkOR9E_KDNRS8S7Yk0Hi4lS9I5KT3xnXwlE","X")</f>
-        <v>X</v>
+      <c r="A161" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B161" s="31" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="12" customHeight="1">
       <c r="A162" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B162" s="3"/>
     </row>
     <row r="163" spans="1:2" ht="12" customHeight="1">
       <c r="A163" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B163" s="3"/>
     </row>
     <row r="164" spans="1:2" ht="12" customHeight="1">
       <c r="A164" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B164" s="3"/>
     </row>
@@ -2077,25 +2056,25 @@
     </row>
     <row r="167" spans="1:2" ht="24.75" customHeight="1">
       <c r="A167" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B167" s="48"/>
+        <v>12</v>
+      </c>
+      <c r="B167" s="46"/>
     </row>
     <row r="168" spans="1:2" ht="12" customHeight="1">
       <c r="A168" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B168" s="32" t="s">
-        <v>50</v>
+      <c r="B168" s="31" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="12" customHeight="1">
-      <c r="A169" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="B169" s="32" t="s">
-        <v>50</v>
+      <c r="A169" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B169" s="31" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="12" customHeight="1">
@@ -2118,41 +2097,41 @@
     </row>
     <row r="174" spans="1:2" ht="36.75" customHeight="1">
       <c r="A174" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B174" s="50"/>
+        <v>11</v>
+      </c>
+      <c r="B174" s="48"/>
     </row>
     <row r="175" spans="1:2" ht="12" customHeight="1">
       <c r="A175" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1YxEe7ln7G2YnhWW41DRU9BqNmW2SU39ESS2lCRx7ZmI","Relatório de Acompanhamento do Projeto")</f>
         <v>Relatório de Acompanhamento do Projeto</v>
       </c>
-      <c r="B175" s="38" t="s">
-        <v>50</v>
+      <c r="B175" s="37" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="12" customHeight="1">
       <c r="A176" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B176" s="38" t="s">
-        <v>50</v>
+        <v>9</v>
+      </c>
+      <c r="B176" s="37" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="12" customHeight="1">
-      <c r="A177" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="B177" s="38" t="s">
-        <v>50</v>
+      <c r="A177" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B177" s="37" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="12" customHeight="1">
-      <c r="A178" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="B178" s="32" t="s">
-        <v>50</v>
+      <c r="A178" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B178" s="31" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="12" customHeight="1">
@@ -2160,13 +2139,13 @@
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B179" s="32" t="s">
-        <v>50</v>
+      <c r="B179" s="31" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="12" customHeight="1">
-      <c r="A180" s="44" t="s">
-        <v>77</v>
+      <c r="A180" s="42" t="s">
+        <v>73</v>
       </c>
       <c r="B180" s="3"/>
     </row>
@@ -2178,9 +2157,9 @@
     </row>
     <row r="182" spans="1:2" ht="48.75" customHeight="1">
       <c r="A182" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B182" s="50"/>
+        <v>10</v>
+      </c>
+      <c r="B182" s="48"/>
     </row>
     <row r="183" spans="1:2" ht="12" customHeight="1">
       <c r="A183" s="5" t="str">
@@ -2194,47 +2173,47 @@
     </row>
     <row r="184" spans="1:2" ht="12" customHeight="1">
       <c r="A184" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B184" s="38" t="s">
-        <v>50</v>
+        <v>9</v>
+      </c>
+      <c r="B184" s="37" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="12" customHeight="1">
-      <c r="A185" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="B185" s="32" t="s">
-        <v>50</v>
+      <c r="A185" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B185" s="31" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="12" customHeight="1">
-      <c r="A186" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="B186" s="36" t="s">
-        <v>50</v>
+      <c r="A186" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="B186" s="35" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="12" customHeight="1">
-      <c r="A187" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="B187" s="38" t="s">
-        <v>50</v>
+      <c r="A187" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B187" s="37" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="12" customHeight="1">
-      <c r="A188" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="B188" s="38" t="s">
-        <v>50</v>
+      <c r="A188" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B188" s="37" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="12" customHeight="1">
-      <c r="A189" s="39"/>
-      <c r="B189" s="38"/>
+      <c r="A189" s="38"/>
+      <c r="B189" s="37"/>
     </row>
     <row r="190" spans="1:2" ht="12" customHeight="1">
       <c r="A190" s="4"/>
@@ -2244,25 +2223,25 @@
     </row>
     <row r="191" spans="1:2" ht="48.75" customHeight="1">
       <c r="A191" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B191" s="50"/>
+        <v>8</v>
+      </c>
+      <c r="B191" s="48"/>
     </row>
     <row r="192" spans="1:2" ht="12" customHeight="1">
       <c r="A192" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B192" s="32" t="s">
-        <v>50</v>
+      <c r="B192" s="31" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="12" customHeight="1">
-      <c r="A193" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="B193" s="38" t="s">
-        <v>50</v>
+      <c r="A193" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B193" s="37" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="12" customHeight="1">
@@ -2285,197 +2264,210 @@
     </row>
     <row r="198" spans="1:2" ht="36.75" customHeight="1">
       <c r="A198" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B198" s="51"/>
+        <v>7</v>
+      </c>
+      <c r="B198" s="48"/>
     </row>
     <row r="199" spans="1:2" ht="12" customHeight="1">
-      <c r="A199" s="44"/>
-      <c r="B199" s="32"/>
+      <c r="A199" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B199" s="31" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="200" spans="1:2" ht="12" customHeight="1">
-      <c r="A200" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="B200" s="38" t="s">
-        <v>50</v>
-      </c>
+      <c r="A200" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B200" s="37"/>
     </row>
     <row r="201" spans="1:2" ht="12" customHeight="1">
-      <c r="A201" s="4"/>
+      <c r="A201" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="B201" s="3"/>
     </row>
     <row r="202" spans="1:2" ht="12" customHeight="1">
-      <c r="A202" s="4"/>
-      <c r="B202" s="3"/>
+      <c r="A202" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="B202" s="31" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="203" spans="1:2" ht="12" customHeight="1">
-      <c r="A203" s="4"/>
+      <c r="A203" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="B203" s="3"/>
     </row>
     <row r="204" spans="1:2" ht="12" customHeight="1">
-      <c r="A204" s="4"/>
-      <c r="B204" s="8" t="s">
+      <c r="A204" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B204" s="37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="12" customHeight="1">
+      <c r="A205" s="38"/>
+      <c r="B205" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="48.75" customHeight="1">
-      <c r="A205" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B205" s="6"/>
-    </row>
-    <row r="206" spans="1:2" ht="12" customHeight="1">
-      <c r="A206" s="5" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
-        <v>Plano de Projeto</v>
-      </c>
-      <c r="B206" s="5" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","X")</f>
-        <v>X</v>
-      </c>
+    <row r="206" spans="1:2" ht="48.75" customHeight="1">
+      <c r="A206" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B206" s="48"/>
     </row>
     <row r="207" spans="1:2" ht="12" customHeight="1">
-      <c r="A207" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="B207" s="38" t="s">
-        <v>50</v>
+      <c r="A207" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B207" s="31" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="12" customHeight="1">
-      <c r="A208" s="4"/>
-      <c r="B208" s="3"/>
+      <c r="A208" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B208" s="37"/>
     </row>
     <row r="209" spans="1:2" ht="12" customHeight="1">
-      <c r="A209" s="4"/>
+      <c r="A209" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="B209" s="3"/>
     </row>
     <row r="210" spans="1:2" ht="12" customHeight="1">
-      <c r="A210" s="4"/>
-      <c r="B210" s="3"/>
+      <c r="A210" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="B210" s="31" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="211" spans="1:2" ht="12" customHeight="1">
-      <c r="A211" s="4"/>
-      <c r="B211" s="8" t="s">
+      <c r="A211" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B211" s="3"/>
+    </row>
+    <row r="212" spans="1:2" ht="12" customHeight="1">
+      <c r="A212" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B212" s="37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="12" customHeight="1">
+      <c r="A213" s="4"/>
+      <c r="B213" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="48.75" customHeight="1">
-      <c r="A212" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B212" s="53"/>
-    </row>
-    <row r="213" spans="1:2" ht="12" customHeight="1">
-      <c r="A213" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="B213" s="38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" ht="12" customHeight="1">
-      <c r="A214" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B214" s="52"/>
+    <row r="214" spans="1:2" ht="48.75" customHeight="1">
+      <c r="A214" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B214" s="49"/>
     </row>
     <row r="215" spans="1:2" ht="12" customHeight="1">
-      <c r="A215" s="4"/>
-      <c r="B215" s="3"/>
+      <c r="A215" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B215" s="37" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="216" spans="1:2" ht="12" customHeight="1">
-      <c r="A216" s="4"/>
-      <c r="B216" s="3"/>
+      <c r="A216" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B216" s="53" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="217" spans="1:2" ht="12" customHeight="1">
       <c r="A217" s="4"/>
       <c r="B217" s="3"/>
     </row>
-    <row r="218" spans="1:2" ht="15.75" customHeight="1">
+    <row r="218" spans="1:2" ht="12" customHeight="1">
       <c r="A218" s="4"/>
-      <c r="B218" s="8" t="s">
+      <c r="B218" s="3"/>
+    </row>
+    <row r="219" spans="1:2" ht="12" customHeight="1">
+      <c r="A219" s="4"/>
+      <c r="B219" s="3"/>
+    </row>
+    <row r="220" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A220" s="4"/>
+      <c r="B220" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="69.75" customHeight="1">
-      <c r="A219" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B219" s="54"/>
-    </row>
-    <row r="220" spans="1:2" ht="12" customHeight="1">
-      <c r="A220" s="5" t="str">
+    <row r="221" spans="1:2" ht="69.75" customHeight="1">
+      <c r="A221" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B221" s="50"/>
+    </row>
+    <row r="222" spans="1:2" ht="12" customHeight="1">
+      <c r="A222" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B220" s="5" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","X")</f>
+      <c r="B222" s="31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="12" customHeight="1">
+      <c r="A223" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B223" s="3"/>
+    </row>
+    <row r="224" spans="1:2" ht="12" customHeight="1">
+      <c r="A224" s="5" t="str">
+        <f>HYPERLINK("https://drive.google.com/open?id=1YxEe7ln7G2YnhWW41DRU9BqNmW2SU39ESS2lCRx7ZmI","Relatório de Acompanhamento do Projeto")</f>
+        <v>Relatório de Acompanhamento do Projeto</v>
+      </c>
+      <c r="B224" s="5" t="str">
+        <f>HYPERLINK("https://drive.google.com/open?id=1YxEe7ln7G2YnhWW41DRU9BqNmW2SU39ESS2lCRx7ZmI","X")</f>
         <v>X</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="12" customHeight="1">
-      <c r="A221" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B221" s="3"/>
-    </row>
-    <row r="222" spans="1:2" ht="12" customHeight="1">
-      <c r="A222" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B222" s="3"/>
-    </row>
-    <row r="223" spans="1:2" ht="12" customHeight="1">
-      <c r="A223" s="5" t="str">
-        <f>HYPERLINK("http://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","Processo de Garantia de Qualidade")</f>
-        <v>Processo de Garantia de Qualidade</v>
-      </c>
-      <c r="B223" s="5" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","X")</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" ht="12" customHeight="1">
-      <c r="A224" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B224" s="3"/>
-    </row>
     <row r="225" spans="1:2" ht="12" customHeight="1">
-      <c r="A225" s="4"/>
-      <c r="B225" s="8" t="s">
+      <c r="A225" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B225" s="31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="12" customHeight="1">
+      <c r="A226" s="4"/>
+      <c r="B226" s="3"/>
+    </row>
+    <row r="227" spans="1:2" ht="12" customHeight="1">
+      <c r="A227" s="4"/>
+      <c r="B227" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="48.75" customHeight="1">
-      <c r="A226" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B226" s="6"/>
-    </row>
-    <row r="227" spans="1:2" ht="12" customHeight="1">
-      <c r="A227" s="5" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","Processo de Garantia de Qualidade")</f>
-        <v>Processo de Garantia de Qualidade</v>
-      </c>
-      <c r="B227" s="5" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1H-DPQ-1QzkUttwDAAiV83UuEIXWTQYEL_zoggIsdAsI","X")</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" ht="12" customHeight="1">
-      <c r="A228" s="4" t="s">
+    <row r="228" spans="1:2" ht="48.75" customHeight="1">
+      <c r="A228" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B228" s="3"/>
+      <c r="B228" s="6"/>
     </row>
     <row r="229" spans="1:2" ht="12" customHeight="1">
-      <c r="A229" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B229" s="3"/>
+      <c r="A229" s="5"/>
+      <c r="B229" s="5"/>
     </row>
     <row r="230" spans="1:2" ht="12" customHeight="1">
       <c r="A230" s="4"/>
@@ -2487,43 +2479,43 @@
     </row>
     <row r="232" spans="1:2" ht="12" customHeight="1">
       <c r="A232" s="4"/>
-      <c r="B232" s="8" t="s">
+      <c r="B232" s="3"/>
+    </row>
+    <row r="233" spans="1:2" ht="12" customHeight="1">
+      <c r="A233" s="4"/>
+      <c r="B233" s="3"/>
+    </row>
+    <row r="234" spans="1:2" ht="12" customHeight="1">
+      <c r="A234" s="4"/>
+      <c r="B234" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="36.75" customHeight="1">
-      <c r="A233" s="7" t="s">
+    <row r="235" spans="1:2" ht="36.75" customHeight="1">
+      <c r="A235" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B233" s="55"/>
-    </row>
-    <row r="234" spans="1:2" ht="12" customHeight="1">
-      <c r="A234" s="5" t="str">
+      <c r="B235" s="50"/>
+    </row>
+    <row r="236" spans="1:2" ht="12" customHeight="1">
+      <c r="A236" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1YxEe7ln7G2YnhWW41DRU9BqNmW2SU39ESS2lCRx7ZmI","Relatório de Acompanhamento do Projeto")</f>
         <v>Relatório de Acompanhamento do Projeto</v>
       </c>
-      <c r="B234" s="5" t="str">
+      <c r="B236" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1YxEe7ln7G2YnhWW41DRU9BqNmW2SU39ESS2lCRx7ZmI","X")</f>
         <v>X</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="12" customHeight="1">
-      <c r="A235" s="5" t="str">
+    <row r="237" spans="1:2" ht="12" customHeight="1">
+      <c r="A237" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B235" s="5" t="str">
+      <c r="B237" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","X")</f>
         <v>X</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" ht="12" customHeight="1">
-      <c r="A236" s="4"/>
-      <c r="B236" s="3"/>
-    </row>
-    <row r="237" spans="1:2" ht="12" customHeight="1">
-      <c r="A237" s="4"/>
-      <c r="B237" s="3"/>
     </row>
     <row r="238" spans="1:2" ht="12" customHeight="1">
       <c r="A238" s="4"/>
@@ -2531,17 +2523,17 @@
     </row>
     <row r="239" spans="1:2" ht="12" customHeight="1">
       <c r="A239" s="4"/>
-      <c r="B239" s="8" t="s">
+      <c r="B239" s="3"/>
+    </row>
+    <row r="240" spans="1:2" ht="12" customHeight="1">
+      <c r="A240" s="4"/>
+      <c r="B240" s="3"/>
+    </row>
+    <row r="241" spans="1:2" ht="12" customHeight="1">
+      <c r="A241" s="4"/>
+      <c r="B241" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" ht="12.75">
-      <c r="A240" s="2"/>
-      <c r="B240" s="2"/>
-    </row>
-    <row r="241" spans="1:2" ht="12.75">
-      <c r="A241" s="2"/>
-      <c r="B241" s="2"/>
     </row>
     <row r="242" spans="1:2" ht="12.75">
       <c r="A242" s="2"/>
@@ -5534,6 +5526,14 @@
     <row r="989" spans="1:2" ht="12.75">
       <c r="A989" s="2"/>
       <c r="B989" s="2"/>
+    </row>
+    <row r="990" spans="1:2" ht="12.75">
+      <c r="A990" s="2"/>
+      <c r="B990" s="2"/>
+    </row>
+    <row r="991" spans="1:2" ht="12.75">
+      <c r="A991" s="2"/>
+      <c r="B991" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5598,11 +5598,20 @@
     <hyperlink ref="B188" r:id="rId59"/>
     <hyperlink ref="B192" r:id="rId60"/>
     <hyperlink ref="B193" r:id="rId61"/>
-    <hyperlink ref="B200" r:id="rId62"/>
-    <hyperlink ref="B207" r:id="rId63"/>
-    <hyperlink ref="B213" r:id="rId64"/>
+    <hyperlink ref="B215" r:id="rId62"/>
+    <hyperlink ref="A161:B161" r:id="rId63" display="Plano de Gerencia de Processo e Projeto"/>
+    <hyperlink ref="B199" r:id="rId64" display="Plano de Gerencia de Processo e Projeto"/>
+    <hyperlink ref="B207" r:id="rId65" display="Plano de Gerencia de Processo e Projeto"/>
+    <hyperlink ref="B202" r:id="rId66"/>
+    <hyperlink ref="B210" r:id="rId67"/>
+    <hyperlink ref="B222" r:id="rId68"/>
+    <hyperlink ref="B225" r:id="rId69"/>
+    <hyperlink ref="B216" r:id="rId70"/>
+    <hyperlink ref="B58" r:id="rId71"/>
+    <hyperlink ref="B212" r:id="rId72"/>
+    <hyperlink ref="B204" r:id="rId73"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId65"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId74"/>
 </worksheet>
 </file>
--- a/Entregavel_02/Sprint_03/PAP-PAR-PLANILHA_DE_AVALIACAO_GPR.xlsx
+++ b/Entregavel_02/Sprint_03/PAP-PAR-PLANILHA_DE_AVALIACAO_GPR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="91">
   <si>
     <t>(T,L,P,N,NA)</t>
   </si>
@@ -309,6 +309,15 @@
   </si>
   <si>
     <t>Plano de Projeto - Sessao 12 - Aprovação</t>
+  </si>
+  <si>
+    <t>Plano de Projeto - Sessao 11 (i) (ii)</t>
+  </si>
+  <si>
+    <t>Plano de Comunicação (ii) (iii)</t>
+  </si>
+  <si>
+    <t>Atas De Reuniao</t>
   </si>
 </sst>
 </file>
@@ -578,9 +587,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -705,6 +711,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1001,10 +1010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B991"/>
+  <dimension ref="A1:B992"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A220" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A233" sqref="A233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -1015,51 +1024,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="27.75" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="28"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="27"/>
+      <c r="B2" s="26"/>
     </row>
     <row r="3" spans="1:2" ht="51" customHeight="1">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="84" customHeight="1">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="32"/>
+      <c r="B4" s="31"/>
     </row>
     <row r="5" spans="1:2" ht="24" customHeight="1">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="19"/>
     </row>
     <row r="6" spans="1:2" ht="12" customHeight="1">
       <c r="A6" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto  ")</f>
         <v xml:space="preserve">Plano de Projeto  </v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="30" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="12" customHeight="1">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="22"/>
+      <c r="B7" s="21"/>
     </row>
     <row r="8" spans="1:2" ht="12" customHeight="1">
       <c r="A8" s="4"/>
@@ -1074,48 +1083,48 @@
       <c r="B10" s="3"/>
     </row>
     <row r="11" spans="1:2" ht="12" customHeight="1">
-      <c r="A11" s="19"/>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="55.5" customHeight="1">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="33"/>
+      <c r="B12" s="32"/>
     </row>
     <row r="13" spans="1:2" ht="12" customHeight="1">
       <c r="A13" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="30" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="12" customHeight="1">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="31"/>
+      <c r="B14" s="30"/>
     </row>
     <row r="15" spans="1:2" ht="12" customHeight="1">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="22"/>
+      <c r="B15" s="21"/>
     </row>
     <row r="16" spans="1:2" ht="12" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="30" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="12" customHeight="1">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="33" t="s">
         <v>53</v>
       </c>
       <c r="B17" s="3"/>
@@ -1125,28 +1134,28 @@
       <c r="B18" s="3"/>
     </row>
     <row r="19" spans="1:2" ht="12" customHeight="1">
-      <c r="A19" s="19"/>
-      <c r="B19" s="8" t="s">
+      <c r="A19" s="18"/>
+      <c r="B19" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="36" customHeight="1">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="33"/>
+      <c r="B20" s="32"/>
     </row>
     <row r="21" spans="1:2" ht="12" customHeight="1">
       <c r="A21" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="30" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="12" customHeight="1">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="33" t="s">
         <v>49</v>
       </c>
       <c r="B22" s="3"/>
@@ -1164,23 +1173,23 @@
       <c r="B25" s="3"/>
     </row>
     <row r="26" spans="1:2" ht="12" customHeight="1">
-      <c r="A26" s="19"/>
-      <c r="B26" s="8" t="s">
+      <c r="A26" s="18"/>
+      <c r="B26" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="65.25" customHeight="1">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="33"/>
+      <c r="B27" s="32"/>
     </row>
     <row r="28" spans="1:2" ht="12" customHeight="1">
       <c r="A28" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="30" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1194,7 +1203,7 @@
       <c r="A30" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="34" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1211,23 +1220,23 @@
       <c r="B32" s="3"/>
     </row>
     <row r="33" spans="1:2" ht="12" customHeight="1">
-      <c r="A33" s="19"/>
-      <c r="B33" s="8" t="s">
+      <c r="A33" s="18"/>
+      <c r="B33" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="67.5" customHeight="1">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="32"/>
+      <c r="B34" s="31"/>
     </row>
     <row r="35" spans="1:2" ht="12" customHeight="1">
       <c r="A35" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="30" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1241,7 +1250,7 @@
       <c r="A37" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="34" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1258,28 +1267,28 @@
       <c r="B39" s="3"/>
     </row>
     <row r="40" spans="1:2" ht="12" customHeight="1">
-      <c r="A40" s="19"/>
-      <c r="B40" s="8" t="s">
+      <c r="A40" s="18"/>
+      <c r="B40" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="60" customHeight="1">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="36"/>
+      <c r="B41" s="35"/>
     </row>
     <row r="42" spans="1:2" ht="12" customHeight="1">
       <c r="A42" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto ")</f>
         <v xml:space="preserve">Plano de Projeto </v>
       </c>
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="30" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="12" customHeight="1">
-      <c r="A43" s="34" t="s">
+      <c r="A43" s="33" t="s">
         <v>58</v>
       </c>
       <c r="B43" s="3"/>
@@ -1301,23 +1310,23 @@
       <c r="B46" s="3"/>
     </row>
     <row r="47" spans="1:2" ht="12" customHeight="1">
-      <c r="A47" s="19"/>
-      <c r="B47" s="8" t="s">
+      <c r="A47" s="18"/>
+      <c r="B47" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="48" customHeight="1">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B48" s="40"/>
+      <c r="B48" s="39"/>
     </row>
     <row r="49" spans="1:2" ht="12" customHeight="1">
       <c r="A49" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B49" s="31" t="s">
+      <c r="B49" s="30" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1328,15 +1337,15 @@
       <c r="B50" s="3"/>
     </row>
     <row r="51" spans="1:2" ht="12" customHeight="1">
-      <c r="A51" s="38" t="s">
+      <c r="A51" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="B51" s="37" t="s">
+      <c r="B51" s="36" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="12" customHeight="1">
-      <c r="A52" s="39" t="s">
+      <c r="A52" s="38" t="s">
         <v>61</v>
       </c>
       <c r="B52" s="3"/>
@@ -1346,28 +1355,28 @@
       <c r="B53" s="3"/>
     </row>
     <row r="54" spans="1:2" ht="12" customHeight="1">
-      <c r="A54" s="19"/>
-      <c r="B54" s="8" t="s">
+      <c r="A54" s="18"/>
+      <c r="B54" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="36" customHeight="1">
-      <c r="A55" s="21" t="s">
+      <c r="A55" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B55" s="33"/>
+      <c r="B55" s="32"/>
     </row>
     <row r="56" spans="1:2" ht="12" customHeight="1">
       <c r="A56" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B56" s="31" t="s">
+      <c r="B56" s="30" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="12" customHeight="1">
-      <c r="A57" s="41" t="s">
+      <c r="A57" s="40" t="s">
         <v>62</v>
       </c>
       <c r="B57" s="3"/>
@@ -1376,7 +1385,7 @@
       <c r="A58" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B58" s="45" t="s">
+      <c r="B58" s="44" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1389,28 +1398,28 @@
       <c r="B60" s="3"/>
     </row>
     <row r="61" spans="1:2" ht="12" customHeight="1">
-      <c r="A61" s="19"/>
-      <c r="B61" s="8" t="s">
+      <c r="A61" s="18"/>
+      <c r="B61" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="36" customHeight="1">
-      <c r="A62" s="21" t="s">
+      <c r="A62" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B62" s="32"/>
+      <c r="B62" s="31"/>
     </row>
     <row r="63" spans="1:2" ht="12" customHeight="1">
       <c r="A63" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B63" s="31" t="s">
+      <c r="B63" s="30" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="12" customHeight="1">
-      <c r="A64" s="38" t="s">
+      <c r="A64" s="37" t="s">
         <v>62</v>
       </c>
       <c r="B64" s="3"/>
@@ -1428,23 +1437,23 @@
       <c r="B67" s="3"/>
     </row>
     <row r="68" spans="1:2" ht="12" customHeight="1">
-      <c r="A68" s="19"/>
-      <c r="B68" s="8" t="s">
+      <c r="A68" s="18"/>
+      <c r="B68" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="60" customHeight="1">
-      <c r="A69" s="21" t="s">
+      <c r="A69" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B69" s="33"/>
+      <c r="B69" s="32"/>
     </row>
     <row r="70" spans="1:2" ht="12" customHeight="1">
       <c r="A70" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B70" s="31" t="s">
+      <c r="B70" s="30" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1455,10 +1464,10 @@
       <c r="B71" s="3"/>
     </row>
     <row r="72" spans="1:2" ht="12" customHeight="1">
-      <c r="A72" s="38" t="s">
+      <c r="A72" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B72" s="37" t="s">
+      <c r="B72" s="36" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1471,40 +1480,40 @@
       <c r="B74" s="3"/>
     </row>
     <row r="75" spans="1:2" ht="12" customHeight="1">
-      <c r="A75" s="19"/>
-      <c r="B75" s="8" t="s">
+      <c r="A75" s="18"/>
+      <c r="B75" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="44.25" customHeight="1">
-      <c r="A76" s="21" t="s">
+      <c r="A76" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B76" s="33"/>
+      <c r="B76" s="32"/>
     </row>
     <row r="77" spans="1:2" ht="12" customHeight="1">
-      <c r="A77" s="43" t="str">
+      <c r="A77" s="42" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B77" s="31" t="s">
+      <c r="B77" s="30" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="12" customHeight="1">
-      <c r="A78" s="42" t="s">
+      <c r="A78" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="B78" s="31"/>
+      <c r="B78" s="30"/>
     </row>
     <row r="79" spans="1:2" ht="12" customHeight="1">
-      <c r="A79" s="39" t="s">
+      <c r="A79" s="38" t="s">
         <v>66</v>
       </c>
       <c r="B79" s="3"/>
     </row>
     <row r="80" spans="1:2" ht="12" customHeight="1">
-      <c r="A80" s="38" t="s">
+      <c r="A80" s="37" t="s">
         <v>86</v>
       </c>
       <c r="B80" s="3"/>
@@ -1518,23 +1527,23 @@
       <c r="B82" s="3"/>
     </row>
     <row r="83" spans="1:2" ht="12" customHeight="1">
-      <c r="A83" s="19"/>
-      <c r="B83" s="8" t="s">
+      <c r="A83" s="18"/>
+      <c r="B83" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="60" customHeight="1">
-      <c r="A84" s="21" t="s">
+      <c r="A84" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="32"/>
+      <c r="B84" s="31"/>
     </row>
     <row r="85" spans="1:2" ht="12" customHeight="1">
       <c r="A85" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B85" s="31" t="s">
+      <c r="B85" s="30" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1557,28 +1566,28 @@
       <c r="B89" s="3"/>
     </row>
     <row r="90" spans="1:2" ht="12" customHeight="1">
-      <c r="A90" s="19"/>
-      <c r="B90" s="8" t="s">
+      <c r="A90" s="18"/>
+      <c r="B90" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="36" customHeight="1">
-      <c r="A91" s="21" t="s">
+      <c r="A91" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B91" s="32"/>
+      <c r="B91" s="31"/>
     </row>
     <row r="92" spans="1:2" ht="12" customHeight="1">
       <c r="A92" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B92" s="31" t="s">
+      <c r="B92" s="30" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="12" customHeight="1">
-      <c r="A93" s="34" t="s">
+      <c r="A93" s="33" t="s">
         <v>87</v>
       </c>
       <c r="B93" s="3"/>
@@ -1596,46 +1605,46 @@
       <c r="B96" s="3"/>
     </row>
     <row r="97" spans="1:2" ht="12" customHeight="1">
-      <c r="A97" s="19"/>
-      <c r="B97" s="8" t="s">
+      <c r="A97" s="18"/>
+      <c r="B97" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="36" customHeight="1">
-      <c r="A98" s="23" t="s">
+      <c r="A98" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B98" s="32"/>
+      <c r="B98" s="31"/>
     </row>
     <row r="99" spans="1:2" ht="12" customHeight="1">
-      <c r="A99" s="38" t="s">
+      <c r="A99" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="B99" s="37" t="s">
+      <c r="B99" s="36" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="12" customHeight="1">
-      <c r="A100" s="38" t="s">
+      <c r="A100" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="B100" s="37" t="s">
+      <c r="B100" s="36" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="12" customHeight="1">
-      <c r="A101" s="38" t="s">
+      <c r="A101" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="B101" s="37" t="s">
+      <c r="B101" s="36" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="12" customHeight="1">
-      <c r="A102" s="38" t="s">
+      <c r="A102" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="B102" s="37" t="s">
+      <c r="B102" s="36" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1644,46 +1653,46 @@
       <c r="B103" s="3"/>
     </row>
     <row r="104" spans="1:2" ht="12" customHeight="1">
-      <c r="A104" s="19"/>
-      <c r="B104" s="8" t="s">
+      <c r="A104" s="18"/>
+      <c r="B104" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="36" customHeight="1">
-      <c r="A105" s="23" t="s">
+      <c r="A105" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B105" s="32"/>
+      <c r="B105" s="31"/>
     </row>
     <row r="106" spans="1:2" ht="12" customHeight="1">
-      <c r="A106" s="38" t="s">
+      <c r="A106" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="B106" s="37" t="s">
+      <c r="B106" s="36" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="12" customHeight="1">
-      <c r="A107" s="38" t="s">
+      <c r="A107" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="B107" s="37" t="s">
+      <c r="B107" s="36" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="12" customHeight="1">
-      <c r="A108" s="38" t="s">
+      <c r="A108" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="B108" s="37" t="s">
+      <c r="B108" s="36" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="12" customHeight="1">
-      <c r="A109" s="38" t="s">
+      <c r="A109" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="B109" s="37" t="s">
+      <c r="B109" s="36" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1692,46 +1701,46 @@
       <c r="B110" s="3"/>
     </row>
     <row r="111" spans="1:2" ht="12" customHeight="1">
-      <c r="A111" s="19"/>
-      <c r="B111" s="8" t="s">
+      <c r="A111" s="18"/>
+      <c r="B111" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="36" customHeight="1">
-      <c r="A112" s="23" t="s">
+      <c r="A112" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B112" s="32"/>
+      <c r="B112" s="31"/>
     </row>
     <row r="113" spans="1:2" ht="12" customHeight="1">
-      <c r="A113" s="38" t="s">
+      <c r="A113" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="B113" s="37" t="s">
+      <c r="B113" s="36" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="12" customHeight="1">
-      <c r="A114" s="38" t="s">
+      <c r="A114" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="B114" s="37" t="s">
+      <c r="B114" s="36" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="12" customHeight="1">
-      <c r="A115" s="38" t="s">
+      <c r="A115" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="B115" s="37" t="s">
+      <c r="B115" s="36" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="12" customHeight="1">
-      <c r="A116" s="38" t="s">
+      <c r="A116" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="B116" s="37" t="s">
+      <c r="B116" s="36" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1740,30 +1749,30 @@
       <c r="B117" s="3"/>
     </row>
     <row r="118" spans="1:2" ht="12" customHeight="1">
-      <c r="A118" s="19"/>
-      <c r="B118" s="8" t="s">
+      <c r="A118" s="18"/>
+      <c r="B118" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="39" customHeight="1">
-      <c r="A119" s="23" t="s">
+      <c r="A119" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B119" s="32"/>
+      <c r="B119" s="31"/>
     </row>
     <row r="120" spans="1:2" ht="12" customHeight="1">
-      <c r="A120" s="42" t="s">
+      <c r="A120" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="B120" s="31" t="s">
+      <c r="B120" s="30" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="12" customHeight="1">
-      <c r="A121" s="42" t="s">
+      <c r="A121" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="B121" s="35" t="s">
+      <c r="B121" s="34" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1771,23 +1780,23 @@
       <c r="A122" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B122" s="37" t="s">
+      <c r="B122" s="36" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="12" customHeight="1">
-      <c r="A123" s="38" t="s">
+      <c r="A123" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="B123" s="37" t="s">
+      <c r="B123" s="36" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="12" customHeight="1">
-      <c r="A124" s="38" t="s">
+      <c r="A124" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="B124" s="37" t="s">
+      <c r="B124" s="36" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1796,23 +1805,23 @@
       <c r="B125" s="3"/>
     </row>
     <row r="126" spans="1:2" ht="12" customHeight="1">
-      <c r="A126" s="19"/>
-      <c r="B126" s="8" t="s">
+      <c r="A126" s="18"/>
+      <c r="B126" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="36" customHeight="1">
-      <c r="A127" s="23" t="s">
+      <c r="A127" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B127" s="44"/>
+      <c r="B127" s="43"/>
     </row>
     <row r="128" spans="1:2" ht="12" customHeight="1">
       <c r="A128" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B128" s="31" t="s">
+      <c r="B128" s="30" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1820,13 +1829,13 @@
       <c r="A129" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B129" s="22"/>
+      <c r="B129" s="21"/>
     </row>
     <row r="130" spans="1:2" ht="12" customHeight="1">
-      <c r="A130" s="38" t="s">
+      <c r="A130" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="B130" s="37" t="s">
+      <c r="B130" s="36" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1839,46 +1848,46 @@
       <c r="B132" s="3"/>
     </row>
     <row r="133" spans="1:2" ht="12" customHeight="1">
-      <c r="A133" s="19"/>
-      <c r="B133" s="8" t="s">
+      <c r="A133" s="18"/>
+      <c r="B133" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="48" customHeight="1">
-      <c r="A134" s="21" t="s">
+      <c r="A134" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B134" s="44"/>
+      <c r="B134" s="43"/>
     </row>
     <row r="135" spans="1:2" ht="12" customHeight="1">
       <c r="A135" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B135" s="37" t="s">
+      <c r="B135" s="36" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="12" customHeight="1">
-      <c r="A136" s="34" t="s">
+      <c r="A136" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B136" s="45" t="s">
+      <c r="B136" s="44" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="12" customHeight="1">
-      <c r="A137" s="38" t="s">
+      <c r="A137" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="B137" s="37" t="s">
+      <c r="B137" s="36" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="12" customHeight="1">
-      <c r="A138" s="38" t="s">
+      <c r="A138" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="B138" s="37" t="s">
+      <c r="B138" s="36" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1887,39 +1896,39 @@
       <c r="B139" s="3"/>
     </row>
     <row r="140" spans="1:2" ht="12" customHeight="1">
-      <c r="A140" s="19"/>
-      <c r="B140" s="8" t="s">
+      <c r="A140" s="18"/>
+      <c r="B140" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="72" customHeight="1">
-      <c r="A141" s="21" t="s">
+      <c r="A141" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B141" s="44"/>
+      <c r="B141" s="43"/>
     </row>
     <row r="142" spans="1:2" ht="12" customHeight="1">
       <c r="A142" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1YxEe7ln7G2YnhWW41DRU9BqNmW2SU39ESS2lCRx7ZmI","Relatório de Acompanhamento do Projeto")</f>
         <v>Relatório de Acompanhamento do Projeto</v>
       </c>
-      <c r="B142" s="37" t="s">
+      <c r="B142" s="36" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="12" customHeight="1">
-      <c r="A143" s="38" t="s">
+      <c r="A143" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="B143" s="37" t="s">
+      <c r="B143" s="36" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="12" customHeight="1">
-      <c r="A144" s="38" t="s">
+      <c r="A144" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="B144" s="37" t="s">
+      <c r="B144" s="36" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1932,38 +1941,38 @@
       <c r="B146" s="3"/>
     </row>
     <row r="147" spans="1:2" ht="12" customHeight="1">
-      <c r="A147" s="19"/>
-      <c r="B147" s="8" t="s">
+      <c r="A147" s="18"/>
+      <c r="B147" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A148" s="18"/>
-      <c r="B148" s="17"/>
+      <c r="A148" s="17"/>
+      <c r="B148" s="16"/>
     </row>
     <row r="149" spans="1:2" ht="15" customHeight="1">
-      <c r="A149" s="16" t="s">
+      <c r="A149" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B149" s="15"/>
+      <c r="B149" s="14"/>
     </row>
     <row r="150" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A150" s="14" t="s">
+      <c r="A150" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B150" s="13"/>
+      <c r="B150" s="12"/>
     </row>
     <row r="151" spans="1:2" ht="12" customHeight="1">
-      <c r="A151" s="12" t="s">
+      <c r="A151" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B151" s="11"/>
+      <c r="B151" s="10"/>
     </row>
     <row r="152" spans="1:2" ht="36" customHeight="1">
-      <c r="A152" s="12" t="s">
+      <c r="A152" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B152" s="47"/>
+      <c r="B152" s="46"/>
     </row>
     <row r="153" spans="1:2" ht="12" customHeight="1">
       <c r="A153" s="5" t="s">
@@ -1972,10 +1981,10 @@
       <c r="B153" s="5"/>
     </row>
     <row r="154" spans="1:2" ht="12" customHeight="1">
-      <c r="A154" s="38" t="s">
+      <c r="A154" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="B154" s="37" t="s">
+      <c r="B154" s="36" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1984,15 +1993,15 @@
         <f>HYPERLINK("https://drive.google.com/open?id=1YxEe7ln7G2YnhWW41DRU9BqNmW2SU39ESS2lCRx7ZmI","Relatório de Acompanhamento do Projeto")</f>
         <v>Relatório de Acompanhamento do Projeto</v>
       </c>
-      <c r="B155" s="37" t="s">
+      <c r="B155" s="36" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="12" customHeight="1">
-      <c r="A156" s="42" t="s">
+      <c r="A156" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="B156" s="31" t="s">
+      <c r="B156" s="30" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2002,27 +2011,27 @@
     </row>
     <row r="158" spans="1:2" ht="12" customHeight="1">
       <c r="A158" s="4"/>
-      <c r="B158" s="8" t="s">
+      <c r="B158" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="15" customHeight="1">
-      <c r="A159" s="10" t="s">
+      <c r="A159" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B159" s="9"/>
+      <c r="B159" s="8"/>
     </row>
     <row r="160" spans="1:2" ht="60" customHeight="1">
-      <c r="A160" s="7" t="s">
+      <c r="A160" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B160" s="51"/>
+      <c r="B160" s="50"/>
     </row>
     <row r="161" spans="1:2" ht="12" customHeight="1">
-      <c r="A161" s="31" t="s">
+      <c r="A161" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="B161" s="31" t="s">
+      <c r="B161" s="30" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2050,30 +2059,30 @@
     </row>
     <row r="166" spans="1:2" ht="12" customHeight="1">
       <c r="A166" s="4"/>
-      <c r="B166" s="8" t="s">
+      <c r="B166" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="24.75" customHeight="1">
-      <c r="A167" s="7" t="s">
+      <c r="A167" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B167" s="46"/>
+      <c r="B167" s="45"/>
     </row>
     <row r="168" spans="1:2" ht="12" customHeight="1">
       <c r="A168" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B168" s="31" t="s">
+      <c r="B168" s="30" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="12" customHeight="1">
-      <c r="A169" s="42" t="s">
+      <c r="A169" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="B169" s="31" t="s">
+      <c r="B169" s="30" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2091,22 +2100,22 @@
     </row>
     <row r="173" spans="1:2" ht="12" customHeight="1">
       <c r="A173" s="4"/>
-      <c r="B173" s="8" t="s">
+      <c r="B173" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="36.75" customHeight="1">
-      <c r="A174" s="7" t="s">
+      <c r="A174" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B174" s="48"/>
+      <c r="B174" s="47"/>
     </row>
     <row r="175" spans="1:2" ht="12" customHeight="1">
       <c r="A175" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1YxEe7ln7G2YnhWW41DRU9BqNmW2SU39ESS2lCRx7ZmI","Relatório de Acompanhamento do Projeto")</f>
         <v>Relatório de Acompanhamento do Projeto</v>
       </c>
-      <c r="B175" s="37" t="s">
+      <c r="B175" s="36" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2114,23 +2123,23 @@
       <c r="A176" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B176" s="37" t="s">
+      <c r="B176" s="36" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="12" customHeight="1">
-      <c r="A177" s="38" t="s">
+      <c r="A177" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="B177" s="37" t="s">
+      <c r="B177" s="36" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="12" customHeight="1">
-      <c r="A178" s="42" t="s">
+      <c r="A178" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="B178" s="31" t="s">
+      <c r="B178" s="30" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2139,27 +2148,27 @@
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B179" s="31" t="s">
+      <c r="B179" s="30" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="12" customHeight="1">
-      <c r="A180" s="42" t="s">
+      <c r="A180" s="41" t="s">
         <v>73</v>
       </c>
       <c r="B180" s="3"/>
     </row>
     <row r="181" spans="1:2" ht="12" customHeight="1">
       <c r="A181" s="4"/>
-      <c r="B181" s="8" t="s">
+      <c r="B181" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="48.75" customHeight="1">
-      <c r="A182" s="7" t="s">
+      <c r="A182" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B182" s="48"/>
+      <c r="B182" s="47"/>
     </row>
     <row r="183" spans="1:2" ht="12" customHeight="1">
       <c r="A183" s="5" t="str">
@@ -2175,72 +2184,72 @@
       <c r="A184" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B184" s="37" t="s">
+      <c r="B184" s="36" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="12" customHeight="1">
-      <c r="A185" s="42" t="s">
+      <c r="A185" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="B185" s="31" t="s">
+      <c r="B185" s="30" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="12" customHeight="1">
-      <c r="A186" s="42" t="s">
+      <c r="A186" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="B186" s="35" t="s">
+      <c r="B186" s="34" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="12" customHeight="1">
-      <c r="A187" s="38" t="s">
+      <c r="A187" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="B187" s="37" t="s">
+      <c r="B187" s="36" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="12" customHeight="1">
-      <c r="A188" s="38" t="s">
+      <c r="A188" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="B188" s="37" t="s">
+      <c r="B188" s="36" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="12" customHeight="1">
-      <c r="A189" s="38"/>
-      <c r="B189" s="37"/>
+      <c r="A189" s="37"/>
+      <c r="B189" s="36"/>
     </row>
     <row r="190" spans="1:2" ht="12" customHeight="1">
       <c r="A190" s="4"/>
-      <c r="B190" s="8" t="s">
+      <c r="B190" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="48.75" customHeight="1">
-      <c r="A191" s="7" t="s">
+      <c r="A191" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B191" s="48"/>
+      <c r="B191" s="47"/>
     </row>
     <row r="192" spans="1:2" ht="12" customHeight="1">
       <c r="A192" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B192" s="31" t="s">
+      <c r="B192" s="30" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="12" customHeight="1">
-      <c r="A193" s="38" t="s">
+      <c r="A193" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="B193" s="37" t="s">
+      <c r="B193" s="36" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2258,21 +2267,21 @@
     </row>
     <row r="197" spans="1:2" ht="12" customHeight="1">
       <c r="A197" s="4"/>
-      <c r="B197" s="8" t="s">
+      <c r="B197" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="36.75" customHeight="1">
-      <c r="A198" s="7" t="s">
+      <c r="A198" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B198" s="48"/>
+      <c r="B198" s="47"/>
     </row>
     <row r="199" spans="1:2" ht="12" customHeight="1">
       <c r="A199" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B199" s="31" t="s">
+      <c r="B199" s="30" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2280,7 +2289,7 @@
       <c r="A200" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B200" s="37"/>
+      <c r="B200" s="36"/>
     </row>
     <row r="201" spans="1:2" ht="12" customHeight="1">
       <c r="A201" s="4" t="s">
@@ -2289,10 +2298,10 @@
       <c r="B201" s="3"/>
     </row>
     <row r="202" spans="1:2" ht="12" customHeight="1">
-      <c r="A202" s="52" t="s">
+      <c r="A202" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="B202" s="31" t="s">
+      <c r="B202" s="30" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2306,27 +2315,27 @@
       <c r="A204" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B204" s="37" t="s">
+      <c r="B204" s="36" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="12" customHeight="1">
-      <c r="A205" s="38"/>
-      <c r="B205" s="8" t="s">
+      <c r="A205" s="37"/>
+      <c r="B205" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="48.75" customHeight="1">
-      <c r="A206" s="7" t="s">
+      <c r="A206" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B206" s="48"/>
+      <c r="B206" s="47"/>
     </row>
     <row r="207" spans="1:2" ht="12" customHeight="1">
       <c r="A207" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B207" s="31" t="s">
+      <c r="B207" s="30" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2334,7 +2343,7 @@
       <c r="A208" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B208" s="37"/>
+      <c r="B208" s="36"/>
     </row>
     <row r="209" spans="1:2" ht="12" customHeight="1">
       <c r="A209" s="4" t="s">
@@ -2343,10 +2352,10 @@
       <c r="B209" s="3"/>
     </row>
     <row r="210" spans="1:2" ht="12" customHeight="1">
-      <c r="A210" s="52" t="s">
+      <c r="A210" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="B210" s="31" t="s">
+      <c r="B210" s="30" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2357,30 +2366,30 @@
       <c r="B211" s="3"/>
     </row>
     <row r="212" spans="1:2" ht="12" customHeight="1">
-      <c r="A212" s="38" t="s">
+      <c r="A212" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="B212" s="37" t="s">
+      <c r="B212" s="36" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="12" customHeight="1">
       <c r="A213" s="4"/>
-      <c r="B213" s="8" t="s">
+      <c r="B213" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="48.75" customHeight="1">
-      <c r="A214" s="7" t="s">
+      <c r="A214" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B214" s="49"/>
+      <c r="B214" s="48"/>
     </row>
     <row r="215" spans="1:2" ht="12" customHeight="1">
-      <c r="A215" s="38" t="s">
+      <c r="A215" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="B215" s="37" t="s">
+      <c r="B215" s="36" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2388,7 +2397,7 @@
       <c r="A216" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B216" s="53" t="s">
+      <c r="B216" s="52" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2406,28 +2415,28 @@
     </row>
     <row r="220" spans="1:2" ht="15.75" customHeight="1">
       <c r="A220" s="4"/>
-      <c r="B220" s="8" t="s">
+      <c r="B220" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="69.75" customHeight="1">
-      <c r="A221" s="7" t="s">
+      <c r="A221" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B221" s="50"/>
+      <c r="B221" s="49"/>
     </row>
     <row r="222" spans="1:2" ht="12" customHeight="1">
       <c r="A222" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B222" s="31" t="s">
+      <c r="B222" s="30" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="12" customHeight="1">
       <c r="A223" s="4" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="B223" s="3"/>
     </row>
@@ -2442,84 +2451,105 @@
       </c>
     </row>
     <row r="225" spans="1:2" ht="12" customHeight="1">
-      <c r="A225" s="42" t="s">
+      <c r="A225" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="B225" s="31" t="s">
+      <c r="B225" s="30" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="12" customHeight="1">
-      <c r="A226" s="4"/>
-      <c r="B226" s="3"/>
+      <c r="A226" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B226" s="30" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="227" spans="1:2" ht="12" customHeight="1">
-      <c r="A227" s="4"/>
-      <c r="B227" s="8" t="s">
+      <c r="A227" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B227" s="3"/>
+    </row>
+    <row r="228" spans="1:2" ht="12" customHeight="1">
+      <c r="A228" s="4"/>
+      <c r="B228" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="48.75" customHeight="1">
-      <c r="A228" s="7" t="s">
+    <row r="229" spans="1:2" ht="48.75" customHeight="1">
+      <c r="A229" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B228" s="6"/>
-    </row>
-    <row r="229" spans="1:2" ht="12" customHeight="1">
-      <c r="A229" s="5"/>
-      <c r="B229" s="5"/>
+      <c r="B229" s="47"/>
     </row>
     <row r="230" spans="1:2" ht="12" customHeight="1">
-      <c r="A230" s="4"/>
-      <c r="B230" s="3"/>
+      <c r="A230" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B230" s="30" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="231" spans="1:2" ht="12" customHeight="1">
-      <c r="A231" s="4"/>
-      <c r="B231" s="3"/>
+      <c r="A231" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B231" s="53" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="232" spans="1:2" ht="12" customHeight="1">
-      <c r="A232" s="4"/>
-      <c r="B232" s="3"/>
+      <c r="A232" s="5" t="str">
+        <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
+        <v>Plano de Projeto</v>
+      </c>
+      <c r="B232" s="30" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="233" spans="1:2" ht="12" customHeight="1">
-      <c r="A233" s="4"/>
+      <c r="A233" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="B233" s="3"/>
     </row>
     <row r="234" spans="1:2" ht="12" customHeight="1">
       <c r="A234" s="4"/>
-      <c r="B234" s="8" t="s">
+      <c r="B234" s="3"/>
+    </row>
+    <row r="235" spans="1:2" ht="12" customHeight="1">
+      <c r="A235" s="4"/>
+      <c r="B235" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="36.75" customHeight="1">
-      <c r="A235" s="7" t="s">
+    <row r="236" spans="1:2" ht="36.75" customHeight="1">
+      <c r="A236" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B235" s="50"/>
-    </row>
-    <row r="236" spans="1:2" ht="12" customHeight="1">
-      <c r="A236" s="5" t="str">
+      <c r="B236" s="49"/>
+    </row>
+    <row r="237" spans="1:2" ht="12" customHeight="1">
+      <c r="A237" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1YxEe7ln7G2YnhWW41DRU9BqNmW2SU39ESS2lCRx7ZmI","Relatório de Acompanhamento do Projeto")</f>
         <v>Relatório de Acompanhamento do Projeto</v>
       </c>
-      <c r="B236" s="5" t="str">
+      <c r="B237" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1YxEe7ln7G2YnhWW41DRU9BqNmW2SU39ESS2lCRx7ZmI","X")</f>
         <v>X</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="12" customHeight="1">
-      <c r="A237" s="5" t="str">
+    <row r="238" spans="1:2" ht="12" customHeight="1">
+      <c r="A238" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B237" s="5" t="str">
+      <c r="B238" s="5" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","X")</f>
         <v>X</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" ht="12" customHeight="1">
-      <c r="A238" s="4"/>
-      <c r="B238" s="3"/>
     </row>
     <row r="239" spans="1:2" ht="12" customHeight="1">
       <c r="A239" s="4"/>
@@ -2531,13 +2561,13 @@
     </row>
     <row r="241" spans="1:2" ht="12" customHeight="1">
       <c r="A241" s="4"/>
-      <c r="B241" s="8" t="s">
+      <c r="B241" s="3"/>
+    </row>
+    <row r="242" spans="1:2" ht="12" customHeight="1">
+      <c r="A242" s="4"/>
+      <c r="B242" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" ht="12.75">
-      <c r="A242" s="2"/>
-      <c r="B242" s="2"/>
     </row>
     <row r="243" spans="1:2" ht="12.75">
       <c r="A243" s="2"/>
@@ -5534,6 +5564,10 @@
     <row r="991" spans="1:2" ht="12.75">
       <c r="A991" s="2"/>
       <c r="B991" s="2"/>
+    </row>
+    <row r="992" spans="1:2" ht="12.75">
+      <c r="A992" s="2"/>
+      <c r="B992" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5610,8 +5644,12 @@
     <hyperlink ref="B58" r:id="rId71"/>
     <hyperlink ref="B212" r:id="rId72"/>
     <hyperlink ref="B204" r:id="rId73"/>
+    <hyperlink ref="B232" r:id="rId74"/>
+    <hyperlink ref="B231" r:id="rId75"/>
+    <hyperlink ref="B230" r:id="rId76"/>
+    <hyperlink ref="B226" r:id="rId77"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId74"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId78"/>
 </worksheet>
 </file>
--- a/Entregavel_02/Sprint_03/PAP-PAR-PLANILHA_DE_AVALIACAO_GPR.xlsx
+++ b/Entregavel_02/Sprint_03/PAP-PAR-PLANILHA_DE_AVALIACAO_GPR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="91">
   <si>
     <t>(T,L,P,N,NA)</t>
   </si>
@@ -1012,8 +1012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B992"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A220" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A233" sqref="A233"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A157" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B184" sqref="B184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -1628,7 +1628,7 @@
       <c r="A100" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="B100" s="36" t="s">
+      <c r="B100" s="44" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1676,7 +1676,7 @@
       <c r="A107" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="B107" s="36" t="s">
+      <c r="B107" s="44" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2123,7 +2123,7 @@
       <c r="A176" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B176" s="36" t="s">
+      <c r="B176" s="44" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2184,7 +2184,7 @@
       <c r="A184" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B184" s="36" t="s">
+      <c r="B184" s="44" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2369,7 +2369,7 @@
       <c r="A212" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="B212" s="36" t="s">
+      <c r="B212" s="30" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2546,9 +2546,8 @@
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","Plano de Projeto")</f>
         <v>Plano de Projeto</v>
       </c>
-      <c r="B238" s="5" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","X")</f>
-        <v>X</v>
+      <c r="B238" s="30" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="12" customHeight="1">
@@ -5572,84 +5571,85 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1"/>
-    <hyperlink ref="B21" r:id="rId2"/>
-    <hyperlink ref="B37" r:id="rId3"/>
-    <hyperlink ref="B13" r:id="rId4"/>
-    <hyperlink ref="B16" r:id="rId5"/>
-    <hyperlink ref="B28" r:id="rId6"/>
-    <hyperlink ref="B30" r:id="rId7"/>
-    <hyperlink ref="B35" r:id="rId8"/>
-    <hyperlink ref="B42" r:id="rId9"/>
-    <hyperlink ref="B49" r:id="rId10"/>
-    <hyperlink ref="B56" r:id="rId11"/>
-    <hyperlink ref="B63" r:id="rId12"/>
-    <hyperlink ref="B70" r:id="rId13"/>
-    <hyperlink ref="B77" r:id="rId14"/>
-    <hyperlink ref="B85" r:id="rId15"/>
-    <hyperlink ref="B92" r:id="rId16"/>
-    <hyperlink ref="B51" r:id="rId17"/>
-    <hyperlink ref="B72" r:id="rId18"/>
-    <hyperlink ref="B99" r:id="rId19"/>
-    <hyperlink ref="B100" r:id="rId20"/>
-    <hyperlink ref="B101" r:id="rId21"/>
-    <hyperlink ref="B102" r:id="rId22"/>
-    <hyperlink ref="B106" r:id="rId23"/>
-    <hyperlink ref="B107" r:id="rId24"/>
-    <hyperlink ref="B108" r:id="rId25"/>
-    <hyperlink ref="B109" r:id="rId26"/>
-    <hyperlink ref="B113" r:id="rId27"/>
-    <hyperlink ref="B114" r:id="rId28"/>
-    <hyperlink ref="B115" r:id="rId29"/>
-    <hyperlink ref="B116" r:id="rId30"/>
-    <hyperlink ref="B122" r:id="rId31"/>
-    <hyperlink ref="B123" r:id="rId32"/>
-    <hyperlink ref="B124" r:id="rId33"/>
-    <hyperlink ref="B120" r:id="rId34"/>
-    <hyperlink ref="B128" r:id="rId35"/>
-    <hyperlink ref="B121" r:id="rId36"/>
-    <hyperlink ref="B135" r:id="rId37"/>
-    <hyperlink ref="B136" r:id="rId38"/>
-    <hyperlink ref="B130" r:id="rId39"/>
-    <hyperlink ref="B137" r:id="rId40"/>
-    <hyperlink ref="B138" r:id="rId41"/>
-    <hyperlink ref="B142" r:id="rId42"/>
-    <hyperlink ref="B143" r:id="rId43"/>
-    <hyperlink ref="B144" r:id="rId44"/>
-    <hyperlink ref="B154" r:id="rId45"/>
-    <hyperlink ref="B155" r:id="rId46"/>
-    <hyperlink ref="B156" r:id="rId47"/>
-    <hyperlink ref="B169" r:id="rId48"/>
-    <hyperlink ref="B175" r:id="rId49"/>
-    <hyperlink ref="B176" r:id="rId50"/>
-    <hyperlink ref="B177" r:id="rId51"/>
+    <hyperlink ref="B37" r:id="rId2"/>
+    <hyperlink ref="B16" r:id="rId3"/>
+    <hyperlink ref="B30" r:id="rId4"/>
+    <hyperlink ref="B51" r:id="rId5"/>
+    <hyperlink ref="B72" r:id="rId6"/>
+    <hyperlink ref="B99" r:id="rId7"/>
+    <hyperlink ref="B100" r:id="rId8"/>
+    <hyperlink ref="B101" r:id="rId9"/>
+    <hyperlink ref="B102" r:id="rId10"/>
+    <hyperlink ref="B106" r:id="rId11"/>
+    <hyperlink ref="B108" r:id="rId12"/>
+    <hyperlink ref="B109" r:id="rId13"/>
+    <hyperlink ref="B113" r:id="rId14"/>
+    <hyperlink ref="B114" r:id="rId15"/>
+    <hyperlink ref="B115" r:id="rId16"/>
+    <hyperlink ref="B116" r:id="rId17"/>
+    <hyperlink ref="B122" r:id="rId18"/>
+    <hyperlink ref="B123" r:id="rId19"/>
+    <hyperlink ref="B124" r:id="rId20"/>
+    <hyperlink ref="B120" r:id="rId21"/>
+    <hyperlink ref="B121" r:id="rId22"/>
+    <hyperlink ref="B135" r:id="rId23"/>
+    <hyperlink ref="B136" r:id="rId24"/>
+    <hyperlink ref="B130" r:id="rId25"/>
+    <hyperlink ref="B137" r:id="rId26"/>
+    <hyperlink ref="B138" r:id="rId27"/>
+    <hyperlink ref="B142" r:id="rId28"/>
+    <hyperlink ref="B143" r:id="rId29"/>
+    <hyperlink ref="B144" r:id="rId30"/>
+    <hyperlink ref="B154" r:id="rId31"/>
+    <hyperlink ref="B155" r:id="rId32"/>
+    <hyperlink ref="B175" r:id="rId33"/>
+    <hyperlink ref="B177" r:id="rId34"/>
+    <hyperlink ref="B186" r:id="rId35"/>
+    <hyperlink ref="B187" r:id="rId36"/>
+    <hyperlink ref="B188" r:id="rId37"/>
+    <hyperlink ref="B193" r:id="rId38"/>
+    <hyperlink ref="B215" r:id="rId39"/>
+    <hyperlink ref="A161:B161" r:id="rId40" display="Plano de Gerencia de Processo e Projeto"/>
+    <hyperlink ref="B199" r:id="rId41" display="Plano de Gerencia de Processo e Projeto"/>
+    <hyperlink ref="B207" r:id="rId42" display="Plano de Gerencia de Processo e Projeto"/>
+    <hyperlink ref="B210" r:id="rId43"/>
+    <hyperlink ref="B216" r:id="rId44"/>
+    <hyperlink ref="B58" r:id="rId45"/>
+    <hyperlink ref="B204" r:id="rId46"/>
+    <hyperlink ref="B231" r:id="rId47"/>
+    <hyperlink ref="B230" r:id="rId48"/>
+    <hyperlink ref="B226" r:id="rId49"/>
+    <hyperlink ref="B156" r:id="rId50"/>
+    <hyperlink ref="B169" r:id="rId51"/>
     <hyperlink ref="B178" r:id="rId52"/>
-    <hyperlink ref="B168" r:id="rId53"/>
-    <hyperlink ref="B179" r:id="rId54"/>
-    <hyperlink ref="B186" r:id="rId55"/>
-    <hyperlink ref="B185" r:id="rId56"/>
-    <hyperlink ref="B184" r:id="rId57"/>
-    <hyperlink ref="B187" r:id="rId58"/>
-    <hyperlink ref="B188" r:id="rId59"/>
-    <hyperlink ref="B192" r:id="rId60"/>
-    <hyperlink ref="B193" r:id="rId61"/>
-    <hyperlink ref="B215" r:id="rId62"/>
-    <hyperlink ref="A161:B161" r:id="rId63" display="Plano de Gerencia de Processo e Projeto"/>
-    <hyperlink ref="B199" r:id="rId64" display="Plano de Gerencia de Processo e Projeto"/>
-    <hyperlink ref="B207" r:id="rId65" display="Plano de Gerencia de Processo e Projeto"/>
-    <hyperlink ref="B202" r:id="rId66"/>
-    <hyperlink ref="B210" r:id="rId67"/>
-    <hyperlink ref="B222" r:id="rId68"/>
-    <hyperlink ref="B225" r:id="rId69"/>
-    <hyperlink ref="B216" r:id="rId70"/>
-    <hyperlink ref="B58" r:id="rId71"/>
+    <hyperlink ref="B185" r:id="rId53"/>
+    <hyperlink ref="B225" r:id="rId54"/>
+    <hyperlink ref="B13" r:id="rId55"/>
+    <hyperlink ref="B21" r:id="rId56"/>
+    <hyperlink ref="B28" r:id="rId57"/>
+    <hyperlink ref="B35" r:id="rId58"/>
+    <hyperlink ref="B42" r:id="rId59"/>
+    <hyperlink ref="B49" r:id="rId60"/>
+    <hyperlink ref="B56" r:id="rId61"/>
+    <hyperlink ref="B63" r:id="rId62"/>
+    <hyperlink ref="B70" r:id="rId63"/>
+    <hyperlink ref="B77" r:id="rId64"/>
+    <hyperlink ref="B85" r:id="rId65"/>
+    <hyperlink ref="B92" r:id="rId66"/>
+    <hyperlink ref="B128" r:id="rId67"/>
+    <hyperlink ref="B168" r:id="rId68"/>
+    <hyperlink ref="B179" r:id="rId69"/>
+    <hyperlink ref="B192" r:id="rId70"/>
+    <hyperlink ref="B202" r:id="rId71"/>
     <hyperlink ref="B212" r:id="rId72"/>
-    <hyperlink ref="B204" r:id="rId73"/>
+    <hyperlink ref="B222" r:id="rId73"/>
     <hyperlink ref="B232" r:id="rId74"/>
-    <hyperlink ref="B231" r:id="rId75"/>
-    <hyperlink ref="B230" r:id="rId76"/>
-    <hyperlink ref="B226" r:id="rId77"/>
+    <hyperlink ref="B238" r:id="rId75"/>
+    <hyperlink ref="B107" r:id="rId76"/>
+    <hyperlink ref="B176" r:id="rId77"/>
+    <hyperlink ref="B184" r:id="rId78"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId78"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId79"/>
 </worksheet>
 </file>
--- a/Entregavel_02/Sprint_03/PAP-PAR-PLANILHA_DE_AVALIACAO_GPR.xlsx
+++ b/Entregavel_02/Sprint_03/PAP-PAR-PLANILHA_DE_AVALIACAO_GPR.xlsx
@@ -1012,8 +1012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B992"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A157" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B184" sqref="B184"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -5590,64 +5590,64 @@
     <hyperlink ref="B122" r:id="rId18"/>
     <hyperlink ref="B123" r:id="rId19"/>
     <hyperlink ref="B124" r:id="rId20"/>
-    <hyperlink ref="B120" r:id="rId21"/>
-    <hyperlink ref="B121" r:id="rId22"/>
-    <hyperlink ref="B135" r:id="rId23"/>
-    <hyperlink ref="B136" r:id="rId24"/>
-    <hyperlink ref="B130" r:id="rId25"/>
-    <hyperlink ref="B137" r:id="rId26"/>
-    <hyperlink ref="B138" r:id="rId27"/>
-    <hyperlink ref="B142" r:id="rId28"/>
-    <hyperlink ref="B143" r:id="rId29"/>
-    <hyperlink ref="B144" r:id="rId30"/>
-    <hyperlink ref="B154" r:id="rId31"/>
-    <hyperlink ref="B155" r:id="rId32"/>
-    <hyperlink ref="B175" r:id="rId33"/>
-    <hyperlink ref="B177" r:id="rId34"/>
-    <hyperlink ref="B186" r:id="rId35"/>
-    <hyperlink ref="B187" r:id="rId36"/>
-    <hyperlink ref="B188" r:id="rId37"/>
-    <hyperlink ref="B193" r:id="rId38"/>
-    <hyperlink ref="B215" r:id="rId39"/>
-    <hyperlink ref="A161:B161" r:id="rId40" display="Plano de Gerencia de Processo e Projeto"/>
-    <hyperlink ref="B199" r:id="rId41" display="Plano de Gerencia de Processo e Projeto"/>
-    <hyperlink ref="B207" r:id="rId42" display="Plano de Gerencia de Processo e Projeto"/>
-    <hyperlink ref="B210" r:id="rId43"/>
-    <hyperlink ref="B216" r:id="rId44"/>
-    <hyperlink ref="B58" r:id="rId45"/>
-    <hyperlink ref="B204" r:id="rId46"/>
-    <hyperlink ref="B231" r:id="rId47"/>
-    <hyperlink ref="B230" r:id="rId48"/>
-    <hyperlink ref="B226" r:id="rId49"/>
-    <hyperlink ref="B156" r:id="rId50"/>
-    <hyperlink ref="B169" r:id="rId51"/>
-    <hyperlink ref="B178" r:id="rId52"/>
-    <hyperlink ref="B185" r:id="rId53"/>
-    <hyperlink ref="B225" r:id="rId54"/>
-    <hyperlink ref="B13" r:id="rId55"/>
-    <hyperlink ref="B21" r:id="rId56"/>
-    <hyperlink ref="B28" r:id="rId57"/>
-    <hyperlink ref="B35" r:id="rId58"/>
-    <hyperlink ref="B42" r:id="rId59"/>
-    <hyperlink ref="B49" r:id="rId60"/>
-    <hyperlink ref="B56" r:id="rId61"/>
-    <hyperlink ref="B63" r:id="rId62"/>
-    <hyperlink ref="B70" r:id="rId63"/>
-    <hyperlink ref="B77" r:id="rId64"/>
-    <hyperlink ref="B85" r:id="rId65"/>
-    <hyperlink ref="B92" r:id="rId66"/>
-    <hyperlink ref="B128" r:id="rId67"/>
-    <hyperlink ref="B168" r:id="rId68"/>
-    <hyperlink ref="B179" r:id="rId69"/>
-    <hyperlink ref="B192" r:id="rId70"/>
-    <hyperlink ref="B202" r:id="rId71"/>
-    <hyperlink ref="B212" r:id="rId72"/>
-    <hyperlink ref="B222" r:id="rId73"/>
-    <hyperlink ref="B232" r:id="rId74"/>
-    <hyperlink ref="B238" r:id="rId75"/>
-    <hyperlink ref="B107" r:id="rId76"/>
-    <hyperlink ref="B176" r:id="rId77"/>
-    <hyperlink ref="B184" r:id="rId78"/>
+    <hyperlink ref="B121" r:id="rId21"/>
+    <hyperlink ref="B135" r:id="rId22"/>
+    <hyperlink ref="B136" r:id="rId23"/>
+    <hyperlink ref="B130" r:id="rId24"/>
+    <hyperlink ref="B137" r:id="rId25"/>
+    <hyperlink ref="B138" r:id="rId26"/>
+    <hyperlink ref="B142" r:id="rId27"/>
+    <hyperlink ref="B143" r:id="rId28"/>
+    <hyperlink ref="B144" r:id="rId29"/>
+    <hyperlink ref="B154" r:id="rId30"/>
+    <hyperlink ref="B155" r:id="rId31"/>
+    <hyperlink ref="B175" r:id="rId32"/>
+    <hyperlink ref="B177" r:id="rId33"/>
+    <hyperlink ref="B186" r:id="rId34"/>
+    <hyperlink ref="B187" r:id="rId35"/>
+    <hyperlink ref="B188" r:id="rId36"/>
+    <hyperlink ref="B193" r:id="rId37"/>
+    <hyperlink ref="B215" r:id="rId38"/>
+    <hyperlink ref="A161:B161" r:id="rId39" display="Plano de Gerencia de Processo e Projeto"/>
+    <hyperlink ref="B199" r:id="rId40" display="Plano de Gerencia de Processo e Projeto"/>
+    <hyperlink ref="B207" r:id="rId41" display="Plano de Gerencia de Processo e Projeto"/>
+    <hyperlink ref="B210" r:id="rId42"/>
+    <hyperlink ref="B216" r:id="rId43"/>
+    <hyperlink ref="B58" r:id="rId44"/>
+    <hyperlink ref="B204" r:id="rId45"/>
+    <hyperlink ref="B231" r:id="rId46"/>
+    <hyperlink ref="B230" r:id="rId47"/>
+    <hyperlink ref="B226" r:id="rId48"/>
+    <hyperlink ref="B13" r:id="rId49"/>
+    <hyperlink ref="B21" r:id="rId50"/>
+    <hyperlink ref="B28" r:id="rId51"/>
+    <hyperlink ref="B35" r:id="rId52"/>
+    <hyperlink ref="B42" r:id="rId53"/>
+    <hyperlink ref="B49" r:id="rId54"/>
+    <hyperlink ref="B56" r:id="rId55"/>
+    <hyperlink ref="B63" r:id="rId56"/>
+    <hyperlink ref="B70" r:id="rId57"/>
+    <hyperlink ref="B77" r:id="rId58"/>
+    <hyperlink ref="B85" r:id="rId59"/>
+    <hyperlink ref="B92" r:id="rId60"/>
+    <hyperlink ref="B128" r:id="rId61"/>
+    <hyperlink ref="B168" r:id="rId62"/>
+    <hyperlink ref="B179" r:id="rId63"/>
+    <hyperlink ref="B192" r:id="rId64"/>
+    <hyperlink ref="B202" r:id="rId65"/>
+    <hyperlink ref="B212" r:id="rId66"/>
+    <hyperlink ref="B222" r:id="rId67"/>
+    <hyperlink ref="B232" r:id="rId68"/>
+    <hyperlink ref="B238" r:id="rId69"/>
+    <hyperlink ref="B107" r:id="rId70"/>
+    <hyperlink ref="B176" r:id="rId71"/>
+    <hyperlink ref="B184" r:id="rId72"/>
+    <hyperlink ref="B120" r:id="rId73"/>
+    <hyperlink ref="B156" r:id="rId74"/>
+    <hyperlink ref="B169" r:id="rId75"/>
+    <hyperlink ref="B178" r:id="rId76"/>
+    <hyperlink ref="B185" r:id="rId77"/>
+    <hyperlink ref="B225" r:id="rId78"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId79"/>
